--- a/results/processed.xlsx
+++ b/results/processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbhit/Sources/Personal/iga-adi-giraph/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15A298B-8448-B547-8AC8-00CA0C6BD4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76F7FAC-9618-1842-A5E5-E8EF9679DBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/processed.xlsx
+++ b/results/processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbhit/Sources/Personal/iga-adi-giraph/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76F7FAC-9618-1842-A5E5-E8EF9679DBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E55BA77-BE21-3B48-8A17-BC24A226204D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2554,7 +2554,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2643,8 +2643,8 @@
         <v>147456</v>
       </c>
       <c r="H2">
-        <f>ROUND(G2,-3)</f>
-        <v>147000</v>
+        <f>ROUND(G2,1)</f>
+        <v>147456</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">MATCH(1,(A2=A:A)*(MIN(IF(A:A=A2,C:C))=C:C),0)</f>
@@ -2703,8 +2703,8 @@
         <v>73728</v>
       </c>
       <c r="H3">
-        <f>ROUND(G3,-3)</f>
-        <v>74000</v>
+        <f t="shared" ref="H3:H66" si="0">ROUND(G3,1)</f>
+        <v>73728</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">MATCH(1,(A3=A:A)*(MIN(IF(A:A=A3,C:C))=C:C),0)</f>
@@ -2723,19 +2723,19 @@
         <v>1446</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="0">J3/F3</f>
+        <f t="shared" ref="M3:M66" si="1">J3/F3</f>
         <v>1.1510009383797311</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="1">K3/E3</f>
+        <f t="shared" ref="N3:N66" si="2">K3/E3</f>
         <v>1.7780777537796977</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="2">L3/D3</f>
+        <f t="shared" ref="O3:O66" si="3">L3/D3</f>
         <v>0.9377431906614786</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="3">1/M3</f>
+        <f t="shared" ref="P3:P66" si="4">1/M3</f>
         <v>0.86880902235206192</v>
       </c>
     </row>
@@ -2763,8 +2763,8 @@
         <v>36864</v>
       </c>
       <c r="H4">
-        <f>ROUND(G4,-3)</f>
-        <v>37000</v>
+        <f t="shared" si="0"/>
+        <v>36864</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">MATCH(1,(A4=A:A)*(MIN(IF(A:A=A4,C:C))=C:C),0)</f>
@@ -2783,19 +2783,19 @@
         <v>1446</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0583117630140926</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7977909940526762</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4091680814940577</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94490114817582715</v>
       </c>
     </row>
@@ -2823,8 +2823,8 @@
         <v>18432</v>
       </c>
       <c r="H5">
-        <f>ROUND(G5,-3)</f>
-        <v>18000</v>
+        <f t="shared" si="0"/>
+        <v>18432</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">MATCH(1,(A5=A:A)*(MIN(IF(A:A=A5,C:C))=C:C),0)</f>
@@ -2843,19 +2843,19 @@
         <v>1446</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.89308901158910259</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4374537379718726</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24144264484888964</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1197092193763163</v>
       </c>
     </row>
@@ -2883,8 +2883,8 @@
         <v>9216</v>
       </c>
       <c r="H6">
-        <f>ROUND(G6,-3)</f>
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>9216</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">MATCH(1,(A6=A:A)*(MIN(IF(A:A=A6,C:C))=C:C),0)</f>
@@ -2903,19 +2903,19 @@
         <v>1446</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87488112220637182</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0314620604565081</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24294354838709678</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1430124329098446</v>
       </c>
     </row>
@@ -2943,8 +2943,8 @@
         <v>589824</v>
       </c>
       <c r="H7">
-        <f>ROUND(G7,-3)</f>
-        <v>590000</v>
+        <f t="shared" si="0"/>
+        <v>589824</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">MATCH(1,(A7=A:A)*(MIN(IF(A:A=A7,C:C))=C:C),0)</f>
@@ -2963,19 +2963,19 @@
         <v>2431</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="N7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3003,8 +3003,8 @@
         <v>294912</v>
       </c>
       <c r="H8">
-        <f>ROUND(G8,-3)</f>
-        <v>295000</v>
+        <f t="shared" si="0"/>
+        <v>294912</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">MATCH(1,(A8=A:A)*(MIN(IF(A:A=A8,C:C))=C:C),0)</f>
@@ -3023,19 +3023,19 @@
         <v>2431</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5458322903629538</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9383280036546369</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1239019879796579</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.64690070600427485</v>
       </c>
     </row>
@@ -3063,8 +3063,8 @@
         <v>147456</v>
       </c>
       <c r="H9">
-        <f>ROUND(G9,-3)</f>
-        <v>147000</v>
+        <f t="shared" si="0"/>
+        <v>147456</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">MATCH(1,(A9=A:A)*(MIN(IF(A:A=A9,C:C))=C:C),0)</f>
@@ -3083,19 +3083,19 @@
         <v>2431</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.40533406153286</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7450938106534397</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40672578216496569</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71157458384610406</v>
       </c>
     </row>
@@ -3124,8 +3124,8 @@
         <v>73728</v>
       </c>
       <c r="H10">
-        <f>ROUND(G10,-3)</f>
-        <v>74000</v>
+        <f t="shared" si="0"/>
+        <v>73728</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">MATCH(1,(A10=A:A)*(MIN(IF(A:A=A10,C:C))=C:C),0)</f>
@@ -3144,19 +3144,19 @@
         <v>2431</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5049958570941171</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.487590384991206</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56208092485549133</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66445365632489151</v>
       </c>
     </row>
@@ -3184,8 +3184,8 @@
         <v>73728</v>
       </c>
       <c r="H11">
-        <f>ROUND(G11,-3)</f>
-        <v>74000</v>
+        <f t="shared" si="0"/>
+        <v>73728</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">MATCH(1,(A11=A:A)*(MIN(IF(A:A=A11,C:C))=C:C),0)</f>
@@ -3204,19 +3204,19 @@
         <v>2431</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7898214699744956</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0460902733630002</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56998827667057439</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55871494267763455</v>
       </c>
     </row>
@@ -3245,8 +3245,8 @@
         <v>36864</v>
       </c>
       <c r="H12">
-        <f>ROUND(G12,-3)</f>
-        <v>37000</v>
+        <f t="shared" si="0"/>
+        <v>36864</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">MATCH(1,(A12=A:A)*(MIN(IF(A:A=A12,C:C))=C:C),0)</f>
@@ -3265,19 +3265,19 @@
         <v>2431</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5002429307161598</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2600401606425704</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58691453404152583</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6665587149426776</v>
       </c>
     </row>
@@ -3305,8 +3305,8 @@
         <v>36864</v>
       </c>
       <c r="H13">
-        <f>ROUND(G13,-3)</f>
-        <v>37000</v>
+        <f t="shared" si="0"/>
+        <v>36864</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">MATCH(1,(A13=A:A)*(MIN(IF(A:A=A13,C:C))=C:C),0)</f>
@@ -3325,19 +3325,19 @@
         <v>2431</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5036034281262174</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1119960179193629</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52767527675276749</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66506898115162894</v>
       </c>
     </row>
@@ -3366,8 +3366,8 @@
         <v>24576</v>
       </c>
       <c r="H14">
-        <f>ROUND(G14,-3)</f>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>24576</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">MATCH(1,(A14=A:A)*(MIN(IF(A:A=A14,C:C))=C:C),0)</f>
@@ -3386,19 +3386,19 @@
         <v>2431</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6393077086430239</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3304020100502516</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83453484380363885</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61001360191722265</v>
       </c>
     </row>
@@ -3427,8 +3427,8 @@
         <v>18432</v>
       </c>
       <c r="H15">
-        <f>ROUND(G15,-3)</f>
-        <v>18000</v>
+        <f t="shared" si="0"/>
+        <v>18432</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">MATCH(1,(A15=A:A)*(MIN(IF(A:A=A15,C:C))=C:C),0)</f>
@@ -3447,19 +3447,19 @@
         <v>2431</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7275372048785946</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1821272462360373</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4932432432432432</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57885873437398794</v>
       </c>
     </row>
@@ -3488,8 +3488,8 @@
         <v>14745.6</v>
       </c>
       <c r="H16">
-        <f>ROUND(G16,-3)</f>
-        <v>15000</v>
+        <f t="shared" si="0"/>
+        <v>14745.6</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">MATCH(1,(A16=A:A)*(MIN(IF(A:A=A16,C:C))=C:C),0)</f>
@@ -3508,19 +3508,19 @@
         <v>2431</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7486691584550911</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5715023231801757</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5583333333333333</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57186346265949872</v>
       </c>
     </row>
@@ -3548,8 +3548,8 @@
         <v>2359296</v>
       </c>
       <c r="H17">
-        <f>ROUND(G17,-3)</f>
-        <v>2359000</v>
+        <f t="shared" si="0"/>
+        <v>2359296</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">MATCH(1,(A17=A:A)*(MIN(IF(A:A=A17,C:C))=C:C),0)</f>
@@ -3568,19 +3568,19 @@
         <v>5588</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="N17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3608,8 +3608,8 @@
         <v>1179648</v>
       </c>
       <c r="H18">
-        <f>ROUND(G18,-3)</f>
-        <v>1180000</v>
+        <f t="shared" si="0"/>
+        <v>1179648</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">MATCH(1,(A18=A:A)*(MIN(IF(A:A=A18,C:C))=C:C),0)</f>
@@ -3628,19 +3628,19 @@
         <v>5588</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5402257552621337</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6296032311712996</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.497320471596999</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.64925547218226354</v>
       </c>
     </row>
@@ -3668,8 +3668,8 @@
         <v>589824</v>
       </c>
       <c r="H19">
-        <f>ROUND(G19,-3)</f>
-        <v>590000</v>
+        <f t="shared" si="0"/>
+        <v>589824</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">MATCH(1,(A19=A:A)*(MIN(IF(A:A=A19,C:C))=C:C),0)</f>
@@ -3688,19 +3688,19 @@
         <v>5588</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0354931249381738</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3782190701339636</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92485931810658717</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49128144317872557</v>
       </c>
     </row>
@@ -3729,8 +3729,8 @@
         <v>294912</v>
       </c>
       <c r="H20">
-        <f>ROUND(G20,-3)</f>
-        <v>295000</v>
+        <f t="shared" si="0"/>
+        <v>294912</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">MATCH(1,(A20=A:A)*(MIN(IF(A:A=A20,C:C))=C:C),0)</f>
@@ -3749,19 +3749,19 @@
         <v>5588</v>
       </c>
       <c r="M20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.36417114757112</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.211278995530964</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93117813697717045</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4229812215699234</v>
       </c>
     </row>
@@ -3789,8 +3789,8 @@
         <v>294912</v>
       </c>
       <c r="H21">
-        <f>ROUND(G21,-3)</f>
-        <v>295000</v>
+        <f t="shared" si="0"/>
+        <v>294912</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">MATCH(1,(A21=A:A)*(MIN(IF(A:A=A21,C:C))=C:C),0)</f>
@@ -3809,19 +3809,19 @@
         <v>5588</v>
       </c>
       <c r="M21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8700867576087261</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9212618886752248</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1138130356786924</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34842152326892423</v>
       </c>
     </row>
@@ -3850,8 +3850,8 @@
         <v>147456</v>
       </c>
       <c r="H22">
-        <f>ROUND(G22,-3)</f>
-        <v>147000</v>
+        <f t="shared" si="0"/>
+        <v>147456</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">MATCH(1,(A22=A:A)*(MIN(IF(A:A=A22,C:C))=C:C),0)</f>
@@ -3870,19 +3870,19 @@
         <v>5588</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.000145802350334</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2213840830449829</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2058696590418645</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33331713385949224</v>
       </c>
     </row>
@@ -3910,8 +3910,8 @@
         <v>147456</v>
       </c>
       <c r="H23">
-        <f>ROUND(G23,-3)</f>
-        <v>147000</v>
+        <f t="shared" si="0"/>
+        <v>147456</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">MATCH(1,(A23=A:A)*(MIN(IF(A:A=A23,C:C))=C:C),0)</f>
@@ -3930,19 +3930,19 @@
         <v>5588</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7667401710321089</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2902877288752412</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.68030192354516683</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36143618055285565</v>
       </c>
     </row>
@@ -3971,8 +3971,8 @@
         <v>98304</v>
       </c>
       <c r="H24">
-        <f>ROUND(G24,-3)</f>
-        <v>98000</v>
+        <f t="shared" si="0"/>
+        <v>98304</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">MATCH(1,(A24=A:A)*(MIN(IF(A:A=A24,C:C))=C:C),0)</f>
@@ -3991,19 +3991,19 @@
         <v>5588</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4355361138010485</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2186184462303862</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.600229095074456</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29107538587146692</v>
       </c>
     </row>
@@ -4032,8 +4032,8 @@
         <v>73728</v>
       </c>
       <c r="H25">
-        <f>ROUND(G25,-3)</f>
-        <v>74000</v>
+        <f t="shared" si="0"/>
+        <v>73728</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">MATCH(1,(A25=A:A)*(MIN(IF(A:A=A25,C:C))=C:C),0)</f>
@@ -4052,19 +4052,19 @@
         <v>5588</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8330911664990128</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7935897435897434</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2387820512820511</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26088604642121221</v>
       </c>
     </row>
@@ -4093,8 +4093,8 @@
         <v>58982.400000000001</v>
       </c>
       <c r="H26">
-        <f>ROUND(G26,-3)</f>
-        <v>59000</v>
+        <f t="shared" si="0"/>
+        <v>58982.400000000001</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">MATCH(1,(A26=A:A)*(MIN(IF(A:A=A26,C:C))=C:C),0)</f>
@@ -4113,19 +4113,19 @@
         <v>5588</v>
       </c>
       <c r="M26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.963784866697488</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.201325040562466</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7418952618453865</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25228412581159365</v>
       </c>
     </row>
@@ -4154,8 +4154,8 @@
         <v>49152</v>
       </c>
       <c r="H27">
-        <f>ROUND(G27,-3)</f>
-        <v>49000</v>
+        <f t="shared" si="0"/>
+        <v>49152</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">MATCH(1,(A27=A:A)*(MIN(IF(A:A=A27,C:C))=C:C),0)</f>
@@ -4174,19 +4174,19 @@
         <v>5588</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.589561091340451</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9445103466455773</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3819266837169653</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27858559153998674</v>
       </c>
     </row>
@@ -4215,8 +4215,8 @@
         <v>42130.285714285717</v>
       </c>
       <c r="H28">
-        <f>ROUND(G28,-3)</f>
-        <v>42000</v>
+        <f t="shared" si="0"/>
+        <v>42130.3</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">MATCH(1,(A28=A:A)*(MIN(IF(A:A=A28,C:C))=C:C),0)</f>
@@ -4235,19 +4235,19 @@
         <v>5588</v>
       </c>
       <c r="M28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2521077864109769</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.844569288389513</v>
       </c>
       <c r="O28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.587037037037037</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23517748143540299</v>
       </c>
     </row>
@@ -4276,8 +4276,8 @@
         <v>36864</v>
       </c>
       <c r="H29">
-        <f>ROUND(G29,-3)</f>
-        <v>37000</v>
+        <f t="shared" si="0"/>
+        <v>36864</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">MATCH(1,(A29=A:A)*(MIN(IF(A:A=A29,C:C))=C:C),0)</f>
@@ -4296,19 +4296,19 @@
         <v>5588</v>
       </c>
       <c r="M29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0179645395610404</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.126130828114126</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7718253968253967</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24888223630496481</v>
       </c>
     </row>
@@ -4337,8 +4337,8 @@
         <v>32768</v>
       </c>
       <c r="H30">
-        <f>ROUND(G30,-3)</f>
-        <v>33000</v>
+        <f t="shared" si="0"/>
+        <v>32768</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">MATCH(1,(A30=A:A)*(MIN(IF(A:A=A30,C:C))=C:C),0)</f>
@@ -4357,19 +4357,19 @@
         <v>5588</v>
       </c>
       <c r="M30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2203626220362622</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.263807404410278</v>
       </c>
       <c r="O30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9180156657963447</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23694646397884997</v>
       </c>
     </row>
@@ -4398,8 +4398,8 @@
         <v>29491.200000000001</v>
       </c>
       <c r="H31">
-        <f>ROUND(G31,-3)</f>
-        <v>29000</v>
+        <f t="shared" si="0"/>
+        <v>29491.200000000001</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">MATCH(1,(A31=A:A)*(MIN(IF(A:A=A31,C:C))=C:C),0)</f>
@@ -4418,19 +4418,19 @@
         <v>5588</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2401912298054727</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.922666139240507</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.881897885507994</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23583841996811947</v>
       </c>
     </row>
@@ -4458,8 +4458,8 @@
         <v>9437184</v>
       </c>
       <c r="H32">
-        <f>ROUND(G32,-3)</f>
-        <v>9437000</v>
+        <f t="shared" si="0"/>
+        <v>9437184</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">MATCH(1,(A32=A:A)*(MIN(IF(A:A=A32,C:C))=C:C),0)</f>
@@ -4478,19 +4478,19 @@
         <v>17844</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O32">
+      <c r="N32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4518,8 +4518,8 @@
         <v>4718592</v>
       </c>
       <c r="H33">
-        <f>ROUND(G33,-3)</f>
-        <v>4719000</v>
+        <f t="shared" si="0"/>
+        <v>4718592</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">MATCH(1,(A33=A:A)*(MIN(IF(A:A=A33,C:C))=C:C),0)</f>
@@ -4538,19 +4538,19 @@
         <v>17844</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.092758035663945</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2430534941355957</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7762293450129405</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47783832767974133</v>
       </c>
     </row>
@@ -4578,8 +4578,8 @@
         <v>2359296</v>
       </c>
       <c r="H34">
-        <f>ROUND(G34,-3)</f>
-        <v>2359000</v>
+        <f t="shared" si="0"/>
+        <v>2359296</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">MATCH(1,(A34=A:A)*(MIN(IF(A:A=A34,C:C))=C:C),0)</f>
@@ -4598,19 +4598,19 @@
         <v>17844</v>
       </c>
       <c r="M34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3679091981423892</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6016804487108431</v>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3706656038262257</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29692011903158255</v>
       </c>
     </row>
@@ -4639,8 +4639,8 @@
         <v>1179648</v>
       </c>
       <c r="H35">
-        <f>ROUND(G35,-3)</f>
-        <v>1180000</v>
+        <f t="shared" si="0"/>
+        <v>1179648</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">MATCH(1,(A35=A:A)*(MIN(IF(A:A=A35,C:C))=C:C),0)</f>
@@ -4659,19 +4659,19 @@
         <v>17844</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7317545767792999</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2332907731193163</v>
       </c>
       <c r="O35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0931378299120236</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26797046253321744</v>
       </c>
     </row>
@@ -4699,8 +4699,8 @@
         <v>1179648</v>
       </c>
       <c r="H36">
-        <f>ROUND(G36,-3)</f>
-        <v>1180000</v>
+        <f t="shared" si="0"/>
+        <v>1179648</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">MATCH(1,(A36=A:A)*(MIN(IF(A:A=A36,C:C))=C:C),0)</f>
@@ -4719,19 +4719,19 @@
         <v>17844</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4817942590156008</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5656724862592952</v>
       </c>
       <c r="O36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3596932028563873</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18242202329198251</v>
       </c>
     </row>
@@ -4760,8 +4760,8 @@
         <v>589824</v>
       </c>
       <c r="H37">
-        <f>ROUND(G37,-3)</f>
-        <v>590000</v>
+        <f t="shared" si="0"/>
+        <v>589824</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">MATCH(1,(A37=A:A)*(MIN(IF(A:A=A37,C:C))=C:C),0)</f>
@@ -4780,19 +4780,19 @@
         <v>17844</v>
       </c>
       <c r="M37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3656844402868726</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7596581565254894</v>
       </c>
       <c r="O37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6042031523642732</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15709229846067183</v>
       </c>
     </row>
@@ -4820,8 +4820,8 @@
         <v>589824</v>
       </c>
       <c r="H38">
-        <f>ROUND(G38,-3)</f>
-        <v>590000</v>
+        <f t="shared" si="0"/>
+        <v>589824</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">MATCH(1,(A38=A:A)*(MIN(IF(A:A=A38,C:C))=C:C),0)</f>
@@ -4840,19 +4840,19 @@
         <v>17844</v>
       </c>
       <c r="M38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2942436948880802</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8409710659040996</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4169036976838685</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15887532298950513</v>
       </c>
     </row>
@@ -4881,8 +4881,8 @@
         <v>393216</v>
       </c>
       <c r="H39">
-        <f>ROUND(G39,-3)</f>
-        <v>393000</v>
+        <f t="shared" si="0"/>
+        <v>393216</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">MATCH(1,(A39=A:A)*(MIN(IF(A:A=A39,C:C))=C:C),0)</f>
@@ -4901,19 +4901,19 @@
         <v>17844</v>
       </c>
       <c r="M39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.170618194590797</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8353916939096742</v>
       </c>
       <c r="O39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6588066434283371</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13945798993374889</v>
       </c>
     </row>
@@ -4942,8 +4942,8 @@
         <v>294912</v>
       </c>
       <c r="H40">
-        <f>ROUND(G40,-3)</f>
-        <v>295000</v>
+        <f t="shared" si="0"/>
+        <v>294912</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">MATCH(1,(A40=A:A)*(MIN(IF(A:A=A40,C:C))=C:C),0)</f>
@@ -4962,19 +4962,19 @@
         <v>17844</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2852069805194812</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.978249649782496</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8032301480484518</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12069704502871698</v>
       </c>
     </row>
@@ -5003,8 +5003,8 @@
         <v>235929.60000000001</v>
       </c>
       <c r="H41">
-        <f>ROUND(G41,-3)</f>
-        <v>236000</v>
+        <f t="shared" si="0"/>
+        <v>235929.60000000001</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">MATCH(1,(A41=A:A)*(MIN(IF(A:A=A41,C:C))=C:C),0)</f>
@@ -5023,19 +5023,19 @@
         <v>17844</v>
       </c>
       <c r="M41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6192738019843791</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.508546350477364</v>
       </c>
       <c r="O41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2129710780017531</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11601905485004714</v>
       </c>
     </row>
@@ -5064,8 +5064,8 @@
         <v>196608</v>
       </c>
       <c r="H42">
-        <f>ROUND(G42,-3)</f>
-        <v>197000</v>
+        <f t="shared" si="0"/>
+        <v>196608</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">MATCH(1,(A42=A:A)*(MIN(IF(A:A=A42,C:C))=C:C),0)</f>
@@ -5084,19 +5084,19 @@
         <v>17844</v>
       </c>
       <c r="M42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3407837844020953</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.216048302415121</v>
       </c>
       <c r="O42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7542728152208964</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10705739722504562</v>
       </c>
     </row>
@@ -5125,8 +5125,8 @@
         <v>168521.14285714287</v>
       </c>
       <c r="H43">
-        <f>ROUND(G43,-3)</f>
-        <v>169000</v>
+        <f t="shared" si="0"/>
+        <v>168521.1</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">MATCH(1,(A43=A:A)*(MIN(IF(A:A=A43,C:C))=C:C),0)</f>
@@ -5145,19 +5145,19 @@
         <v>17844</v>
       </c>
       <c r="M43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.139188954282451</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.755466171617162</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0080808080808081</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8627218065369393E-2</v>
       </c>
     </row>
@@ -5186,8 +5186,8 @@
         <v>147456</v>
       </c>
       <c r="H44">
-        <f>ROUND(G44,-3)</f>
-        <v>147000</v>
+        <f t="shared" si="0"/>
+        <v>147456</v>
       </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">MATCH(1,(A44=A:A)*(MIN(IF(A:A=A44,C:C))=C:C),0)</f>
@@ -5206,19 +5206,19 @@
         <v>17844</v>
       </c>
       <c r="M44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.398711287693562</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.102512674800824</v>
       </c>
       <c r="O44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0263424518743669</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6165762500153074E-2</v>
       </c>
     </row>
@@ -5247,8 +5247,8 @@
         <v>131072</v>
       </c>
       <c r="H45">
-        <f>ROUND(G45,-3)</f>
-        <v>131000</v>
+        <f t="shared" si="0"/>
+        <v>131072</v>
       </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">MATCH(1,(A45=A:A)*(MIN(IF(A:A=A45,C:C))=C:C),0)</f>
@@ -5267,19 +5267,19 @@
         <v>17844</v>
       </c>
       <c r="M45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.004042829490604</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.158956485002111</v>
       </c>
       <c r="O45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5485074626865671</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9959588042959124E-2</v>
       </c>
     </row>
@@ -5308,8 +5308,8 @@
         <v>117964.8</v>
       </c>
       <c r="H46">
-        <f>ROUND(G46,-3)</f>
-        <v>118000</v>
+        <f t="shared" si="0"/>
+        <v>117964.8</v>
       </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">MATCH(1,(A46=A:A)*(MIN(IF(A:A=A46,C:C))=C:C),0)</f>
@@ -5328,19 +5328,19 @@
         <v>17844</v>
       </c>
       <c r="M46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.784621886473493</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.840141662087074</v>
       </c>
       <c r="O46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0161834120026976</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2724623127885472E-2</v>
       </c>
     </row>
@@ -5368,8 +5368,8 @@
         <v>37748736</v>
       </c>
       <c r="H47">
-        <f>ROUND(G47,-3)</f>
-        <v>37749000</v>
+        <f t="shared" si="0"/>
+        <v>37748736</v>
       </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">MATCH(1,(A47=A:A)*(MIN(IF(A:A=A47,C:C))=C:C),0)</f>
@@ -5388,19 +5388,19 @@
         <v>59656</v>
       </c>
       <c r="M47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O47">
+      <c r="N47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="P47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5428,8 +5428,8 @@
         <v>18874368</v>
       </c>
       <c r="H48">
-        <f>ROUND(G48,-3)</f>
-        <v>18874000</v>
+        <f t="shared" si="0"/>
+        <v>18874368</v>
       </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">MATCH(1,(A48=A:A)*(MIN(IF(A:A=A48,C:C))=C:C),0)</f>
@@ -5448,19 +5448,19 @@
         <v>59656</v>
       </c>
       <c r="M48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2390267650848843</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4064176542498275</v>
       </c>
       <c r="O48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8676935600012523</v>
       </c>
       <c r="P48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44662261996769331</v>
       </c>
     </row>
@@ -5488,8 +5488,8 @@
         <v>9437184</v>
       </c>
       <c r="H49">
-        <f>ROUND(G49,-3)</f>
-        <v>9437000</v>
+        <f t="shared" si="0"/>
+        <v>9437184</v>
       </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">MATCH(1,(A49=A:A)*(MIN(IF(A:A=A49,C:C))=C:C),0)</f>
@@ -5508,19 +5508,19 @@
         <v>59656</v>
       </c>
       <c r="M49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0202669174667651</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3292867290117218</v>
       </c>
       <c r="O49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.91559552319046</v>
       </c>
       <c r="P49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24873970324092712</v>
       </c>
     </row>
@@ -5549,8 +5549,8 @@
         <v>4718592</v>
       </c>
       <c r="H50">
-        <f>ROUND(G50,-3)</f>
-        <v>4719000</v>
+        <f t="shared" si="0"/>
+        <v>4718592</v>
       </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">MATCH(1,(A50=A:A)*(MIN(IF(A:A=A50,C:C))=C:C),0)</f>
@@ -5569,19 +5569,19 @@
         <v>59656</v>
       </c>
       <c r="M50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0685912988639652</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3630287486123338</v>
       </c>
       <c r="O50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9825017498250177</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24578531647531682</v>
       </c>
     </row>
@@ -5609,8 +5609,8 @@
         <v>4718592</v>
       </c>
       <c r="H51">
-        <f>ROUND(G51,-3)</f>
-        <v>4719000</v>
+        <f t="shared" si="0"/>
+        <v>4718592</v>
       </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">MATCH(1,(A51=A:A)*(MIN(IF(A:A=A51,C:C))=C:C),0)</f>
@@ -5629,19 +5629,19 @@
         <v>59656</v>
       </c>
       <c r="M51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0097422340292486</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6474238589042214</v>
       </c>
       <c r="O51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3766910058300788</v>
       </c>
       <c r="P51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16639648774578925</v>
       </c>
     </row>
@@ -5670,8 +5670,8 @@
         <v>2359296</v>
       </c>
       <c r="H52">
-        <f>ROUND(G52,-3)</f>
-        <v>2359000</v>
+        <f t="shared" si="0"/>
+        <v>2359296</v>
       </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">MATCH(1,(A52=A:A)*(MIN(IF(A:A=A52,C:C))=C:C),0)</f>
@@ -5690,19 +5690,19 @@
         <v>59656</v>
       </c>
       <c r="M52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4664377029329501</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3488063757627256</v>
       </c>
       <c r="O52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0944491887275829</v>
       </c>
       <c r="P52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13393267844546297</v>
       </c>
     </row>
@@ -5730,8 +5730,8 @@
         <v>2359296</v>
       </c>
       <c r="H53">
-        <f>ROUND(G53,-3)</f>
-        <v>2359000</v>
+        <f t="shared" si="0"/>
+        <v>2359296</v>
       </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">MATCH(1,(A53=A:A)*(MIN(IF(A:A=A53,C:C))=C:C),0)</f>
@@ -5750,19 +5750,19 @@
         <v>59656</v>
       </c>
       <c r="M53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9038137608497481</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6375661730215105</v>
       </c>
       <c r="O53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.374248423522511</v>
       </c>
       <c r="P53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14484747628489272</v>
       </c>
     </row>
@@ -5791,8 +5791,8 @@
         <v>1572864</v>
       </c>
       <c r="H54">
-        <f>ROUND(G54,-3)</f>
-        <v>1573000</v>
+        <f t="shared" si="0"/>
+        <v>1572864</v>
       </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">MATCH(1,(A54=A:A)*(MIN(IF(A:A=A54,C:C))=C:C),0)</f>
@@ -5811,19 +5811,19 @@
         <v>59656</v>
       </c>
       <c r="M54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.424226329844929</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.435669707153144</v>
       </c>
       <c r="O54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7798613478804413</v>
       </c>
       <c r="P54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5930380668823798E-2</v>
       </c>
     </row>
@@ -5852,8 +5852,8 @@
         <v>1179648</v>
       </c>
       <c r="H55">
-        <f>ROUND(G55,-3)</f>
-        <v>1180000</v>
+        <f t="shared" si="0"/>
+        <v>1179648</v>
       </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">MATCH(1,(A55=A:A)*(MIN(IF(A:A=A55,C:C))=C:C),0)</f>
@@ -5872,19 +5872,19 @@
         <v>59656</v>
       </c>
       <c r="M55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.54351013510715</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.631301352660472</v>
       </c>
       <c r="O55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.7737816002084958</v>
       </c>
       <c r="P55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6628762681007318E-2</v>
       </c>
     </row>
@@ -5913,8 +5913,8 @@
         <v>943718.40000000002</v>
       </c>
       <c r="H56">
-        <f>ROUND(G56,-3)</f>
-        <v>944000</v>
+        <f t="shared" si="0"/>
+        <v>943718.40000000002</v>
       </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">MATCH(1,(A56=A:A)*(MIN(IF(A:A=A56,C:C))=C:C),0)</f>
@@ -5933,19 +5933,19 @@
         <v>59656</v>
       </c>
       <c r="M56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.061279770552343</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.64693446088795</v>
       </c>
       <c r="O56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.178467838252859</v>
       </c>
       <c r="P56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6562175955726536E-2</v>
       </c>
     </row>
@@ -5974,8 +5974,8 @@
         <v>786432</v>
       </c>
       <c r="H57">
-        <f>ROUND(G57,-3)</f>
-        <v>786000</v>
+        <f t="shared" si="0"/>
+        <v>786432</v>
       </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">MATCH(1,(A57=A:A)*(MIN(IF(A:A=A57,C:C))=C:C),0)</f>
@@ -5994,19 +5994,19 @@
         <v>59656</v>
       </c>
       <c r="M57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.90142952625121</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.217561433714195</v>
       </c>
       <c r="O57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.397783721818877</v>
       </c>
       <c r="P57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1935047982771699E-2</v>
       </c>
     </row>
@@ -6035,8 +6035,8 @@
         <v>674084.57142857148</v>
       </c>
       <c r="H58">
-        <f>ROUND(G58,-3)</f>
-        <v>674000</v>
+        <f t="shared" si="0"/>
+        <v>674084.6</v>
       </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">MATCH(1,(A58=A:A)*(MIN(IF(A:A=A58,C:C))=C:C),0)</f>
@@ -6055,19 +6055,19 @@
         <v>59656</v>
       </c>
       <c r="M58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.569371201287094</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.024119110013185</v>
       </c>
       <c r="O58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.736376155813495</v>
       </c>
       <c r="P58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4228669679179576E-2</v>
       </c>
     </row>
@@ -6096,8 +6096,8 @@
         <v>589824</v>
       </c>
       <c r="H59">
-        <f>ROUND(G59,-3)</f>
-        <v>590000</v>
+        <f t="shared" si="0"/>
+        <v>589824</v>
       </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">MATCH(1,(A59=A:A)*(MIN(IF(A:A=A59,C:C))=C:C),0)</f>
@@ -6116,19 +6116,19 @@
         <v>59656</v>
       </c>
       <c r="M59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.654373272821227</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.166481687014429</v>
       </c>
       <c r="O59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.79073756432247</v>
       </c>
       <c r="P59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3879912825138621E-2</v>
       </c>
     </row>
@@ -6157,8 +6157,8 @@
         <v>524288</v>
       </c>
       <c r="H60">
-        <f>ROUND(G60,-3)</f>
-        <v>524000</v>
+        <f t="shared" si="0"/>
+        <v>524288</v>
       </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">MATCH(1,(A60=A:A)*(MIN(IF(A:A=A60,C:C))=C:C),0)</f>
@@ -6177,19 +6177,19 @@
         <v>59656</v>
       </c>
       <c r="M60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.383533633784008</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.234411324663366</v>
       </c>
       <c r="O60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.832006883200687</v>
       </c>
       <c r="P60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1590180557020672E-2</v>
       </c>
     </row>
@@ -6218,8 +6218,8 @@
         <v>471859.20000000001</v>
       </c>
       <c r="H61">
-        <f>ROUND(G61,-3)</f>
-        <v>472000</v>
+        <f t="shared" si="0"/>
+        <v>471859.20000000001</v>
       </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">MATCH(1,(A61=A:A)*(MIN(IF(A:A=A61,C:C))=C:C),0)</f>
@@ -6238,19 +6238,19 @@
         <v>59656</v>
       </c>
       <c r="M61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.202968250468526</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.720533477760476</v>
       </c>
       <c r="O61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.239236573457612</v>
       </c>
       <c r="P61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2075282683217546E-2</v>
       </c>
     </row>
@@ -6278,8 +6278,8 @@
         <v>150994944</v>
       </c>
       <c r="H62">
-        <f>ROUND(G62,-3)</f>
-        <v>150995000</v>
+        <f t="shared" si="0"/>
+        <v>150994944</v>
       </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">MATCH(1,(A62=A:A)*(MIN(IF(A:A=A62,C:C))=C:C),0)</f>
@@ -6298,19 +6298,19 @@
         <v>241646</v>
       </c>
       <c r="M62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O62">
+      <c r="N62">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="P62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6338,8 +6338,8 @@
         <v>75497472</v>
       </c>
       <c r="H63">
-        <f>ROUND(G63,-3)</f>
-        <v>75497000</v>
+        <f t="shared" si="0"/>
+        <v>75497472</v>
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">MATCH(1,(A63=A:A)*(MIN(IF(A:A=A63,C:C))=C:C),0)</f>
@@ -6358,19 +6358,19 @@
         <v>241646</v>
       </c>
       <c r="M63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9341765365128076</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9680387653867353</v>
       </c>
       <c r="O63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9378032253149533</v>
       </c>
       <c r="P63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5170158882202831</v>
       </c>
     </row>
@@ -6398,8 +6398,8 @@
         <v>37748736</v>
       </c>
       <c r="H64">
-        <f>ROUND(G64,-3)</f>
-        <v>37749000</v>
+        <f t="shared" si="0"/>
+        <v>37748736</v>
       </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">MATCH(1,(A64=A:A)*(MIN(IF(A:A=A64,C:C))=C:C),0)</f>
@@ -6418,19 +6418,19 @@
         <v>241646</v>
       </c>
       <c r="M64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.235744947416185</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4684820163166634</v>
       </c>
       <c r="O64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4707284844306563</v>
       </c>
       <c r="P64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23608598072223458</v>
       </c>
     </row>
@@ -6459,8 +6459,8 @@
         <v>18874368</v>
       </c>
       <c r="H65">
-        <f>ROUND(G65,-3)</f>
-        <v>18874000</v>
+        <f t="shared" si="0"/>
+        <v>18874368</v>
       </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">MATCH(1,(A65=A:A)*(MIN(IF(A:A=A65,C:C))=C:C),0)</f>
@@ -6479,19 +6479,19 @@
         <v>241646</v>
       </c>
       <c r="M65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0195920625738788</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2118769272507981</v>
       </c>
       <c r="O65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6512344746305643</v>
       </c>
       <c r="P65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24878146449509772</v>
       </c>
     </row>
@@ -6519,8 +6519,8 @@
         <v>18874368</v>
       </c>
       <c r="H66">
-        <f>ROUND(G66,-3)</f>
-        <v>18874000</v>
+        <f t="shared" si="0"/>
+        <v>18874368</v>
       </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">MATCH(1,(A66=A:A)*(MIN(IF(A:A=A66,C:C))=C:C),0)</f>
@@ -6539,19 +6539,19 @@
         <v>241646</v>
       </c>
       <c r="M66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5472932711644747</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8339322255024397</v>
       </c>
       <c r="O66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6845844409419186</v>
       </c>
       <c r="P66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15273487204310676</v>
       </c>
     </row>
@@ -6580,8 +6580,8 @@
         <v>9437184</v>
       </c>
       <c r="H67">
-        <f>ROUND(G67,-3)</f>
-        <v>9437000</v>
+        <f t="shared" ref="H67:H85" si="5">ROUND(G67,1)</f>
+        <v>9437184</v>
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">MATCH(1,(A67=A:A)*(MIN(IF(A:A=A67,C:C))=C:C),0)</f>
@@ -6600,19 +6600,19 @@
         <v>241646</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M85" si="4">J67/F67</f>
+        <f t="shared" ref="M67:M85" si="6">J67/F67</f>
         <v>7.8561082602834604</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N85" si="5">K67/E67</f>
+        <f t="shared" ref="N67:N85" si="7">K67/E67</f>
         <v>8.3742565936696867</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O85" si="6">L67/D67</f>
+        <f t="shared" ref="O67:O85" si="8">L67/D67</f>
         <v>7.0258184567075652</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P85" si="7">1/M67</f>
+        <f t="shared" ref="P67:P85" si="9">1/M67</f>
         <v>0.12728948823878841</v>
       </c>
     </row>
@@ -6640,8 +6640,8 @@
         <v>9437184</v>
       </c>
       <c r="H68">
-        <f>ROUND(G68,-3)</f>
-        <v>9437000</v>
+        <f t="shared" si="5"/>
+        <v>9437184</v>
       </c>
       <c r="I68" cm="1">
         <f t="array" ref="I68">MATCH(1,(A68=A:A)*(MIN(IF(A:A=A68,C:C))=C:C),0)</f>
@@ -6660,19 +6660,19 @@
         <v>241646</v>
       </c>
       <c r="M68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.5540779189529452</v>
       </c>
       <c r="N68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.9255942141575568</v>
       </c>
       <c r="O68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.7895922181225741</v>
       </c>
       <c r="P68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13237883044481594</v>
       </c>
     </row>
@@ -6701,8 +6701,8 @@
         <v>6291456</v>
       </c>
       <c r="H69">
-        <f>ROUND(G69,-3)</f>
-        <v>6291000</v>
+        <f t="shared" si="5"/>
+        <v>6291456</v>
       </c>
       <c r="I69" cm="1">
         <f t="array" ref="I69">MATCH(1,(A69=A:A)*(MIN(IF(A:A=A69,C:C))=C:C),0)</f>
@@ -6721,19 +6721,19 @@
         <v>241646</v>
       </c>
       <c r="M69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.6659341988549308</v>
       </c>
       <c r="N69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.01344687852005</v>
       </c>
       <c r="O69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.6836579305922896</v>
       </c>
       <c r="P69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10345611499387865</v>
       </c>
     </row>
@@ -6762,8 +6762,8 @@
         <v>4718592</v>
       </c>
       <c r="H70">
-        <f>ROUND(G70,-3)</f>
-        <v>4719000</v>
+        <f t="shared" si="5"/>
+        <v>4718592</v>
       </c>
       <c r="I70" cm="1">
         <f t="array" ref="I70">MATCH(1,(A70=A:A)*(MIN(IF(A:A=A70,C:C))=C:C),0)</f>
@@ -6782,19 +6782,19 @@
         <v>241646</v>
       </c>
       <c r="M70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.824547744060803</v>
       </c>
       <c r="N70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.390410906503661</v>
       </c>
       <c r="O70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.653859193129167</v>
       </c>
       <c r="P70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.745568345588368E-2</v>
       </c>
     </row>
@@ -6823,8 +6823,8 @@
         <v>3774873.6000000001</v>
       </c>
       <c r="H71">
-        <f>ROUND(G71,-3)</f>
-        <v>3775000</v>
+        <f t="shared" si="5"/>
+        <v>3774873.6000000001</v>
       </c>
       <c r="I71" cm="1">
         <f t="array" ref="I71">MATCH(1,(A71=A:A)*(MIN(IF(A:A=A71,C:C))=C:C),0)</f>
@@ -6843,19 +6843,19 @@
         <v>241646</v>
       </c>
       <c r="M71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18.825995081259169</v>
       </c>
       <c r="N71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21.987951003484355</v>
       </c>
       <c r="O71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.407166539148177</v>
       </c>
       <c r="P71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.3118042137144522E-2</v>
       </c>
     </row>
@@ -6884,8 +6884,8 @@
         <v>3145728</v>
       </c>
       <c r="H72">
-        <f>ROUND(G72,-3)</f>
-        <v>3146000</v>
+        <f t="shared" si="5"/>
+        <v>3145728</v>
       </c>
       <c r="I72" cm="1">
         <f t="array" ref="I72">MATCH(1,(A72=A:A)*(MIN(IF(A:A=A72,C:C))=C:C),0)</f>
@@ -6904,19 +6904,19 @@
         <v>241646</v>
       </c>
       <c r="M72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21.222186455068183</v>
       </c>
       <c r="N72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24.280418423319279</v>
       </c>
       <c r="O72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18.465994192266546</v>
       </c>
       <c r="P72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.7120498263325018E-2</v>
       </c>
     </row>
@@ -6945,8 +6945,8 @@
         <v>2696338.2857142859</v>
       </c>
       <c r="H73">
-        <f>ROUND(G73,-3)</f>
-        <v>2696000</v>
+        <f t="shared" si="5"/>
+        <v>2696338.3</v>
       </c>
       <c r="I73" cm="1">
         <f t="array" ref="I73">MATCH(1,(A73=A:A)*(MIN(IF(A:A=A73,C:C))=C:C),0)</f>
@@ -6965,19 +6965,19 @@
         <v>241646</v>
       </c>
       <c r="M73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21.612836998881281</v>
       </c>
       <c r="N73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23.986553511649518</v>
       </c>
       <c r="O73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20.979857614169127</v>
       </c>
       <c r="P73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6268798494698393E-2</v>
       </c>
     </row>
@@ -7006,8 +7006,8 @@
         <v>2359296</v>
       </c>
       <c r="H74">
-        <f>ROUND(G74,-3)</f>
-        <v>2359000</v>
+        <f t="shared" si="5"/>
+        <v>2359296</v>
       </c>
       <c r="I74" cm="1">
         <f t="array" ref="I74">MATCH(1,(A74=A:A)*(MIN(IF(A:A=A74,C:C))=C:C),0)</f>
@@ -7026,19 +7026,19 @@
         <v>241646</v>
       </c>
       <c r="M74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.022470502482804</v>
       </c>
       <c r="N74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21.33202232367335</v>
       </c>
       <c r="O74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21.075004360718648</v>
       </c>
       <c r="P74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.9943886788396022E-2</v>
       </c>
     </row>
@@ -7067,8 +7067,8 @@
         <v>2097152</v>
       </c>
       <c r="H75">
-        <f>ROUND(G75,-3)</f>
-        <v>2097000</v>
+        <f t="shared" si="5"/>
+        <v>2097152</v>
       </c>
       <c r="I75" cm="1">
         <f t="array" ref="I75">MATCH(1,(A75=A:A)*(MIN(IF(A:A=A75,C:C))=C:C),0)</f>
@@ -7087,19 +7087,19 @@
         <v>241646</v>
       </c>
       <c r="M75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.178709021382637</v>
       </c>
       <c r="N75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28.228193844207862</v>
       </c>
       <c r="O75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23.852137005231469</v>
       </c>
       <c r="P75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.9716095021026104E-2</v>
       </c>
     </row>
@@ -7128,8 +7128,8 @@
         <v>1887436.8</v>
       </c>
       <c r="H76">
-        <f>ROUND(G76,-3)</f>
-        <v>1887000</v>
+        <f t="shared" si="5"/>
+        <v>1887436.8</v>
       </c>
       <c r="I76" cm="1">
         <f t="array" ref="I76">MATCH(1,(A76=A:A)*(MIN(IF(A:A=A76,C:C))=C:C),0)</f>
@@ -7148,19 +7148,19 @@
         <v>241646</v>
       </c>
       <c r="M76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.692512665627437</v>
       </c>
       <c r="N76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30.226685290216992</v>
       </c>
       <c r="O76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20.39550979068197</v>
       </c>
       <c r="P76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8921845170007199E-2</v>
       </c>
     </row>
@@ -7189,8 +7189,8 @@
         <v>25165824</v>
       </c>
       <c r="H77">
-        <f>ROUND(G77,-3)</f>
-        <v>25166000</v>
+        <f t="shared" si="5"/>
+        <v>25165824</v>
       </c>
       <c r="I77" cm="1">
         <f t="array" ref="I77">MATCH(1,(A77=A:A)*(MIN(IF(A:A=A77,C:C))=C:C),0)</f>
@@ -7209,19 +7209,19 @@
         <v>83336</v>
       </c>
       <c r="M77">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O77">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N77">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="P77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7250,8 +7250,8 @@
         <v>18874368</v>
       </c>
       <c r="H78">
-        <f>ROUND(G78,-3)</f>
-        <v>18874000</v>
+        <f t="shared" si="5"/>
+        <v>18874368</v>
       </c>
       <c r="I78" cm="1">
         <f t="array" ref="I78">MATCH(1,(A78=A:A)*(MIN(IF(A:A=A78,C:C))=C:C),0)</f>
@@ -7270,19 +7270,19 @@
         <v>83336</v>
       </c>
       <c r="M78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2196620165756014</v>
       </c>
       <c r="N78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1745380680050912</v>
       </c>
       <c r="O78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3270908975093956</v>
       </c>
       <c r="P78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.81989927242930949</v>
       </c>
     </row>
@@ -7311,8 +7311,8 @@
         <v>15099494.4</v>
       </c>
       <c r="H79">
-        <f>ROUND(G79,-3)</f>
-        <v>15099000</v>
+        <f t="shared" si="5"/>
+        <v>15099494.4</v>
       </c>
       <c r="I79" cm="1">
         <f t="array" ref="I79">MATCH(1,(A79=A:A)*(MIN(IF(A:A=A79,C:C))=C:C),0)</f>
@@ -7331,19 +7331,19 @@
         <v>83336</v>
       </c>
       <c r="M79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4632802057462493</v>
       </c>
       <c r="N79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4088794940521834</v>
       </c>
       <c r="O79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.659914351160243</v>
       </c>
       <c r="P79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.68339610969453124</v>
       </c>
     </row>
@@ -7372,8 +7372,8 @@
         <v>12582912</v>
       </c>
       <c r="H80">
-        <f>ROUND(G80,-3)</f>
-        <v>12583000</v>
+        <f t="shared" si="5"/>
+        <v>12582912</v>
       </c>
       <c r="I80" cm="1">
         <f t="array" ref="I80">MATCH(1,(A80=A:A)*(MIN(IF(A:A=A80,C:C))=C:C),0)</f>
@@ -7392,19 +7392,19 @@
         <v>83336</v>
       </c>
       <c r="M80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7524410590302542</v>
       </c>
       <c r="N80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6639736474303</v>
       </c>
       <c r="O80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.939534991970582</v>
       </c>
       <c r="P80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.57063260122047621</v>
       </c>
     </row>
@@ -7433,8 +7433,8 @@
         <v>10785353.142857144</v>
       </c>
       <c r="H81">
-        <f>ROUND(G81,-3)</f>
-        <v>10785000</v>
+        <f t="shared" si="5"/>
+        <v>10785353.1</v>
       </c>
       <c r="I81" cm="1">
         <f t="array" ref="I81">MATCH(1,(A81=A:A)*(MIN(IF(A:A=A81,C:C))=C:C),0)</f>
@@ -7453,19 +7453,19 @@
         <v>83336</v>
       </c>
       <c r="M81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1296198091148737</v>
       </c>
       <c r="N81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1001656547114349</v>
       </c>
       <c r="O81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1842581186276306</v>
       </c>
       <c r="P81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.46956738274125392</v>
       </c>
     </row>
@@ -7494,8 +7494,8 @@
         <v>9437184</v>
       </c>
       <c r="H82">
-        <f>ROUND(G82,-3)</f>
-        <v>9437000</v>
+        <f t="shared" si="5"/>
+        <v>9437184</v>
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">MATCH(1,(A82=A:A)*(MIN(IF(A:A=A82,C:C))=C:C),0)</f>
@@ -7514,19 +7514,19 @@
         <v>83336</v>
       </c>
       <c r="M82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2042121742921013</v>
       </c>
       <c r="N82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.122152577376458</v>
       </c>
       <c r="O82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4353721616645725</v>
       </c>
       <c r="P82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.4536768336837434</v>
       </c>
     </row>
@@ -7555,8 +7555,8 @@
         <v>8388608</v>
       </c>
       <c r="H83">
-        <f>ROUND(G83,-3)</f>
-        <v>8389000</v>
+        <f t="shared" si="5"/>
+        <v>8388608</v>
       </c>
       <c r="I83" cm="1">
         <f t="array" ref="I83">MATCH(1,(A83=A:A)*(MIN(IF(A:A=A83,C:C))=C:C),0)</f>
@@ -7575,19 +7575,19 @@
         <v>83336</v>
       </c>
       <c r="M83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5526259896327121</v>
       </c>
       <c r="N83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4763306170152419</v>
       </c>
       <c r="O83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7523614505581611</v>
       </c>
       <c r="P83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39175343511404359</v>
       </c>
     </row>
@@ -7616,8 +7616,8 @@
         <v>7549747.2000000002</v>
       </c>
       <c r="H84">
-        <f>ROUND(G84,-3)</f>
-        <v>7550000</v>
+        <f t="shared" si="5"/>
+        <v>7549747.2000000002</v>
       </c>
       <c r="I84" cm="1">
         <f t="array" ref="I84">MATCH(1,(A84=A:A)*(MIN(IF(A:A=A84,C:C))=C:C),0)</f>
@@ -7636,19 +7636,19 @@
         <v>83336</v>
       </c>
       <c r="M84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8398030241545396</v>
       </c>
       <c r="N84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8112662482986672</v>
       </c>
       <c r="O84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9177228485400182</v>
       </c>
       <c r="P84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.35213709947284744</v>
       </c>
     </row>
@@ -7677,8 +7677,8 @@
         <v>30198988.800000001</v>
       </c>
       <c r="H85">
-        <f>ROUND(G85,-3)</f>
-        <v>30199000</v>
+        <f t="shared" si="5"/>
+        <v>30198988.800000001</v>
       </c>
       <c r="I85" cm="1">
         <f t="array" ref="I85">MATCH(1,(A85=A:A)*(MIN(IF(A:A=A85,C:C))=C:C),0)</f>
@@ -7697,19 +7697,19 @@
         <v>100880</v>
       </c>
       <c r="M85">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O85">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N85">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="P85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>

--- a/results/processed.xlsx
+++ b/results/processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbhit/Sources/Personal/iga-adi-giraph/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E55BA77-BE21-3B48-8A17-BC24A226204D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C3B7A0-E1BA-AF4D-8C1F-CD532D58B9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>problemSize</t>
   </si>
@@ -127,9 +127,6 @@
     <t>(Multiple Items)</t>
   </si>
   <si>
-    <t>compareTo</t>
-  </si>
-  <si>
     <t>baseTotal</t>
   </si>
   <si>
@@ -149,6 +146,30 @@
   </si>
   <si>
     <t>totalEfficiency</t>
+  </si>
+  <si>
+    <t>compareToWeak</t>
+  </si>
+  <si>
+    <t>compareToStrong</t>
+  </si>
+  <si>
+    <t>weakBaseTotal</t>
+  </si>
+  <si>
+    <t>weakTotalEfficiency</t>
+  </si>
+  <si>
+    <t>weakInitEfficiency</t>
+  </si>
+  <si>
+    <t>weakBaseInit</t>
+  </si>
+  <si>
+    <t>serial fraction</t>
+  </si>
+  <si>
+    <t>weakSpeedup</t>
   </si>
 </sst>
 </file>
@@ -2551,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2567,9 +2588,13 @@
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="19" width="16.83203125" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" customWidth="1"/>
+    <col min="21" max="22" width="19.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2595,33 +2620,54 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>384</v>
+        <v>12288</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2630,21 +2676,21 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1446</v>
+        <v>241646</v>
       </c>
       <c r="E2">
-        <v>3293</v>
+        <v>4284814</v>
       </c>
       <c r="F2">
-        <v>14719</v>
+        <v>5274159</v>
       </c>
       <c r="G2">
         <f>POWER(A2,2)/C2</f>
-        <v>147456</v>
+        <v>150994944</v>
       </c>
       <c r="H2">
-        <f>ROUND(G2,1)</f>
-        <v>147456</v>
+        <f>ROUND(G2,-3)</f>
+        <v>150995000</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">MATCH(1,(A2=A:A)*(MIN(IF(A:A=A2,C:C))=C:C),0)</f>
@@ -2652,15 +2698,15 @@
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">INDEX(A:H,I2,6)</f>
-        <v>14719</v>
+        <v>5274159</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">INDEX(A:H,I2,5)</f>
-        <v>3293</v>
+        <v>4284814</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">INDEX(A:H,I2,4)</f>
-        <v>1446</v>
+        <v>241646</v>
       </c>
       <c r="M2">
         <f>J2/F2</f>
@@ -2678,10 +2724,38 @@
         <f>1/M2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2">MATCH(1,(H2=H:H)*(MIN(IF(H:H=H2,A:A))=A:A),0)</f>
+        <v>2</v>
+      </c>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2">INDEX(A:H,Q2,6)</f>
+        <v>5274159</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" ref="S2">INDEX(A:H,Q2,5)</f>
+        <v>4284814</v>
+      </c>
+      <c r="T2">
+        <f>R2/F2</f>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>S2/E2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f>C2*U2</f>
+        <v>1</v>
+      </c>
+      <c r="W2" t="e">
+        <f>(M2-C2)/(1-C2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>384</v>
+        <v>12288</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2690,21 +2764,21 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1542</v>
+        <v>124701</v>
       </c>
       <c r="E3">
-        <v>1852</v>
+        <v>2177200</v>
       </c>
       <c r="F3">
-        <v>12788</v>
+        <v>2726824</v>
       </c>
       <c r="G3">
         <f>POWER(A3,2)/C3</f>
-        <v>73728</v>
+        <v>75497472</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">ROUND(G3,1)</f>
-        <v>73728</v>
+        <f>ROUND(G3,-3)</f>
+        <v>75497000</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">MATCH(1,(A3=A:A)*(MIN(IF(A:A=A3,C:C))=C:C),0)</f>
@@ -2712,36 +2786,64 @@
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">INDEX(A:H,I3,6)</f>
-        <v>14719</v>
+        <v>5274159</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3">INDEX(A:H,I3,5)</f>
-        <v>3293</v>
+        <v>4284814</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">INDEX(A:H,I3,4)</f>
-        <v>1446</v>
+        <v>241646</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">J3/F3</f>
-        <v>1.1510009383797311</v>
+        <f>J3/F3</f>
+        <v>1.9341765365128076</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="2">K3/E3</f>
-        <v>1.7780777537796977</v>
+        <f>K3/E3</f>
+        <v>1.9680387653867353</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="3">L3/D3</f>
-        <v>0.9377431906614786</v>
+        <f>L3/D3</f>
+        <v>1.9378032253149533</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="4">1/M3</f>
-        <v>0.86880902235206192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M3</f>
+        <v>0.5170158882202831</v>
+      </c>
+      <c r="Q3" cm="1">
+        <f t="array" ref="Q3">MATCH(1,(H3=H:H)*(MIN(IF(H:H=H3,A:A))=A:A),0)</f>
+        <v>3</v>
+      </c>
+      <c r="R3" cm="1">
+        <f t="array" ref="R3">INDEX(A:H,Q3,6)</f>
+        <v>2726824</v>
+      </c>
+      <c r="S3" cm="1">
+        <f t="array" ref="S3">INDEX(A:H,Q3,5)</f>
+        <v>2177200</v>
+      </c>
+      <c r="T3">
+        <f>R3/F3</f>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f>S3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <f>C3*U3</f>
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <f>(M3-C3)/(1-C3)</f>
+        <v>6.5823463487192369E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>384</v>
+        <v>12288</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2750,21 +2852,21 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3534</v>
+        <v>69624</v>
       </c>
       <c r="E4">
-        <v>1177</v>
+        <v>958897</v>
       </c>
       <c r="F4">
-        <v>13908</v>
+        <v>1245155</v>
       </c>
       <c r="G4">
         <f>POWER(A4,2)/C4</f>
-        <v>36864</v>
+        <v>37748736</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>36864</v>
+        <f>ROUND(G4,-3)</f>
+        <v>37749000</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">MATCH(1,(A4=A:A)*(MIN(IF(A:A=A4,C:C))=C:C),0)</f>
@@ -2772,179 +2874,265 @@
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4">INDEX(A:H,I4,6)</f>
-        <v>14719</v>
+        <v>5274159</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">INDEX(A:H,I4,5)</f>
-        <v>3293</v>
+        <v>4284814</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">INDEX(A:H,I4,4)</f>
-        <v>1446</v>
+        <v>241646</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
-        <v>1.0583117630140926</v>
+        <f>J4/F4</f>
+        <v>4.235744947416185</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
-        <v>2.7977909940526762</v>
+        <f>K4/E4</f>
+        <v>4.4684820163166634</v>
       </c>
       <c r="O4">
-        <f t="shared" si="3"/>
-        <v>0.4091680814940577</v>
+        <f>L4/D4</f>
+        <v>3.4707284844306563</v>
       </c>
       <c r="P4">
-        <f t="shared" si="4"/>
-        <v>0.94490114817582715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M4</f>
+        <v>0.23608598072223458</v>
+      </c>
+      <c r="Q4" cm="1">
+        <f t="array" ref="Q4">MATCH(1,(H4=H:H)*(MIN(IF(H:H=H4,A:A))=A:A),0)</f>
+        <v>5</v>
+      </c>
+      <c r="R4" cm="1">
+        <f t="array" ref="R4">INDEX(A:H,Q4,6)</f>
+        <v>1393521</v>
+      </c>
+      <c r="S4" cm="1">
+        <f t="array" ref="S4">INDEX(A:H,Q4,5)</f>
+        <v>1139754</v>
+      </c>
+      <c r="T4">
+        <f>R4/F4</f>
+        <v>1.1191546433978099</v>
+      </c>
+      <c r="U4">
+        <f>S4/E4</f>
+        <v>1.1886094126897884</v>
+      </c>
+      <c r="V4">
+        <f>C4*U4</f>
+        <v>4.7544376507591535</v>
+      </c>
+      <c r="W4">
+        <f>(M4-C4)/(1-C4)</f>
+        <v>-7.8581649138728338E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>384</v>
+        <v>6144</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>5989</v>
+        <v>59656</v>
       </c>
       <c r="E5">
-        <v>1351</v>
+        <v>1139754</v>
       </c>
       <c r="F5">
-        <v>16481</v>
+        <v>1393521</v>
       </c>
       <c r="G5">
         <f>POWER(A5,2)/C5</f>
-        <v>18432</v>
+        <v>37748736</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>18432</v>
+        <f>ROUND(G5,-3)</f>
+        <v>37749000</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">MATCH(1,(A5=A:A)*(MIN(IF(A:A=A5,C:C))=C:C),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">INDEX(A:H,I5,6)</f>
-        <v>14719</v>
+        <v>1393521</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">INDEX(A:H,I5,5)</f>
-        <v>3293</v>
+        <v>1139754</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">INDEX(A:H,I5,4)</f>
-        <v>1446</v>
+        <v>59656</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>0.89308901158910259</v>
+        <f>J5/F5</f>
+        <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
-        <v>2.4374537379718726</v>
+        <f>K5/E5</f>
+        <v>1</v>
       </c>
       <c r="O5">
-        <f t="shared" si="3"/>
-        <v>0.24144264484888964</v>
+        <f>L5/D5</f>
+        <v>1</v>
       </c>
       <c r="P5">
-        <f t="shared" si="4"/>
-        <v>1.1197092193763163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M5</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" cm="1">
+        <f t="array" ref="Q5">MATCH(1,(H5=H:H)*(MIN(IF(H:H=H5,A:A))=A:A),0)</f>
+        <v>5</v>
+      </c>
+      <c r="R5" cm="1">
+        <f t="array" ref="R5">INDEX(A:H,Q5,6)</f>
+        <v>1393521</v>
+      </c>
+      <c r="S5" cm="1">
+        <f t="array" ref="S5">INDEX(A:H,Q5,5)</f>
+        <v>1139754</v>
+      </c>
+      <c r="T5">
+        <f>R5/F5</f>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f>S5/E5</f>
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f>C5*U5</f>
+        <v>1</v>
+      </c>
+      <c r="W5" t="e">
+        <f>(M5-C5)/(1-C5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>384</v>
+        <v>49152</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <f>B6*8</f>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>5952</v>
+        <v>100880</v>
       </c>
       <c r="E6">
-        <v>1621</v>
+        <v>1686564</v>
       </c>
       <c r="F6">
-        <v>16824</v>
+        <v>2214449</v>
       </c>
       <c r="G6">
         <f>POWER(A6,2)/C6</f>
-        <v>9216</v>
+        <v>30198988.800000001</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>9216</v>
+        <f>ROUND(G6,-3)</f>
+        <v>30199000</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">MATCH(1,(A6=A:A)*(MIN(IF(A:A=A6,C:C))=C:C),0)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">INDEX(A:H,I6,6)</f>
-        <v>14719</v>
+        <v>2214449</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">INDEX(A:H,I6,5)</f>
-        <v>3293</v>
+        <v>1686564</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">INDEX(A:H,I6,4)</f>
-        <v>1446</v>
+        <v>100880</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>0.87488112220637182</v>
+        <f>J6/F6</f>
+        <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
-        <v>2.0314620604565081</v>
+        <f>K6/E6</f>
+        <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" si="3"/>
-        <v>0.24294354838709678</v>
+        <f>L6/D6</f>
+        <v>1</v>
       </c>
       <c r="P6">
-        <f t="shared" si="4"/>
-        <v>1.1430124329098446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M6</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" cm="1">
+        <f t="array" ref="Q6">MATCH(1,(H6=H:H)*(MIN(IF(H:H=H6,A:A))=A:A),0)</f>
+        <v>6</v>
+      </c>
+      <c r="R6" cm="1">
+        <f t="array" ref="R6">INDEX(A:H,Q6,6)</f>
+        <v>2214449</v>
+      </c>
+      <c r="S6" cm="1">
+        <f t="array" ref="S6">INDEX(A:H,Q6,5)</f>
+        <v>1686564</v>
+      </c>
+      <c r="T6">
+        <f>R6/F6</f>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f>S6/E6</f>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f>C6*U6</f>
+        <v>80</v>
+      </c>
+      <c r="W6">
+        <f>(M6-C6)/(1-C6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>768</v>
+        <v>24576</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <f>B7*8</f>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>2431</v>
+        <v>83336</v>
       </c>
       <c r="E7">
-        <v>12729</v>
+        <v>1231031</v>
       </c>
       <c r="F7">
-        <v>30878</v>
+        <v>1658533</v>
       </c>
       <c r="G7">
         <f>POWER(A7,2)/C7</f>
-        <v>589824</v>
+        <v>25165824</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>589824</v>
+        <f>ROUND(G7,-3)</f>
+        <v>25166000</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">MATCH(1,(A7=A:A)*(MIN(IF(A:A=A7,C:C))=C:C),0)</f>
@@ -2952,59 +3140,88 @@
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX(A:H,I7,6)</f>
-        <v>30878</v>
+        <v>1658533</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX(A:H,I7,5)</f>
-        <v>12729</v>
+        <v>1231031</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">INDEX(A:H,I7,4)</f>
-        <v>2431</v>
+        <v>83336</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f>J7/F7</f>
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f>K7/E7</f>
         <v>1</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f>L7/D7</f>
         <v>1</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M7</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" cm="1">
+        <f t="array" ref="Q7">MATCH(1,(H7=H:H)*(MIN(IF(H:H=H7,A:A))=A:A),0)</f>
+        <v>7</v>
+      </c>
+      <c r="R7" cm="1">
+        <f t="array" ref="R7">INDEX(A:H,Q7,6)</f>
+        <v>1658533</v>
+      </c>
+      <c r="S7" cm="1">
+        <f t="array" ref="S7">INDEX(A:H,Q7,5)</f>
+        <v>1231031</v>
+      </c>
+      <c r="T7">
+        <f>R7/F7</f>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f>S7/E7</f>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f>C7*U7</f>
+        <v>24</v>
+      </c>
+      <c r="W7">
+        <f>(M7-C7)/(1-C7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>768</v>
+        <v>24576</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <f>B8*8</f>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>2163</v>
+        <v>62796</v>
       </c>
       <c r="E8">
-        <v>6567</v>
+        <v>1048098</v>
       </c>
       <c r="F8">
-        <v>19975</v>
+        <v>1359830</v>
       </c>
       <c r="G8">
         <f>POWER(A8,2)/C8</f>
-        <v>294912</v>
+        <v>18874368</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>294912</v>
+        <f>ROUND(G8,-3)</f>
+        <v>18874000</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">MATCH(1,(A8=A:A)*(MIN(IF(A:A=A8,C:C))=C:C),0)</f>
@@ -3012,241 +3229,353 @@
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">INDEX(A:H,I8,6)</f>
-        <v>30878</v>
+        <v>1658533</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" ref="K8">INDEX(A:H,I8,5)</f>
-        <v>12729</v>
+        <v>1231031</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">INDEX(A:H,I8,4)</f>
-        <v>2431</v>
+        <v>83336</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>1.5458322903629538</v>
+        <f>J8/F8</f>
+        <v>1.2196620165756014</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
-        <v>1.9383280036546369</v>
+        <f>K8/E8</f>
+        <v>1.1745380680050912</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
-        <v>1.1239019879796579</v>
+        <f>L8/D8</f>
+        <v>1.3270908975093956</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
-        <v>0.64690070600427485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M8</f>
+        <v>0.81989927242930949</v>
+      </c>
+      <c r="Q8" cm="1">
+        <f t="array" ref="Q8">MATCH(1,(H8=H:H)*(MIN(IF(H:H=H8,A:A))=A:A),0)</f>
+        <v>11</v>
+      </c>
+      <c r="R8" cm="1">
+        <f t="array" ref="R8">INDEX(A:H,Q8,6)</f>
+        <v>622378</v>
+      </c>
+      <c r="S8" cm="1">
+        <f t="array" ref="S8">INDEX(A:H,Q8,5)</f>
+        <v>473631</v>
+      </c>
+      <c r="T8">
+        <f>R8/F8</f>
+        <v>0.45768809336461175</v>
+      </c>
+      <c r="U8">
+        <f>S8/E8</f>
+        <v>0.45189571967506853</v>
+      </c>
+      <c r="V8">
+        <f>C8*U8</f>
+        <v>14.460663029602193</v>
+      </c>
+      <c r="W8">
+        <f>(M8-C8)/(1-C8)</f>
+        <v>0.99291412849756122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>768</v>
+        <v>12288</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <f>B9*8</f>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>5977</v>
+        <v>66182</v>
       </c>
       <c r="E9">
-        <v>4637</v>
+        <v>1017317</v>
       </c>
       <c r="F9">
-        <v>21972</v>
+        <v>1312113</v>
       </c>
       <c r="G9">
         <f>POWER(A9,2)/C9</f>
-        <v>147456</v>
+        <v>18874368</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>147456</v>
+        <f>ROUND(G9,-3)</f>
+        <v>18874000</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">MATCH(1,(A9=A:A)*(MIN(IF(A:A=A9,C:C))=C:C),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">INDEX(A:H,I9,6)</f>
-        <v>30878</v>
+        <v>5274159</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" ref="K9">INDEX(A:H,I9,5)</f>
-        <v>12729</v>
+        <v>4284814</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" ref="L9">INDEX(A:H,I9,4)</f>
-        <v>2431</v>
+        <v>241646</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
-        <v>1.40533406153286</v>
+        <f>J9/F9</f>
+        <v>4.0195920625738788</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
-        <v>2.7450938106534397</v>
+        <f>K9/E9</f>
+        <v>4.2118769272507981</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
-        <v>0.40672578216496569</v>
+        <f>L9/D9</f>
+        <v>3.6512344746305643</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
-        <v>0.71157458384610406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M9</f>
+        <v>0.24878146449509772</v>
+      </c>
+      <c r="Q9" cm="1">
+        <f t="array" ref="Q9">MATCH(1,(H9=H:H)*(MIN(IF(H:H=H9,A:A))=A:A),0)</f>
+        <v>11</v>
+      </c>
+      <c r="R9" cm="1">
+        <f t="array" ref="R9">INDEX(A:H,Q9,6)</f>
+        <v>622378</v>
+      </c>
+      <c r="S9" cm="1">
+        <f t="array" ref="S9">INDEX(A:H,Q9,5)</f>
+        <v>473631</v>
+      </c>
+      <c r="T9">
+        <f>R9/F9</f>
+        <v>0.47433262226652734</v>
+      </c>
+      <c r="U9">
+        <f>S9/E9</f>
+        <v>0.46556874602508364</v>
+      </c>
+      <c r="V9">
+        <f>C9*U9</f>
+        <v>3.7245499682006691</v>
+      </c>
+      <c r="W9">
+        <f>(M9-C9)/(1-C9)</f>
+        <v>0.56862970534658874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>768</v>
+        <v>12288</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <f>B10*8</f>
         <v>8</v>
       </c>
       <c r="D10">
-        <v>4325</v>
+        <v>42509</v>
       </c>
       <c r="E10">
-        <v>5117</v>
+        <v>626991</v>
       </c>
       <c r="F10">
-        <v>20517</v>
+        <v>805548</v>
       </c>
       <c r="G10">
         <f>POWER(A10,2)/C10</f>
-        <v>73728</v>
+        <v>18874368</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>73728</v>
+        <f>ROUND(G10,-3)</f>
+        <v>18874000</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">MATCH(1,(A10=A:A)*(MIN(IF(A:A=A10,C:C))=C:C),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" ref="J10">INDEX(A:H,I10,6)</f>
-        <v>30878</v>
+        <v>5274159</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" ref="K10">INDEX(A:H,I10,5)</f>
-        <v>12729</v>
+        <v>4284814</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">INDEX(A:H,I10,4)</f>
-        <v>2431</v>
+        <v>241646</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>1.5049958570941171</v>
+        <f>J10/F10</f>
+        <v>6.5472932711644747</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
-        <v>2.487590384991206</v>
+        <f>K10/E10</f>
+        <v>6.8339322255024397</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
-        <v>0.56208092485549133</v>
+        <f>L10/D10</f>
+        <v>5.6845844409419186</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
-        <v>0.66445365632489151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M10</f>
+        <v>0.15273487204310676</v>
+      </c>
+      <c r="Q10" cm="1">
+        <f t="array" ref="Q10">MATCH(1,(H10=H:H)*(MIN(IF(H:H=H10,A:A))=A:A),0)</f>
+        <v>11</v>
+      </c>
+      <c r="R10" cm="1">
+        <f t="array" ref="R10">INDEX(A:H,Q10,6)</f>
+        <v>622378</v>
+      </c>
+      <c r="S10" cm="1">
+        <f t="array" ref="S10">INDEX(A:H,Q10,5)</f>
+        <v>473631</v>
+      </c>
+      <c r="T10">
+        <f>R10/F10</f>
+        <v>0.7726144190042058</v>
+      </c>
+      <c r="U10">
+        <f>S10/E10</f>
+        <v>0.75540318760556369</v>
+      </c>
+      <c r="V10">
+        <f>C10*U10</f>
+        <v>6.0432255008445095</v>
+      </c>
+      <c r="W10">
+        <f>(M10-C10)/(1-C10)</f>
+        <v>0.20752953269078933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>768</v>
+        <v>6144</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>4265</v>
+        <v>31941</v>
       </c>
       <c r="E11">
-        <v>3146</v>
+        <v>473631</v>
       </c>
       <c r="F11">
-        <v>17252</v>
+        <v>622378</v>
       </c>
       <c r="G11">
         <f>POWER(A11,2)/C11</f>
-        <v>73728</v>
+        <v>18874368</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>73728</v>
+        <f>ROUND(G11,-3)</f>
+        <v>18874000</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">MATCH(1,(A11=A:A)*(MIN(IF(A:A=A11,C:C))=C:C),0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" ref="J11">INDEX(A:H,I11,6)</f>
-        <v>30878</v>
+        <v>1393521</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" ref="K11">INDEX(A:H,I11,5)</f>
-        <v>12729</v>
+        <v>1139754</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" ref="L11">INDEX(A:H,I11,4)</f>
-        <v>2431</v>
+        <v>59656</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
-        <v>1.7898214699744956</v>
+        <f>J11/F11</f>
+        <v>2.2390267650848843</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>4.0460902733630002</v>
+        <f>K11/E11</f>
+        <v>2.4064176542498275</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
-        <v>0.56998827667057439</v>
+        <f>L11/D11</f>
+        <v>1.8676935600012523</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
-        <v>0.55871494267763455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M11</f>
+        <v>0.44662261996769331</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" ref="Q11">MATCH(1,(H11=H:H)*(MIN(IF(H:H=H11,A:A))=A:A),0)</f>
+        <v>11</v>
+      </c>
+      <c r="R11" cm="1">
+        <f t="array" ref="R11">INDEX(A:H,Q11,6)</f>
+        <v>622378</v>
+      </c>
+      <c r="S11" cm="1">
+        <f t="array" ref="S11">INDEX(A:H,Q11,5)</f>
+        <v>473631</v>
+      </c>
+      <c r="T11">
+        <f>R11/F11</f>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f>S11/E11</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>C11*U11</f>
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <f>(M11-C11)/(1-C11)</f>
+        <v>-0.2390267650848843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>768</v>
+        <v>24576</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <f>B12*8</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>4142</v>
+        <v>50205</v>
       </c>
       <c r="E12">
-        <v>2988</v>
+        <v>873766</v>
       </c>
       <c r="F12">
-        <v>20582</v>
+        <v>1133435</v>
       </c>
       <c r="G12">
         <f>POWER(A12,2)/C12</f>
-        <v>36864</v>
+        <v>15099494.4</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>36864</v>
+        <f>ROUND(G12,-3)</f>
+        <v>15099000</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">MATCH(1,(A12=A:A)*(MIN(IF(A:A=A12,C:C))=C:C),0)</f>
@@ -3254,59 +3583,88 @@
       </c>
       <c r="J12" cm="1">
         <f t="array" ref="J12">INDEX(A:H,I12,6)</f>
-        <v>30878</v>
+        <v>1658533</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" ref="K12">INDEX(A:H,I12,5)</f>
-        <v>12729</v>
+        <v>1231031</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" ref="L12">INDEX(A:H,I12,4)</f>
-        <v>2431</v>
+        <v>83336</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
-        <v>1.5002429307161598</v>
+        <f>J12/F12</f>
+        <v>1.4632802057462493</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
-        <v>4.2600401606425704</v>
+        <f>K12/E12</f>
+        <v>1.4088794940521834</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
-        <v>0.58691453404152583</v>
+        <f>L12/D12</f>
+        <v>1.659914351160243</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
-        <v>0.6665587149426776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M12</f>
+        <v>0.68339610969453124</v>
+      </c>
+      <c r="Q12" cm="1">
+        <f t="array" ref="Q12">MATCH(1,(H12=H:H)*(MIN(IF(H:H=H12,A:A))=A:A),0)</f>
+        <v>12</v>
+      </c>
+      <c r="R12" cm="1">
+        <f t="array" ref="R12">INDEX(A:H,Q12,6)</f>
+        <v>1133435</v>
+      </c>
+      <c r="S12" cm="1">
+        <f t="array" ref="S12">INDEX(A:H,Q12,5)</f>
+        <v>873766</v>
+      </c>
+      <c r="T12">
+        <f>R12/F12</f>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f>S12/E12</f>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f>C12*U12</f>
+        <v>40</v>
+      </c>
+      <c r="W12">
+        <f>(M12-C12)/(1-C12)</f>
+        <v>0.98812102036548077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>768</v>
+        <v>24576</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <f>B13*8</f>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>4607</v>
+        <v>42967</v>
       </c>
       <c r="E13">
-        <v>6027</v>
+        <v>739814</v>
       </c>
       <c r="F13">
-        <v>20536</v>
+        <v>946413</v>
       </c>
       <c r="G13">
         <f>POWER(A13,2)/C13</f>
-        <v>36864</v>
+        <v>12582912</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>36864</v>
+        <f>ROUND(G13,-3)</f>
+        <v>12583000</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">MATCH(1,(A13=A:A)*(MIN(IF(A:A=A13,C:C))=C:C),0)</f>
@@ -3314,60 +3672,88 @@
       </c>
       <c r="J13" cm="1">
         <f t="array" ref="J13">INDEX(A:H,I13,6)</f>
-        <v>30878</v>
+        <v>1658533</v>
       </c>
       <c r="K13" cm="1">
         <f t="array" ref="K13">INDEX(A:H,I13,5)</f>
-        <v>12729</v>
+        <v>1231031</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" ref="L13">INDEX(A:H,I13,4)</f>
-        <v>2431</v>
+        <v>83336</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
-        <v>1.5036034281262174</v>
+        <f>J13/F13</f>
+        <v>1.7524410590302542</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
-        <v>2.1119960179193629</v>
+        <f>K13/E13</f>
+        <v>1.6639736474303</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
-        <v>0.52767527675276749</v>
+        <f>L13/D13</f>
+        <v>1.939534991970582</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
-        <v>0.66506898115162894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M13</f>
+        <v>0.57063260122047621</v>
+      </c>
+      <c r="Q13" cm="1">
+        <f t="array" ref="Q13">MATCH(1,(H13=H:H)*(MIN(IF(H:H=H13,A:A))=A:A),0)</f>
+        <v>13</v>
+      </c>
+      <c r="R13" cm="1">
+        <f t="array" ref="R13">INDEX(A:H,Q13,6)</f>
+        <v>946413</v>
+      </c>
+      <c r="S13" cm="1">
+        <f t="array" ref="S13">INDEX(A:H,Q13,5)</f>
+        <v>739814</v>
+      </c>
+      <c r="T13">
+        <f>R13/F13</f>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f>S13/E13</f>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f>C13*U13</f>
+        <v>48</v>
+      </c>
+      <c r="W13">
+        <f>(M13-C13)/(1-C13)</f>
+        <v>0.98399061576531377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>768</v>
+        <v>24576</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <f>B14*8</f>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>2913</v>
+        <v>38153</v>
       </c>
       <c r="E14">
-        <v>2388</v>
+        <v>586159</v>
       </c>
       <c r="F14">
-        <v>18836</v>
+        <v>778793</v>
       </c>
       <c r="G14">
         <f>POWER(A14,2)/C14</f>
-        <v>24576</v>
+        <v>10785353.142857144</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>24576</v>
+        <f>ROUND(G14,-3)</f>
+        <v>10785000</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">MATCH(1,(A14=A:A)*(MIN(IF(A:A=A14,C:C))=C:C),0)</f>
@@ -3375,60 +3761,88 @@
       </c>
       <c r="J14" cm="1">
         <f t="array" ref="J14">INDEX(A:H,I14,6)</f>
-        <v>30878</v>
+        <v>1658533</v>
       </c>
       <c r="K14" cm="1">
         <f t="array" ref="K14">INDEX(A:H,I14,5)</f>
-        <v>12729</v>
+        <v>1231031</v>
       </c>
       <c r="L14" cm="1">
         <f t="array" ref="L14">INDEX(A:H,I14,4)</f>
-        <v>2431</v>
+        <v>83336</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
-        <v>1.6393077086430239</v>
+        <f>J14/F14</f>
+        <v>2.1296198091148737</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
-        <v>5.3304020100502516</v>
+        <f>K14/E14</f>
+        <v>2.1001656547114349</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
-        <v>0.83453484380363885</v>
+        <f>L14/D14</f>
+        <v>2.1842581186276306</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
-        <v>0.61001360191722265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M14</f>
+        <v>0.46956738274125392</v>
+      </c>
+      <c r="Q14" cm="1">
+        <f t="array" ref="Q14">MATCH(1,(H14=H:H)*(MIN(IF(H:H=H14,A:A))=A:A),0)</f>
+        <v>14</v>
+      </c>
+      <c r="R14" cm="1">
+        <f t="array" ref="R14">INDEX(A:H,Q14,6)</f>
+        <v>778793</v>
+      </c>
+      <c r="S14" cm="1">
+        <f t="array" ref="S14">INDEX(A:H,Q14,5)</f>
+        <v>586159</v>
+      </c>
+      <c r="T14">
+        <f>R14/F14</f>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f>S14/E14</f>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f>C14*U14</f>
+        <v>56</v>
+      </c>
+      <c r="W14">
+        <f>(M14-C14)/(1-C14)</f>
+        <v>0.9794614580160933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>768</v>
+        <v>24576</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <f>B15*8</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>1628</v>
+        <v>34219</v>
       </c>
       <c r="E15">
-        <v>2059</v>
+        <v>580086</v>
       </c>
       <c r="F15">
-        <v>17874</v>
+        <v>752438</v>
       </c>
       <c r="G15">
         <f>POWER(A15,2)/C15</f>
-        <v>18432</v>
+        <v>9437184</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>18432</v>
+        <f>ROUND(G15,-3)</f>
+        <v>9437000</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">MATCH(1,(A15=A:A)*(MIN(IF(A:A=A15,C:C))=C:C),0)</f>
@@ -3436,1065 +3850,1569 @@
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">INDEX(A:H,I15,6)</f>
-        <v>30878</v>
+        <v>1658533</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX(A:H,I15,5)</f>
-        <v>12729</v>
+        <v>1231031</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" ref="L15">INDEX(A:H,I15,4)</f>
-        <v>2431</v>
+        <v>83336</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
-        <v>1.7275372048785946</v>
+        <f>J15/F15</f>
+        <v>2.2042121742921013</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
-        <v>6.1821272462360373</v>
+        <f>K15/E15</f>
+        <v>2.122152577376458</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
-        <v>1.4932432432432432</v>
+        <f>L15/D15</f>
+        <v>2.4353721616645725</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
-        <v>0.57885873437398794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M15</f>
+        <v>0.4536768336837434</v>
+      </c>
+      <c r="Q15" cm="1">
+        <f t="array" ref="Q15">MATCH(1,(H15=H:H)*(MIN(IF(H:H=H15,A:A))=A:A),0)</f>
+        <v>19</v>
+      </c>
+      <c r="R15" cm="1">
+        <f t="array" ref="R15">INDEX(A:H,Q15,6)</f>
+        <v>408295</v>
+      </c>
+      <c r="S15" cm="1">
+        <f t="array" ref="S15">INDEX(A:H,Q15,5)</f>
+        <v>324922</v>
+      </c>
+      <c r="T15">
+        <f>R15/F15</f>
+        <v>0.54262942594605801</v>
+      </c>
+      <c r="U15">
+        <f>S15/E15</f>
+        <v>0.56012729147057505</v>
+      </c>
+      <c r="V15">
+        <f>C15*U15</f>
+        <v>35.848146654116803</v>
+      </c>
+      <c r="W15">
+        <f>(M15-C15)/(1-C15)</f>
+        <v>0.98088552104298254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>768</v>
+        <v>12288</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <f>B16*8</f>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>1560</v>
+        <v>34394</v>
       </c>
       <c r="E16">
-        <v>1937</v>
+        <v>511665</v>
       </c>
       <c r="F16">
-        <v>17658</v>
+        <v>671345</v>
       </c>
       <c r="G16">
         <f>POWER(A16,2)/C16</f>
-        <v>14745.6</v>
+        <v>9437184</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>14745.6</v>
+        <f>ROUND(G16,-3)</f>
+        <v>9437000</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">MATCH(1,(A16=A:A)*(MIN(IF(A:A=A16,C:C))=C:C),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J16" cm="1">
         <f t="array" ref="J16">INDEX(A:H,I16,6)</f>
-        <v>30878</v>
+        <v>5274159</v>
       </c>
       <c r="K16" cm="1">
         <f t="array" ref="K16">INDEX(A:H,I16,5)</f>
-        <v>12729</v>
+        <v>4284814</v>
       </c>
       <c r="L16" cm="1">
         <f t="array" ref="L16">INDEX(A:H,I16,4)</f>
-        <v>2431</v>
+        <v>241646</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>1.7486691584550911</v>
+        <f>J16/F16</f>
+        <v>7.8561082602834604</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
-        <v>6.5715023231801757</v>
+        <f>K16/E16</f>
+        <v>8.3742565936696867</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
-        <v>1.5583333333333333</v>
+        <f>L16/D16</f>
+        <v>7.0258184567075652</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
-        <v>0.57186346265949872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M16</f>
+        <v>0.12728948823878841</v>
+      </c>
+      <c r="Q16" cm="1">
+        <f t="array" ref="Q16">MATCH(1,(H16=H:H)*(MIN(IF(H:H=H16,A:A))=A:A),0)</f>
+        <v>19</v>
+      </c>
+      <c r="R16" cm="1">
+        <f t="array" ref="R16">INDEX(A:H,Q16,6)</f>
+        <v>408295</v>
+      </c>
+      <c r="S16" cm="1">
+        <f t="array" ref="S16">INDEX(A:H,Q16,5)</f>
+        <v>324922</v>
+      </c>
+      <c r="T16">
+        <f>R16/F16</f>
+        <v>0.60817463450237952</v>
+      </c>
+      <c r="U16">
+        <f>S16/E16</f>
+        <v>0.63502877859536999</v>
+      </c>
+      <c r="V16">
+        <f>C16*U16</f>
+        <v>10.16046045752592</v>
+      </c>
+      <c r="W16">
+        <f>(M16-C16)/(1-C16)</f>
+        <v>0.54292611598110274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1536</v>
+        <v>12288</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>5588</v>
+        <v>41738</v>
       </c>
       <c r="E17">
-        <v>75449</v>
+        <v>540630</v>
       </c>
       <c r="F17">
-        <v>102884</v>
+        <v>698187</v>
       </c>
       <c r="G17">
         <f>POWER(A17,2)/C17</f>
-        <v>2359296</v>
+        <v>9437184</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>2359296</v>
+        <f>ROUND(G17,-3)</f>
+        <v>9437000</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">MATCH(1,(A17=A:A)*(MIN(IF(A:A=A17,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">INDEX(A:H,I17,6)</f>
-        <v>102884</v>
+        <v>5274159</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX(A:H,I17,5)</f>
-        <v>75449</v>
+        <v>4284814</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" ref="L17">INDEX(A:H,I17,4)</f>
-        <v>5588</v>
+        <v>241646</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>J17/F17</f>
+        <v>7.5540779189529452</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>K17/E17</f>
+        <v>7.9255942141575568</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>L17/D17</f>
+        <v>5.7895922181225741</v>
       </c>
       <c r="P17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M17</f>
+        <v>0.13237883044481594</v>
+      </c>
+      <c r="Q17" cm="1">
+        <f t="array" ref="Q17">MATCH(1,(H17=H:H)*(MIN(IF(H:H=H17,A:A))=A:A),0)</f>
+        <v>19</v>
+      </c>
+      <c r="R17" cm="1">
+        <f t="array" ref="R17">INDEX(A:H,Q17,6)</f>
+        <v>408295</v>
+      </c>
+      <c r="S17" cm="1">
+        <f t="array" ref="S17">INDEX(A:H,Q17,5)</f>
+        <v>324922</v>
+      </c>
+      <c r="T17">
+        <f>R17/F17</f>
+        <v>0.58479318577974093</v>
+      </c>
+      <c r="U17">
+        <f>S17/E17</f>
+        <v>0.60100623346836102</v>
+      </c>
+      <c r="V17">
+        <f>C17*U17</f>
+        <v>9.6160997354937763</v>
+      </c>
+      <c r="W17">
+        <f>(M17-C17)/(1-C17)</f>
+        <v>0.56306147206980361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1536</v>
+        <v>6144</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>3732</v>
+        <v>20461</v>
       </c>
       <c r="E18">
-        <v>46299</v>
+        <v>263266</v>
       </c>
       <c r="F18">
-        <v>66798</v>
+        <v>346624</v>
       </c>
       <c r="G18">
         <f>POWER(A18,2)/C18</f>
-        <v>1179648</v>
+        <v>9437184</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1179648</v>
+        <f>ROUND(G18,-3)</f>
+        <v>9437000</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">MATCH(1,(A18=A:A)*(MIN(IF(A:A=A18,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J18" cm="1">
         <f t="array" ref="J18">INDEX(A:H,I18,6)</f>
-        <v>102884</v>
+        <v>1393521</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" ref="K18">INDEX(A:H,I18,5)</f>
-        <v>75449</v>
+        <v>1139754</v>
       </c>
       <c r="L18" cm="1">
         <f t="array" ref="L18">INDEX(A:H,I18,4)</f>
-        <v>5588</v>
+        <v>59656</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>1.5402257552621337</v>
+        <f>J18/F18</f>
+        <v>4.0202669174667651</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
-        <v>1.6296032311712996</v>
+        <f>K18/E18</f>
+        <v>4.3292867290117218</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
-        <v>1.497320471596999</v>
+        <f>L18/D18</f>
+        <v>2.91559552319046</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
-        <v>0.64925547218226354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M18</f>
+        <v>0.24873970324092712</v>
+      </c>
+      <c r="Q18" cm="1">
+        <f t="array" ref="Q18">MATCH(1,(H18=H:H)*(MIN(IF(H:H=H18,A:A))=A:A),0)</f>
+        <v>19</v>
+      </c>
+      <c r="R18" cm="1">
+        <f t="array" ref="R18">INDEX(A:H,Q18,6)</f>
+        <v>408295</v>
+      </c>
+      <c r="S18" cm="1">
+        <f t="array" ref="S18">INDEX(A:H,Q18,5)</f>
+        <v>324922</v>
+      </c>
+      <c r="T18">
+        <f>R18/F18</f>
+        <v>1.1779190131093058</v>
+      </c>
+      <c r="U18">
+        <f>S18/E18</f>
+        <v>1.23419659203999</v>
+      </c>
+      <c r="V18">
+        <f>C18*U18</f>
+        <v>4.93678636815996</v>
+      </c>
+      <c r="W18">
+        <f>(M18-C18)/(1-C18)</f>
+        <v>-6.7556391555883737E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1536</v>
+        <v>3072</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>6042</v>
+        <v>17844</v>
       </c>
       <c r="E19">
-        <v>31725</v>
+        <v>324922</v>
       </c>
       <c r="F19">
-        <v>50545</v>
+        <v>408295</v>
       </c>
       <c r="G19">
         <f>POWER(A19,2)/C19</f>
-        <v>589824</v>
+        <v>9437184</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>589824</v>
+        <f>ROUND(G19,-3)</f>
+        <v>9437000</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">MATCH(1,(A19=A:A)*(MIN(IF(A:A=A19,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J19" cm="1">
         <f t="array" ref="J19">INDEX(A:H,I19,6)</f>
-        <v>102884</v>
+        <v>408295</v>
       </c>
       <c r="K19" cm="1">
         <f t="array" ref="K19">INDEX(A:H,I19,5)</f>
-        <v>75449</v>
+        <v>324922</v>
       </c>
       <c r="L19" cm="1">
         <f t="array" ref="L19">INDEX(A:H,I19,4)</f>
-        <v>5588</v>
+        <v>17844</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
-        <v>2.0354931249381738</v>
+        <f>J19/F19</f>
+        <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
-        <v>2.3782190701339636</v>
+        <f>K19/E19</f>
+        <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" si="3"/>
-        <v>0.92485931810658717</v>
+        <f>L19/D19</f>
+        <v>1</v>
       </c>
       <c r="P19">
-        <f t="shared" si="4"/>
-        <v>0.49128144317872557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M19</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" cm="1">
+        <f t="array" ref="Q19">MATCH(1,(H19=H:H)*(MIN(IF(H:H=H19,A:A))=A:A),0)</f>
+        <v>19</v>
+      </c>
+      <c r="R19" cm="1">
+        <f t="array" ref="R19">INDEX(A:H,Q19,6)</f>
+        <v>408295</v>
+      </c>
+      <c r="S19" cm="1">
+        <f t="array" ref="S19">INDEX(A:H,Q19,5)</f>
+        <v>324922</v>
+      </c>
+      <c r="T19">
+        <f>R19/F19</f>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f>S19/E19</f>
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <f>C19*U19</f>
+        <v>1</v>
+      </c>
+      <c r="W19" t="e">
+        <f>(M19-C19)/(1-C19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1536</v>
+        <v>24576</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <f>B20*8</f>
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>6001</v>
+        <v>30278</v>
       </c>
       <c r="E20">
-        <v>23495</v>
+        <v>497119</v>
       </c>
       <c r="F20">
-        <v>43518</v>
+        <v>649736</v>
       </c>
       <c r="G20">
         <f>POWER(A20,2)/C20</f>
-        <v>294912</v>
+        <v>8388608</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>294912</v>
+        <f>ROUND(G20,-3)</f>
+        <v>8389000</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">MATCH(1,(A20=A:A)*(MIN(IF(A:A=A20,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" ref="J20">INDEX(A:H,I20,6)</f>
-        <v>102884</v>
+        <v>1658533</v>
       </c>
       <c r="K20" cm="1">
         <f t="array" ref="K20">INDEX(A:H,I20,5)</f>
-        <v>75449</v>
+        <v>1231031</v>
       </c>
       <c r="L20" cm="1">
         <f t="array" ref="L20">INDEX(A:H,I20,4)</f>
-        <v>5588</v>
+        <v>83336</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
-        <v>2.36417114757112</v>
+        <f>J20/F20</f>
+        <v>2.5526259896327121</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
-        <v>3.211278995530964</v>
+        <f>K20/E20</f>
+        <v>2.4763306170152419</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
-        <v>0.93117813697717045</v>
+        <f>L20/D20</f>
+        <v>2.7523614505581611</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
-        <v>0.4229812215699234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M20</f>
+        <v>0.39175343511404359</v>
+      </c>
+      <c r="Q20" cm="1">
+        <f t="array" ref="Q20">MATCH(1,(H20=H:H)*(MIN(IF(H:H=H20,A:A))=A:A),0)</f>
+        <v>20</v>
+      </c>
+      <c r="R20" cm="1">
+        <f t="array" ref="R20">INDEX(A:H,Q20,6)</f>
+        <v>649736</v>
+      </c>
+      <c r="S20" cm="1">
+        <f t="array" ref="S20">INDEX(A:H,Q20,5)</f>
+        <v>497119</v>
+      </c>
+      <c r="T20">
+        <f>R20/F20</f>
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f>S20/E20</f>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f>C20*U20</f>
+        <v>72</v>
+      </c>
+      <c r="W20">
+        <f>(M20-C20)/(1-C20)</f>
+        <v>0.97813202831503221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1536</v>
+        <v>24576</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <f>B21*8</f>
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>5017</v>
+        <v>28562</v>
       </c>
       <c r="E21">
-        <v>19241</v>
+        <v>437892</v>
       </c>
       <c r="F21">
-        <v>35847</v>
+        <v>584031</v>
       </c>
       <c r="G21">
         <f>POWER(A21,2)/C21</f>
-        <v>294912</v>
+        <v>7549747.2000000002</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>294912</v>
+        <f>ROUND(G21,-3)</f>
+        <v>7550000</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">MATCH(1,(A21=A:A)*(MIN(IF(A:A=A21,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" ref="J21">INDEX(A:H,I21,6)</f>
-        <v>102884</v>
+        <v>1658533</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" ref="K21">INDEX(A:H,I21,5)</f>
-        <v>75449</v>
+        <v>1231031</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" ref="L21">INDEX(A:H,I21,4)</f>
-        <v>5588</v>
+        <v>83336</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
-        <v>2.8700867576087261</v>
+        <f>J21/F21</f>
+        <v>2.8398030241545396</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
-        <v>3.9212618886752248</v>
+        <f>K21/E21</f>
+        <v>2.8112662482986672</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
-        <v>1.1138130356786924</v>
+        <f>L21/D21</f>
+        <v>2.9177228485400182</v>
       </c>
       <c r="P21">
-        <f t="shared" si="4"/>
-        <v>0.34842152326892423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M21</f>
+        <v>0.35213709947284744</v>
+      </c>
+      <c r="Q21" cm="1">
+        <f t="array" ref="Q21">MATCH(1,(H21=H:H)*(MIN(IF(H:H=H21,A:A))=A:A),0)</f>
+        <v>21</v>
+      </c>
+      <c r="R21" cm="1">
+        <f t="array" ref="R21">INDEX(A:H,Q21,6)</f>
+        <v>584031</v>
+      </c>
+      <c r="S21" cm="1">
+        <f t="array" ref="S21">INDEX(A:H,Q21,5)</f>
+        <v>437892</v>
+      </c>
+      <c r="T21">
+        <f>R21/F21</f>
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <f>S21/E21</f>
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <f>C21*U21</f>
+        <v>80</v>
+      </c>
+      <c r="W21">
+        <f>(M21-C21)/(1-C21)</f>
+        <v>0.97671135412462617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1536</v>
+        <v>12288</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <f>B22*8</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>4634</v>
+        <v>24954</v>
       </c>
       <c r="E22">
-        <v>14450</v>
+        <v>427906</v>
       </c>
       <c r="F22">
-        <v>34293</v>
+        <v>545644</v>
       </c>
       <c r="G22">
         <f>POWER(A22,2)/C22</f>
-        <v>147456</v>
+        <v>6291456</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>147456</v>
+        <f>ROUND(G22,-3)</f>
+        <v>6291000</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">MATCH(1,(A22=A:A)*(MIN(IF(A:A=A22,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J22" cm="1">
         <f t="array" ref="J22">INDEX(A:H,I22,6)</f>
-        <v>102884</v>
+        <v>5274159</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" ref="K22">INDEX(A:H,I22,5)</f>
-        <v>75449</v>
+        <v>4284814</v>
       </c>
       <c r="L22" cm="1">
         <f t="array" ref="L22">INDEX(A:H,I22,4)</f>
-        <v>5588</v>
+        <v>241646</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
-        <v>3.000145802350334</v>
+        <f>J22/F22</f>
+        <v>9.6659341988549308</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
-        <v>5.2213840830449829</v>
+        <f>K22/E22</f>
+        <v>10.01344687852005</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
-        <v>1.2058696590418645</v>
+        <f>L22/D22</f>
+        <v>9.6836579305922896</v>
       </c>
       <c r="P22">
-        <f t="shared" si="4"/>
-        <v>0.33331713385949224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M22</f>
+        <v>0.10345611499387865</v>
+      </c>
+      <c r="Q22" cm="1">
+        <f t="array" ref="Q22">MATCH(1,(H22=H:H)*(MIN(IF(H:H=H22,A:A))=A:A),0)</f>
+        <v>22</v>
+      </c>
+      <c r="R22" cm="1">
+        <f t="array" ref="R22">INDEX(A:H,Q22,6)</f>
+        <v>545644</v>
+      </c>
+      <c r="S22" cm="1">
+        <f t="array" ref="S22">INDEX(A:H,Q22,5)</f>
+        <v>427906</v>
+      </c>
+      <c r="T22">
+        <f>R22/F22</f>
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f>S22/E22</f>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f>C22*U22</f>
+        <v>24</v>
+      </c>
+      <c r="W22">
+        <f>(M22-C22)/(1-C22)</f>
+        <v>0.6232202522236987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1536</v>
+        <v>12288</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <f>B23*8</f>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>8214</v>
+        <v>17698</v>
       </c>
       <c r="E23">
-        <v>17586</v>
+        <v>261422</v>
       </c>
       <c r="F23">
-        <v>37186</v>
+        <v>355772</v>
       </c>
       <c r="G23">
         <f>POWER(A23,2)/C23</f>
-        <v>147456</v>
+        <v>4718592</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>147456</v>
+        <f>ROUND(G23,-3)</f>
+        <v>4719000</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">MATCH(1,(A23=A:A)*(MIN(IF(A:A=A23,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" ref="J23">INDEX(A:H,I23,6)</f>
-        <v>102884</v>
+        <v>5274159</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" ref="K23">INDEX(A:H,I23,5)</f>
-        <v>75449</v>
+        <v>4284814</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" ref="L23">INDEX(A:H,I23,4)</f>
-        <v>5588</v>
+        <v>241646</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
-        <v>2.7667401710321089</v>
+        <f>J23/F23</f>
+        <v>14.824547744060803</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
-        <v>4.2902877288752412</v>
+        <f>K23/E23</f>
+        <v>16.390410906503661</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
-        <v>0.68030192354516683</v>
+        <f>L23/D23</f>
+        <v>13.653859193129167</v>
       </c>
       <c r="P23">
-        <f t="shared" si="4"/>
-        <v>0.36143618055285565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M23</f>
+        <v>6.745568345588368E-2</v>
+      </c>
+      <c r="Q23" cm="1">
+        <f t="array" ref="Q23">MATCH(1,(H23=H:H)*(MIN(IF(H:H=H23,A:A))=A:A),0)</f>
+        <v>26</v>
+      </c>
+      <c r="R23" cm="1">
+        <f t="array" ref="R23">INDEX(A:H,Q23,6)</f>
+        <v>195099</v>
+      </c>
+      <c r="S23" cm="1">
+        <f t="array" ref="S23">INDEX(A:H,Q23,5)</f>
+        <v>144857</v>
+      </c>
+      <c r="T23">
+        <f>R23/F23</f>
+        <v>0.5483821098906041</v>
+      </c>
+      <c r="U23">
+        <f>S23/E23</f>
+        <v>0.55411174269954322</v>
+      </c>
+      <c r="V23">
+        <f>C23*U23</f>
+        <v>17.731575766385383</v>
+      </c>
+      <c r="W23">
+        <f>(M23-C23)/(1-C23)</f>
+        <v>0.55404684696578055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1536</v>
+        <v>6144</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <f>B24*8</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>3492</v>
+        <v>20002</v>
       </c>
       <c r="E24">
-        <v>10452</v>
+        <v>261230</v>
       </c>
       <c r="F24">
-        <v>29947</v>
+        <v>342507</v>
       </c>
       <c r="G24">
         <f>POWER(A24,2)/C24</f>
-        <v>98304</v>
+        <v>4718592</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>98304</v>
+        <f>ROUND(G24,-3)</f>
+        <v>4719000</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">MATCH(1,(A24=A:A)*(MIN(IF(A:A=A24,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" ref="J24">INDEX(A:H,I24,6)</f>
-        <v>102884</v>
+        <v>1393521</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" ref="K24">INDEX(A:H,I24,5)</f>
-        <v>75449</v>
+        <v>1139754</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" ref="L24">INDEX(A:H,I24,4)</f>
-        <v>5588</v>
+        <v>59656</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
-        <v>3.4355361138010485</v>
+        <f>J24/F24</f>
+        <v>4.0685912988639652</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
-        <v>7.2186184462303862</v>
+        <f>K24/E24</f>
+        <v>4.3630287486123338</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
-        <v>1.600229095074456</v>
+        <f>L24/D24</f>
+        <v>2.9825017498250177</v>
       </c>
       <c r="P24">
-        <f t="shared" si="4"/>
-        <v>0.29107538587146692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M24</f>
+        <v>0.24578531647531682</v>
+      </c>
+      <c r="Q24" cm="1">
+        <f t="array" ref="Q24">MATCH(1,(H24=H:H)*(MIN(IF(H:H=H24,A:A))=A:A),0)</f>
+        <v>26</v>
+      </c>
+      <c r="R24" cm="1">
+        <f t="array" ref="R24">INDEX(A:H,Q24,6)</f>
+        <v>195099</v>
+      </c>
+      <c r="S24" cm="1">
+        <f t="array" ref="S24">INDEX(A:H,Q24,5)</f>
+        <v>144857</v>
+      </c>
+      <c r="T24">
+        <f>R24/F24</f>
+        <v>0.56962047491000178</v>
+      </c>
+      <c r="U24">
+        <f>S24/E24</f>
+        <v>0.55451900623971218</v>
+      </c>
+      <c r="V24">
+        <f>C24*U24</f>
+        <v>4.4361520499176974</v>
+      </c>
+      <c r="W24">
+        <f>(M24-C24)/(1-C24)</f>
+        <v>0.56162981444800497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1536</v>
+        <v>6144</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <f>B25*8</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>2496</v>
+        <v>17667</v>
       </c>
       <c r="E25">
-        <v>8580</v>
+        <v>171458</v>
       </c>
       <c r="F25">
-        <v>26841</v>
+        <v>231877</v>
       </c>
       <c r="G25">
         <f>POWER(A25,2)/C25</f>
-        <v>73728</v>
+        <v>4718592</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>73728</v>
+        <f>ROUND(G25,-3)</f>
+        <v>4719000</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">MATCH(1,(A25=A:A)*(MIN(IF(A:A=A25,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" ref="J25">INDEX(A:H,I25,6)</f>
-        <v>102884</v>
+        <v>1393521</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" ref="K25">INDEX(A:H,I25,5)</f>
-        <v>75449</v>
+        <v>1139754</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" ref="L25">INDEX(A:H,I25,4)</f>
-        <v>5588</v>
+        <v>59656</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
-        <v>3.8330911664990128</v>
+        <f>J25/F25</f>
+        <v>6.0097422340292486</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
-        <v>8.7935897435897434</v>
+        <f>K25/E25</f>
+        <v>6.6474238589042214</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
-        <v>2.2387820512820511</v>
+        <f>L25/D25</f>
+        <v>3.3766910058300788</v>
       </c>
       <c r="P25">
-        <f t="shared" si="4"/>
-        <v>0.26088604642121221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M25</f>
+        <v>0.16639648774578925</v>
+      </c>
+      <c r="Q25" cm="1">
+        <f t="array" ref="Q25">MATCH(1,(H25=H:H)*(MIN(IF(H:H=H25,A:A))=A:A),0)</f>
+        <v>26</v>
+      </c>
+      <c r="R25" cm="1">
+        <f t="array" ref="R25">INDEX(A:H,Q25,6)</f>
+        <v>195099</v>
+      </c>
+      <c r="S25" cm="1">
+        <f t="array" ref="S25">INDEX(A:H,Q25,5)</f>
+        <v>144857</v>
+      </c>
+      <c r="T25">
+        <f>R25/F25</f>
+        <v>0.84139004730956501</v>
+      </c>
+      <c r="U25">
+        <f>S25/E25</f>
+        <v>0.8448541333737708</v>
+      </c>
+      <c r="V25">
+        <f>C25*U25</f>
+        <v>6.7588330669901664</v>
+      </c>
+      <c r="W25">
+        <f>(M25-C25)/(1-C25)</f>
+        <v>0.28432253799582163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1536</v>
+        <v>3072</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <f>B26*8</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>3208</v>
+        <v>10046</v>
       </c>
       <c r="E26">
-        <v>7396</v>
+        <v>144857</v>
       </c>
       <c r="F26">
-        <v>25956</v>
+        <v>195099</v>
       </c>
       <c r="G26">
         <f>POWER(A26,2)/C26</f>
-        <v>58982.400000000001</v>
+        <v>4718592</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>58982.400000000001</v>
+        <f>ROUND(G26,-3)</f>
+        <v>4719000</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">MATCH(1,(A26=A:A)*(MIN(IF(A:A=A26,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J26" cm="1">
         <f t="array" ref="J26">INDEX(A:H,I26,6)</f>
-        <v>102884</v>
+        <v>408295</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">INDEX(A:H,I26,5)</f>
-        <v>75449</v>
+        <v>324922</v>
       </c>
       <c r="L26" cm="1">
         <f t="array" ref="L26">INDEX(A:H,I26,4)</f>
-        <v>5588</v>
+        <v>17844</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
-        <v>3.963784866697488</v>
+        <f>J26/F26</f>
+        <v>2.092758035663945</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
-        <v>10.201325040562466</v>
+        <f>K26/E26</f>
+        <v>2.2430534941355957</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
-        <v>1.7418952618453865</v>
+        <f>L26/D26</f>
+        <v>1.7762293450129405</v>
       </c>
       <c r="P26">
-        <f t="shared" si="4"/>
-        <v>0.25228412581159365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M26</f>
+        <v>0.47783832767974133</v>
+      </c>
+      <c r="Q26" cm="1">
+        <f t="array" ref="Q26">MATCH(1,(H26=H:H)*(MIN(IF(H:H=H26,A:A))=A:A),0)</f>
+        <v>26</v>
+      </c>
+      <c r="R26" cm="1">
+        <f t="array" ref="R26">INDEX(A:H,Q26,6)</f>
+        <v>195099</v>
+      </c>
+      <c r="S26" cm="1">
+        <f t="array" ref="S26">INDEX(A:H,Q26,5)</f>
+        <v>144857</v>
+      </c>
+      <c r="T26">
+        <f>R26/F26</f>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <f>S26/E26</f>
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <f>C26*U26</f>
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <f>(M26-C26)/(1-C26)</f>
+        <v>-9.2758035663945027E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1536</v>
+        <v>12288</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <f>B27*8</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>2346</v>
+        <v>15684</v>
       </c>
       <c r="E27">
-        <v>7587</v>
+        <v>194871</v>
       </c>
       <c r="F27">
-        <v>28662</v>
+        <v>280153</v>
       </c>
       <c r="G27">
         <f>POWER(A27,2)/C27</f>
-        <v>49152</v>
+        <v>3774873.6000000001</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>49152</v>
+        <f>ROUND(G27,-3)</f>
+        <v>3775000</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">MATCH(1,(A27=A:A)*(MIN(IF(A:A=A27,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX(A:H,I27,6)</f>
-        <v>102884</v>
+        <v>5274159</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX(A:H,I27,5)</f>
-        <v>75449</v>
+        <v>4284814</v>
       </c>
       <c r="L27" cm="1">
         <f t="array" ref="L27">INDEX(A:H,I27,4)</f>
-        <v>5588</v>
+        <v>241646</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
-        <v>3.589561091340451</v>
+        <f>J27/F27</f>
+        <v>18.825995081259169</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
-        <v>9.9445103466455773</v>
+        <f>K27/E27</f>
+        <v>21.987951003484355</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
-        <v>2.3819266837169653</v>
+        <f>L27/D27</f>
+        <v>15.407166539148177</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
-        <v>0.27858559153998674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M27</f>
+        <v>5.3118042137144522E-2</v>
+      </c>
+      <c r="Q27" cm="1">
+        <f t="array" ref="Q27">MATCH(1,(H27=H:H)*(MIN(IF(H:H=H27,A:A))=A:A),0)</f>
+        <v>27</v>
+      </c>
+      <c r="R27" cm="1">
+        <f t="array" ref="R27">INDEX(A:H,Q27,6)</f>
+        <v>280153</v>
+      </c>
+      <c r="S27" cm="1">
+        <f t="array" ref="S27">INDEX(A:H,Q27,5)</f>
+        <v>194871</v>
+      </c>
+      <c r="T27">
+        <f>R27/F27</f>
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <f>S27/E27</f>
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <f>C27*U27</f>
+        <v>40</v>
+      </c>
+      <c r="W27">
+        <f>(M27-C27)/(1-C27)</f>
+        <v>0.5429232030446367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1536</v>
+        <v>12288</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <f>B28*8</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>2160</v>
+        <v>13086</v>
       </c>
       <c r="E28">
-        <v>5874</v>
+        <v>176472</v>
       </c>
       <c r="F28">
-        <v>24196</v>
+        <v>248521</v>
       </c>
       <c r="G28">
         <f>POWER(A28,2)/C28</f>
-        <v>42130.285714285717</v>
+        <v>3145728</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>42130.3</v>
+        <f>ROUND(G28,-3)</f>
+        <v>3146000</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">MATCH(1,(A28=A:A)*(MIN(IF(A:A=A28,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J28" cm="1">
         <f t="array" ref="J28">INDEX(A:H,I28,6)</f>
-        <v>102884</v>
+        <v>5274159</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" ref="K28">INDEX(A:H,I28,5)</f>
-        <v>75449</v>
+        <v>4284814</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" ref="L28">INDEX(A:H,I28,4)</f>
-        <v>5588</v>
+        <v>241646</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
-        <v>4.2521077864109769</v>
+        <f>J28/F28</f>
+        <v>21.222186455068183</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
-        <v>12.844569288389513</v>
+        <f>K28/E28</f>
+        <v>24.280418423319279</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
-        <v>2.587037037037037</v>
+        <f>L28/D28</f>
+        <v>18.465994192266546</v>
       </c>
       <c r="P28">
-        <f t="shared" si="4"/>
-        <v>0.23517748143540299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M28</f>
+        <v>4.7120498263325018E-2</v>
+      </c>
+      <c r="Q28" cm="1">
+        <f t="array" ref="Q28">MATCH(1,(H28=H:H)*(MIN(IF(H:H=H28,A:A))=A:A),0)</f>
+        <v>28</v>
+      </c>
+      <c r="R28" cm="1">
+        <f t="array" ref="R28">INDEX(A:H,Q28,6)</f>
+        <v>248521</v>
+      </c>
+      <c r="S28" cm="1">
+        <f t="array" ref="S28">INDEX(A:H,Q28,5)</f>
+        <v>176472</v>
+      </c>
+      <c r="T28">
+        <f>R28/F28</f>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f>S28/E28</f>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f>C28*U28</f>
+        <v>48</v>
+      </c>
+      <c r="W28">
+        <f>(M28-C28)/(1-C28)</f>
+        <v>0.56974071372195356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1536</v>
+        <v>12288</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <f>B29*8</f>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>2016</v>
+        <v>11518</v>
       </c>
       <c r="E29">
-        <v>5748</v>
+        <v>178634</v>
       </c>
       <c r="F29">
-        <v>25606</v>
+        <v>244029</v>
       </c>
       <c r="G29">
         <f>POWER(A29,2)/C29</f>
-        <v>36864</v>
+        <v>2696338.2857142859</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
-        <v>36864</v>
+        <f>ROUND(G29,-3)</f>
+        <v>2696000</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">MATCH(1,(A29=A:A)*(MIN(IF(A:A=A29,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX(A:H,I29,6)</f>
-        <v>102884</v>
+        <v>5274159</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">INDEX(A:H,I29,5)</f>
-        <v>75449</v>
+        <v>4284814</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" ref="L29">INDEX(A:H,I29,4)</f>
-        <v>5588</v>
+        <v>241646</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
-        <v>4.0179645395610404</v>
+        <f>J29/F29</f>
+        <v>21.612836998881281</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
-        <v>13.126130828114126</v>
+        <f>K29/E29</f>
+        <v>23.986553511649518</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
-        <v>2.7718253968253967</v>
+        <f>L29/D29</f>
+        <v>20.979857614169127</v>
       </c>
       <c r="P29">
-        <f t="shared" si="4"/>
-        <v>0.24888223630496481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M29</f>
+        <v>4.6268798494698393E-2</v>
+      </c>
+      <c r="Q29" cm="1">
+        <f t="array" ref="Q29">MATCH(1,(H29=H:H)*(MIN(IF(H:H=H29,A:A))=A:A),0)</f>
+        <v>29</v>
+      </c>
+      <c r="R29" cm="1">
+        <f t="array" ref="R29">INDEX(A:H,Q29,6)</f>
+        <v>244029</v>
+      </c>
+      <c r="S29" cm="1">
+        <f t="array" ref="S29">INDEX(A:H,Q29,5)</f>
+        <v>178634</v>
+      </c>
+      <c r="T29">
+        <f>R29/F29</f>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f>S29/E29</f>
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <f>C29*U29</f>
+        <v>56</v>
+      </c>
+      <c r="W29">
+        <f>(M29-C29)/(1-C29)</f>
+        <v>0.62522114547488583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1536</v>
+        <v>12288</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <f>B30*8</f>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>1915</v>
+        <v>11466</v>
       </c>
       <c r="E30">
-        <v>4943</v>
+        <v>200863</v>
       </c>
       <c r="F30">
-        <v>24378</v>
+        <v>263412</v>
       </c>
       <c r="G30">
         <f>POWER(A30,2)/C30</f>
-        <v>32768</v>
+        <v>2359296</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>32768</v>
+        <f>ROUND(G30,-3)</f>
+        <v>2359000</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">MATCH(1,(A30=A:A)*(MIN(IF(A:A=A30,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" ref="J30">INDEX(A:H,I30,6)</f>
-        <v>102884</v>
+        <v>5274159</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" ref="K30">INDEX(A:H,I30,5)</f>
-        <v>75449</v>
+        <v>4284814</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" ref="L30">INDEX(A:H,I30,4)</f>
-        <v>5588</v>
+        <v>241646</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
-        <v>4.2203626220362622</v>
+        <f>J30/F30</f>
+        <v>20.022470502482804</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
-        <v>15.263807404410278</v>
+        <f>K30/E30</f>
+        <v>21.33202232367335</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
-        <v>2.9180156657963447</v>
+        <f>L30/D30</f>
+        <v>21.075004360718648</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
-        <v>0.23694646397884997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M30</f>
+        <v>4.9943886788396022E-2</v>
+      </c>
+      <c r="Q30" cm="1">
+        <f t="array" ref="Q30">MATCH(1,(H30=H:H)*(MIN(IF(H:H=H30,A:A))=A:A),0)</f>
+        <v>34</v>
+      </c>
+      <c r="R30" cm="1">
+        <f t="array" ref="R30">INDEX(A:H,Q30,6)</f>
+        <v>102884</v>
+      </c>
+      <c r="S30" cm="1">
+        <f t="array" ref="S30">INDEX(A:H,Q30,5)</f>
+        <v>75449</v>
+      </c>
+      <c r="T30">
+        <f>R30/F30</f>
+        <v>0.39058205396868784</v>
+      </c>
+      <c r="U30">
+        <f>S30/E30</f>
+        <v>0.37562418165615369</v>
+      </c>
+      <c r="V30">
+        <f>C30*U30</f>
+        <v>24.039947625993836</v>
+      </c>
+      <c r="W30">
+        <f>(M30-C30)/(1-C30)</f>
+        <v>0.69805602377011422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1536</v>
+        <v>6144</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <f>B31*8</f>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>1939</v>
+        <v>11710</v>
       </c>
       <c r="E31">
-        <v>5056</v>
+        <v>136517</v>
       </c>
       <c r="F31">
-        <v>24264</v>
+        <v>186638</v>
       </c>
       <c r="G31">
         <f>POWER(A31,2)/C31</f>
-        <v>29491.200000000001</v>
+        <v>2359296</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>29491.200000000001</v>
+        <f>ROUND(G31,-3)</f>
+        <v>2359000</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">MATCH(1,(A31=A:A)*(MIN(IF(A:A=A31,C:C))=C:C),0)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" ref="J31">INDEX(A:H,I31,6)</f>
-        <v>102884</v>
+        <v>1393521</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" ref="K31">INDEX(A:H,I31,5)</f>
-        <v>75449</v>
+        <v>1139754</v>
       </c>
       <c r="L31" cm="1">
         <f t="array" ref="L31">INDEX(A:H,I31,4)</f>
-        <v>5588</v>
+        <v>59656</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
-        <v>4.2401912298054727</v>
+        <f>J31/F31</f>
+        <v>7.4664377029329501</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
-        <v>14.922666139240507</v>
+        <f>K31/E31</f>
+        <v>8.3488063757627256</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
-        <v>2.881897885507994</v>
+        <f>L31/D31</f>
+        <v>5.0944491887275829</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
-        <v>0.23583841996811947</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M31</f>
+        <v>0.13393267844546297</v>
+      </c>
+      <c r="Q31" cm="1">
+        <f t="array" ref="Q31">MATCH(1,(H31=H:H)*(MIN(IF(H:H=H31,A:A))=A:A),0)</f>
+        <v>34</v>
+      </c>
+      <c r="R31" cm="1">
+        <f t="array" ref="R31">INDEX(A:H,Q31,6)</f>
+        <v>102884</v>
+      </c>
+      <c r="S31" cm="1">
+        <f t="array" ref="S31">INDEX(A:H,Q31,5)</f>
+        <v>75449</v>
+      </c>
+      <c r="T31">
+        <f>R31/F31</f>
+        <v>0.55124894180177675</v>
+      </c>
+      <c r="U31">
+        <f>S31/E31</f>
+        <v>0.55267109590746943</v>
+      </c>
+      <c r="V31">
+        <f>C31*U31</f>
+        <v>8.8427375345195109</v>
+      </c>
+      <c r="W31">
+        <f>(M31-C31)/(1-C31)</f>
+        <v>0.56890415313780329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3072</v>
+        <v>6144</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>17844</v>
+        <v>13638</v>
       </c>
       <c r="E32">
-        <v>324922</v>
+        <v>149230</v>
       </c>
       <c r="F32">
-        <v>408295</v>
+        <v>201848</v>
       </c>
       <c r="G32">
         <f>POWER(A32,2)/C32</f>
-        <v>9437184</v>
+        <v>2359296</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>9437184</v>
+        <f>ROUND(G32,-3)</f>
+        <v>2359000</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">MATCH(1,(A32=A:A)*(MIN(IF(A:A=A32,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J32" cm="1">
         <f t="array" ref="J32">INDEX(A:H,I32,6)</f>
-        <v>408295</v>
+        <v>1393521</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" ref="K32">INDEX(A:H,I32,5)</f>
-        <v>324922</v>
+        <v>1139754</v>
       </c>
       <c r="L32" cm="1">
         <f t="array" ref="L32">INDEX(A:H,I32,4)</f>
-        <v>17844</v>
+        <v>59656</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>J32/F32</f>
+        <v>6.9038137608497481</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>K32/E32</f>
+        <v>7.6375661730215105</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>L32/D32</f>
+        <v>4.374248423522511</v>
       </c>
       <c r="P32">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M32</f>
+        <v>0.14484747628489272</v>
+      </c>
+      <c r="Q32" cm="1">
+        <f t="array" ref="Q32">MATCH(1,(H32=H:H)*(MIN(IF(H:H=H32,A:A))=A:A),0)</f>
+        <v>34</v>
+      </c>
+      <c r="R32" cm="1">
+        <f t="array" ref="R32">INDEX(A:H,Q32,6)</f>
+        <v>102884</v>
+      </c>
+      <c r="S32" cm="1">
+        <f t="array" ref="S32">INDEX(A:H,Q32,5)</f>
+        <v>75449</v>
+      </c>
+      <c r="T32">
+        <f>R32/F32</f>
+        <v>0.50971027704014904</v>
+      </c>
+      <c r="U32">
+        <f>S32/E32</f>
+        <v>0.50558868860148765</v>
+      </c>
+      <c r="V32">
+        <f>C32*U32</f>
+        <v>8.0894190176238023</v>
+      </c>
+      <c r="W32">
+        <f>(M32-C32)/(1-C32)</f>
+        <v>0.60641241594335016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3072</v>
       </c>
@@ -4502,28 +5420,28 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>10046</v>
+        <v>7527</v>
       </c>
       <c r="E33">
-        <v>144857</v>
+        <v>90214</v>
       </c>
       <c r="F33">
-        <v>195099</v>
+        <v>121231</v>
       </c>
       <c r="G33">
         <f>POWER(A33,2)/C33</f>
-        <v>4718592</v>
+        <v>2359296</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>4718592</v>
+        <f>ROUND(G33,-3)</f>
+        <v>2359000</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">MATCH(1,(A33=A:A)*(MIN(IF(A:A=A33,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J33" cm="1">
         <f t="array" ref="J33">INDEX(A:H,I33,6)</f>
@@ -4538,355 +5456,525 @@
         <v>17844</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
-        <v>2.092758035663945</v>
+        <f>J33/F33</f>
+        <v>3.3679091981423892</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
-        <v>2.2430534941355957</v>
+        <f>K33/E33</f>
+        <v>3.6016804487108431</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
-        <v>1.7762293450129405</v>
+        <f>L33/D33</f>
+        <v>2.3706656038262257</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
-        <v>0.47783832767974133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M33</f>
+        <v>0.29692011903158255</v>
+      </c>
+      <c r="Q33" cm="1">
+        <f t="array" ref="Q33">MATCH(1,(H33=H:H)*(MIN(IF(H:H=H33,A:A))=A:A),0)</f>
+        <v>34</v>
+      </c>
+      <c r="R33" cm="1">
+        <f t="array" ref="R33">INDEX(A:H,Q33,6)</f>
+        <v>102884</v>
+      </c>
+      <c r="S33" cm="1">
+        <f t="array" ref="S33">INDEX(A:H,Q33,5)</f>
+        <v>75449</v>
+      </c>
+      <c r="T33">
+        <f>R33/F33</f>
+        <v>0.84866082107711727</v>
+      </c>
+      <c r="U33">
+        <f>S33/E33</f>
+        <v>0.83633360675726609</v>
+      </c>
+      <c r="V33">
+        <f>C33*U33</f>
+        <v>3.3453344270290644</v>
+      </c>
+      <c r="W33">
+        <f>(M33-C33)/(1-C33)</f>
+        <v>0.21069693395253694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>3072</v>
+        <v>1536</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>7527</v>
+        <v>5588</v>
       </c>
       <c r="E34">
-        <v>90214</v>
+        <v>75449</v>
       </c>
       <c r="F34">
-        <v>121231</v>
+        <v>102884</v>
       </c>
       <c r="G34">
         <f>POWER(A34,2)/C34</f>
         <v>2359296</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>2359296</v>
+        <f>ROUND(G34,-3)</f>
+        <v>2359000</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">MATCH(1,(A34=A:A)*(MIN(IF(A:A=A34,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" ref="J34">INDEX(A:H,I34,6)</f>
-        <v>408295</v>
+        <v>102884</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" ref="K34">INDEX(A:H,I34,5)</f>
-        <v>324922</v>
+        <v>75449</v>
       </c>
       <c r="L34" cm="1">
         <f t="array" ref="L34">INDEX(A:H,I34,4)</f>
-        <v>17844</v>
+        <v>5588</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
-        <v>3.3679091981423892</v>
+        <f>J34/F34</f>
+        <v>1</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
-        <v>3.6016804487108431</v>
+        <f>K34/E34</f>
+        <v>1</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
-        <v>2.3706656038262257</v>
+        <f>L34/D34</f>
+        <v>1</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
-        <v>0.29692011903158255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M34</f>
+        <v>1</v>
+      </c>
+      <c r="Q34" cm="1">
+        <f t="array" ref="Q34">MATCH(1,(H34=H:H)*(MIN(IF(H:H=H34,A:A))=A:A),0)</f>
+        <v>34</v>
+      </c>
+      <c r="R34" cm="1">
+        <f t="array" ref="R34">INDEX(A:H,Q34,6)</f>
+        <v>102884</v>
+      </c>
+      <c r="S34" cm="1">
+        <f t="array" ref="S34">INDEX(A:H,Q34,5)</f>
+        <v>75449</v>
+      </c>
+      <c r="T34">
+        <f>R34/F34</f>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f>S34/E34</f>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f>C34*U34</f>
+        <v>1</v>
+      </c>
+      <c r="W34" t="e">
+        <f>(M34-C34)/(1-C34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>3072</v>
+        <v>12288</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <f>B35*8</f>
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D35">
-        <v>8525</v>
+        <v>10131</v>
       </c>
       <c r="E35">
-        <v>76754</v>
+        <v>151792</v>
       </c>
       <c r="F35">
-        <v>109411</v>
+        <v>209469</v>
       </c>
       <c r="G35">
         <f>POWER(A35,2)/C35</f>
-        <v>1179648</v>
+        <v>2097152</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
-        <v>1179648</v>
+        <f>ROUND(G35,-3)</f>
+        <v>2097000</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">MATCH(1,(A35=A:A)*(MIN(IF(A:A=A35,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J35" cm="1">
         <f t="array" ref="J35">INDEX(A:H,I35,6)</f>
-        <v>408295</v>
+        <v>5274159</v>
       </c>
       <c r="K35" cm="1">
         <f t="array" ref="K35">INDEX(A:H,I35,5)</f>
-        <v>324922</v>
+        <v>4284814</v>
       </c>
       <c r="L35" cm="1">
         <f t="array" ref="L35">INDEX(A:H,I35,4)</f>
-        <v>17844</v>
+        <v>241646</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
-        <v>3.7317545767792999</v>
+        <f>J35/F35</f>
+        <v>25.178709021382637</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
-        <v>4.2332907731193163</v>
+        <f>K35/E35</f>
+        <v>28.228193844207862</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
-        <v>2.0931378299120236</v>
+        <f>L35/D35</f>
+        <v>23.852137005231469</v>
       </c>
       <c r="P35">
-        <f t="shared" si="4"/>
-        <v>0.26797046253321744</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M35</f>
+        <v>3.9716095021026104E-2</v>
+      </c>
+      <c r="Q35" cm="1">
+        <f t="array" ref="Q35">MATCH(1,(H35=H:H)*(MIN(IF(H:H=H35,A:A))=A:A),0)</f>
+        <v>35</v>
+      </c>
+      <c r="R35" cm="1">
+        <f t="array" ref="R35">INDEX(A:H,Q35,6)</f>
+        <v>209469</v>
+      </c>
+      <c r="S35" cm="1">
+        <f t="array" ref="S35">INDEX(A:H,Q35,5)</f>
+        <v>151792</v>
+      </c>
+      <c r="T35">
+        <f>R35/F35</f>
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f>S35/E35</f>
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <f>C35*U35</f>
+        <v>72</v>
+      </c>
+      <c r="W35">
+        <f>(M35-C35)/(1-C35)</f>
+        <v>0.65945480251573751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>3072</v>
+        <v>12288</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <f>B36*8</f>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>7562</v>
+        <v>11848</v>
       </c>
       <c r="E36">
-        <v>49488</v>
+        <v>141756</v>
       </c>
       <c r="F36">
-        <v>74482</v>
+        <v>205280</v>
       </c>
       <c r="G36">
         <f>POWER(A36,2)/C36</f>
-        <v>1179648</v>
+        <v>1887436.8</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
-        <v>1179648</v>
+        <f>ROUND(G36,-3)</f>
+        <v>1887000</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">MATCH(1,(A36=A:A)*(MIN(IF(A:A=A36,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J36" cm="1">
         <f t="array" ref="J36">INDEX(A:H,I36,6)</f>
-        <v>408295</v>
+        <v>5274159</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" ref="K36">INDEX(A:H,I36,5)</f>
-        <v>324922</v>
+        <v>4284814</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" ref="L36">INDEX(A:H,I36,4)</f>
-        <v>17844</v>
+        <v>241646</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
-        <v>5.4817942590156008</v>
+        <f>J36/F36</f>
+        <v>25.692512665627437</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
-        <v>6.5656724862592952</v>
+        <f>K36/E36</f>
+        <v>30.226685290216992</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
-        <v>2.3596932028563873</v>
+        <f>L36/D36</f>
+        <v>20.39550979068197</v>
       </c>
       <c r="P36">
-        <f t="shared" si="4"/>
-        <v>0.18242202329198251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M36</f>
+        <v>3.8921845170007199E-2</v>
+      </c>
+      <c r="Q36" cm="1">
+        <f t="array" ref="Q36">MATCH(1,(H36=H:H)*(MIN(IF(H:H=H36,A:A))=A:A),0)</f>
+        <v>36</v>
+      </c>
+      <c r="R36" cm="1">
+        <f t="array" ref="R36">INDEX(A:H,Q36,6)</f>
+        <v>205280</v>
+      </c>
+      <c r="S36" cm="1">
+        <f t="array" ref="S36">INDEX(A:H,Q36,5)</f>
+        <v>141756</v>
+      </c>
+      <c r="T36">
+        <f>R36/F36</f>
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <f>S36/E36</f>
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <f>C36*U36</f>
+        <v>80</v>
+      </c>
+      <c r="W36">
+        <f>(M36-C36)/(1-C36)</f>
+        <v>0.6874365485363616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>3072</v>
+        <v>6144</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <f>B37*8</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>6852</v>
+        <v>8799</v>
       </c>
       <c r="E37">
-        <v>37093</v>
+        <v>91652</v>
       </c>
       <c r="F37">
-        <v>64140</v>
+        <v>133681</v>
       </c>
       <c r="G37">
         <f>POWER(A37,2)/C37</f>
-        <v>589824</v>
+        <v>1572864</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
-        <v>589824</v>
+        <f>ROUND(G37,-3)</f>
+        <v>1573000</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">MATCH(1,(A37=A:A)*(MIN(IF(A:A=A37,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" ref="J37">INDEX(A:H,I37,6)</f>
-        <v>408295</v>
+        <v>1393521</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" ref="K37">INDEX(A:H,I37,5)</f>
-        <v>324922</v>
+        <v>1139754</v>
       </c>
       <c r="L37" cm="1">
         <f t="array" ref="L37">INDEX(A:H,I37,4)</f>
-        <v>17844</v>
+        <v>59656</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
-        <v>6.3656844402868726</v>
+        <f>J37/F37</f>
+        <v>10.424226329844929</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
-        <v>8.7596581565254894</v>
+        <f>K37/E37</f>
+        <v>12.435669707153144</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
-        <v>2.6042031523642732</v>
+        <f>L37/D37</f>
+        <v>6.7798613478804413</v>
       </c>
       <c r="P37">
-        <f t="shared" si="4"/>
-        <v>0.15709229846067183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M37</f>
+        <v>9.5930380668823798E-2</v>
+      </c>
+      <c r="Q37" cm="1">
+        <f t="array" ref="Q37">MATCH(1,(H37=H:H)*(MIN(IF(H:H=H37,A:A))=A:A),0)</f>
+        <v>37</v>
+      </c>
+      <c r="R37" cm="1">
+        <f t="array" ref="R37">INDEX(A:H,Q37,6)</f>
+        <v>133681</v>
+      </c>
+      <c r="S37" cm="1">
+        <f t="array" ref="S37">INDEX(A:H,Q37,5)</f>
+        <v>91652</v>
+      </c>
+      <c r="T37">
+        <f>R37/F37</f>
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <f>S37/E37</f>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f>C37*U37</f>
+        <v>24</v>
+      </c>
+      <c r="W37">
+        <f>(M37-C37)/(1-C37)</f>
+        <v>0.59025102913717697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>3072</v>
+        <v>6144</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <f>B38*8</f>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>7383</v>
+        <v>7674</v>
       </c>
       <c r="E38">
-        <v>41439</v>
+        <v>83613</v>
       </c>
       <c r="F38">
-        <v>64868</v>
+        <v>120719</v>
       </c>
       <c r="G38">
         <f>POWER(A38,2)/C38</f>
-        <v>589824</v>
+        <v>1179648</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
-        <v>589824</v>
+        <f>ROUND(G38,-3)</f>
+        <v>1180000</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">MATCH(1,(A38=A:A)*(MIN(IF(A:A=A38,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J38" cm="1">
         <f t="array" ref="J38">INDEX(A:H,I38,6)</f>
-        <v>408295</v>
+        <v>1393521</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" ref="K38">INDEX(A:H,I38,5)</f>
-        <v>324922</v>
+        <v>1139754</v>
       </c>
       <c r="L38" cm="1">
         <f t="array" ref="L38">INDEX(A:H,I38,4)</f>
-        <v>17844</v>
+        <v>59656</v>
       </c>
       <c r="M38">
-        <f t="shared" si="1"/>
-        <v>6.2942436948880802</v>
+        <f>J38/F38</f>
+        <v>11.54351013510715</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
-        <v>7.8409710659040996</v>
+        <f>K38/E38</f>
+        <v>13.631301352660472</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
-        <v>2.4169036976838685</v>
+        <f>L38/D38</f>
+        <v>7.7737816002084958</v>
       </c>
       <c r="P38">
-        <f t="shared" si="4"/>
-        <v>0.15887532298950513</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M38</f>
+        <v>8.6628762681007318E-2</v>
+      </c>
+      <c r="Q38" cm="1">
+        <f t="array" ref="Q38">MATCH(1,(H38=H:H)*(MIN(IF(H:H=H38,A:A))=A:A),0)</f>
+        <v>41</v>
+      </c>
+      <c r="R38" cm="1">
+        <f t="array" ref="R38">INDEX(A:H,Q38,6)</f>
+        <v>66798</v>
+      </c>
+      <c r="S38" cm="1">
+        <f t="array" ref="S38">INDEX(A:H,Q38,5)</f>
+        <v>46299</v>
+      </c>
+      <c r="T38">
+        <f>R38/F38</f>
+        <v>0.55333460350069164</v>
+      </c>
+      <c r="U38">
+        <f>S38/E38</f>
+        <v>0.55372968318323701</v>
+      </c>
+      <c r="V38">
+        <f>C38*U38</f>
+        <v>17.719349861863584</v>
+      </c>
+      <c r="W38">
+        <f>(M38-C38)/(1-C38)</f>
+        <v>0.6598867698352533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3072</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <f>B39*8</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>4877</v>
+        <v>8525</v>
       </c>
       <c r="E39">
-        <v>33036</v>
+        <v>76754</v>
       </c>
       <c r="F39">
-        <v>56940</v>
+        <v>109411</v>
       </c>
       <c r="G39">
         <f>POWER(A39,2)/C39</f>
-        <v>393216</v>
+        <v>1179648</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
-        <v>393216</v>
+        <f>ROUND(G39,-3)</f>
+        <v>1180000</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">MATCH(1,(A39=A:A)*(MIN(IF(A:A=A39,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" ref="J39">INDEX(A:H,I39,6)</f>
@@ -4901,53 +5989,80 @@
         <v>17844</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
-        <v>7.170618194590797</v>
+        <f>J39/F39</f>
+        <v>3.7317545767792999</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
-        <v>9.8353916939096742</v>
+        <f>K39/E39</f>
+        <v>4.2332907731193163</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
-        <v>3.6588066434283371</v>
+        <f>L39/D39</f>
+        <v>2.0931378299120236</v>
       </c>
       <c r="P39">
-        <f t="shared" si="4"/>
-        <v>0.13945798993374889</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M39</f>
+        <v>0.26797046253321744</v>
+      </c>
+      <c r="Q39" cm="1">
+        <f t="array" ref="Q39">MATCH(1,(H39=H:H)*(MIN(IF(H:H=H39,A:A))=A:A),0)</f>
+        <v>41</v>
+      </c>
+      <c r="R39" cm="1">
+        <f t="array" ref="R39">INDEX(A:H,Q39,6)</f>
+        <v>66798</v>
+      </c>
+      <c r="S39" cm="1">
+        <f t="array" ref="S39">INDEX(A:H,Q39,5)</f>
+        <v>46299</v>
+      </c>
+      <c r="T39">
+        <f>R39/F39</f>
+        <v>0.6105236219392931</v>
+      </c>
+      <c r="U39">
+        <f>S39/E39</f>
+        <v>0.60321286187039114</v>
+      </c>
+      <c r="V39">
+        <f>C39*U39</f>
+        <v>4.8257028949631291</v>
+      </c>
+      <c r="W39">
+        <f>(M39-C39)/(1-C39)</f>
+        <v>0.6097493461743857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3072</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <f>B40*8</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>3715</v>
+        <v>7562</v>
       </c>
       <c r="E40">
-        <v>27126</v>
+        <v>49488</v>
       </c>
       <c r="F40">
-        <v>49280</v>
+        <v>74482</v>
       </c>
       <c r="G40">
         <f>POWER(A40,2)/C40</f>
-        <v>294912</v>
+        <v>1179648</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
-        <v>294912</v>
+        <f>ROUND(G40,-3)</f>
+        <v>1180000</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">MATCH(1,(A40=A:A)*(MIN(IF(A:A=A40,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" ref="J40">INDEX(A:H,I40,6)</f>
@@ -4962,358 +6077,525 @@
         <v>17844</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
-        <v>8.2852069805194812</v>
+        <f>J40/F40</f>
+        <v>5.4817942590156008</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
-        <v>11.978249649782496</v>
+        <f>K40/E40</f>
+        <v>6.5656724862592952</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
-        <v>4.8032301480484518</v>
+        <f>L40/D40</f>
+        <v>2.3596932028563873</v>
       </c>
       <c r="P40">
-        <f t="shared" si="4"/>
-        <v>0.12069704502871698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M40</f>
+        <v>0.18242202329198251</v>
+      </c>
+      <c r="Q40" cm="1">
+        <f t="array" ref="Q40">MATCH(1,(H40=H:H)*(MIN(IF(H:H=H40,A:A))=A:A),0)</f>
+        <v>41</v>
+      </c>
+      <c r="R40" cm="1">
+        <f t="array" ref="R40">INDEX(A:H,Q40,6)</f>
+        <v>66798</v>
+      </c>
+      <c r="S40" cm="1">
+        <f t="array" ref="S40">INDEX(A:H,Q40,5)</f>
+        <v>46299</v>
+      </c>
+      <c r="T40">
+        <f>R40/F40</f>
+        <v>0.89683413442173943</v>
+      </c>
+      <c r="U40">
+        <f>S40/E40</f>
+        <v>0.93556013579049468</v>
+      </c>
+      <c r="V40">
+        <f>C40*U40</f>
+        <v>7.4844810863239575</v>
+      </c>
+      <c r="W40">
+        <f>(M40-C40)/(1-C40)</f>
+        <v>0.35974367728348561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3072</v>
+        <v>1536</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <f>B41*8</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3423</v>
+        <v>3732</v>
       </c>
       <c r="E41">
-        <v>25976</v>
+        <v>46299</v>
       </c>
       <c r="F41">
-        <v>47370</v>
+        <v>66798</v>
       </c>
       <c r="G41">
         <f>POWER(A41,2)/C41</f>
-        <v>235929.60000000001</v>
+        <v>1179648</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
-        <v>235929.60000000001</v>
+        <f>ROUND(G41,-3)</f>
+        <v>1180000</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">MATCH(1,(A41=A:A)*(MIN(IF(A:A=A41,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J41" cm="1">
         <f t="array" ref="J41">INDEX(A:H,I41,6)</f>
-        <v>408295</v>
+        <v>102884</v>
       </c>
       <c r="K41" cm="1">
         <f t="array" ref="K41">INDEX(A:H,I41,5)</f>
-        <v>324922</v>
+        <v>75449</v>
       </c>
       <c r="L41" cm="1">
         <f t="array" ref="L41">INDEX(A:H,I41,4)</f>
-        <v>17844</v>
+        <v>5588</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
-        <v>8.6192738019843791</v>
+        <f>J41/F41</f>
+        <v>1.5402257552621337</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
-        <v>12.508546350477364</v>
+        <f>K41/E41</f>
+        <v>1.6296032311712996</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
-        <v>5.2129710780017531</v>
+        <f>L41/D41</f>
+        <v>1.497320471596999</v>
       </c>
       <c r="P41">
-        <f t="shared" si="4"/>
-        <v>0.11601905485004714</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M41</f>
+        <v>0.64925547218226354</v>
+      </c>
+      <c r="Q41" cm="1">
+        <f t="array" ref="Q41">MATCH(1,(H41=H:H)*(MIN(IF(H:H=H41,A:A))=A:A),0)</f>
+        <v>41</v>
+      </c>
+      <c r="R41" cm="1">
+        <f t="array" ref="R41">INDEX(A:H,Q41,6)</f>
+        <v>66798</v>
+      </c>
+      <c r="S41" cm="1">
+        <f t="array" ref="S41">INDEX(A:H,Q41,5)</f>
+        <v>46299</v>
+      </c>
+      <c r="T41">
+        <f>R41/F41</f>
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <f>S41/E41</f>
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <f>C41*U41</f>
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <f>(M41-C41)/(1-C41)</f>
+        <v>0.45977424473786632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>3072</v>
+        <v>6144</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <f>B42*8</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>3101</v>
+        <v>5861</v>
       </c>
       <c r="E42">
-        <v>22856</v>
+        <v>72842</v>
       </c>
       <c r="F42">
-        <v>43711</v>
+        <v>106691</v>
       </c>
       <c r="G42">
         <f>POWER(A42,2)/C42</f>
-        <v>196608</v>
+        <v>943718.40000000002</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
-        <v>196608</v>
+        <f>ROUND(G42,-3)</f>
+        <v>944000</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">MATCH(1,(A42=A:A)*(MIN(IF(A:A=A42,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">INDEX(A:H,I42,6)</f>
-        <v>408295</v>
+        <v>1393521</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX(A:H,I42,5)</f>
-        <v>324922</v>
+        <v>1139754</v>
       </c>
       <c r="L42" cm="1">
         <f t="array" ref="L42">INDEX(A:H,I42,4)</f>
-        <v>17844</v>
+        <v>59656</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
-        <v>9.3407837844020953</v>
+        <f>J42/F42</f>
+        <v>13.061279770552343</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
-        <v>14.216048302415121</v>
+        <f>K42/E42</f>
+        <v>15.64693446088795</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
-        <v>5.7542728152208964</v>
+        <f>L42/D42</f>
+        <v>10.178467838252859</v>
       </c>
       <c r="P42">
-        <f t="shared" si="4"/>
-        <v>0.10705739722504562</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M42</f>
+        <v>7.6562175955726536E-2</v>
+      </c>
+      <c r="Q42" cm="1">
+        <f t="array" ref="Q42">MATCH(1,(H42=H:H)*(MIN(IF(H:H=H42,A:A))=A:A),0)</f>
+        <v>42</v>
+      </c>
+      <c r="R42" cm="1">
+        <f t="array" ref="R42">INDEX(A:H,Q42,6)</f>
+        <v>106691</v>
+      </c>
+      <c r="S42" cm="1">
+        <f t="array" ref="S42">INDEX(A:H,Q42,5)</f>
+        <v>72842</v>
+      </c>
+      <c r="T42">
+        <f>R42/F42</f>
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <f>S42/E42</f>
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <f>C42*U42</f>
+        <v>40</v>
+      </c>
+      <c r="W42">
+        <f>(M42-C42)/(1-C42)</f>
+        <v>0.69073641613968351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>3072</v>
+        <v>6144</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <f>B43*8</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D43">
-        <v>2970</v>
+        <v>5234</v>
       </c>
       <c r="E43">
-        <v>19392</v>
+        <v>70279</v>
       </c>
       <c r="F43">
-        <v>40269</v>
+        <v>100243</v>
       </c>
       <c r="G43">
         <f>POWER(A43,2)/C43</f>
-        <v>168521.14285714287</v>
+        <v>786432</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
-        <v>168521.1</v>
+        <f>ROUND(G43,-3)</f>
+        <v>786000</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">MATCH(1,(A43=A:A)*(MIN(IF(A:A=A43,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J43" cm="1">
         <f t="array" ref="J43">INDEX(A:H,I43,6)</f>
-        <v>408295</v>
+        <v>1393521</v>
       </c>
       <c r="K43" cm="1">
         <f t="array" ref="K43">INDEX(A:H,I43,5)</f>
-        <v>324922</v>
+        <v>1139754</v>
       </c>
       <c r="L43" cm="1">
         <f t="array" ref="L43">INDEX(A:H,I43,4)</f>
-        <v>17844</v>
+        <v>59656</v>
       </c>
       <c r="M43">
-        <f t="shared" si="1"/>
-        <v>10.139188954282451</v>
+        <f>J43/F43</f>
+        <v>13.90142952625121</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
-        <v>16.755466171617162</v>
+        <f>K43/E43</f>
+        <v>16.217561433714195</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
-        <v>6.0080808080808081</v>
+        <f>L43/D43</f>
+        <v>11.397783721818877</v>
       </c>
       <c r="P43">
-        <f t="shared" si="4"/>
-        <v>9.8627218065369393E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M43</f>
+        <v>7.1935047982771699E-2</v>
+      </c>
+      <c r="Q43" cm="1">
+        <f t="array" ref="Q43">MATCH(1,(H43=H:H)*(MIN(IF(H:H=H43,A:A))=A:A),0)</f>
+        <v>43</v>
+      </c>
+      <c r="R43" cm="1">
+        <f t="array" ref="R43">INDEX(A:H,Q43,6)</f>
+        <v>100243</v>
+      </c>
+      <c r="S43" cm="1">
+        <f t="array" ref="S43">INDEX(A:H,Q43,5)</f>
+        <v>70279</v>
+      </c>
+      <c r="T43">
+        <f>R43/F43</f>
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <f>S43/E43</f>
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <f>C43*U43</f>
+        <v>48</v>
+      </c>
+      <c r="W43">
+        <f>(M43-C43)/(1-C43)</f>
+        <v>0.72550149944146369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>3072</v>
+        <v>6144</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <f>B44*8</f>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>2961</v>
+        <v>5083</v>
       </c>
       <c r="E44">
-        <v>17949</v>
+        <v>59911</v>
       </c>
       <c r="F44">
-        <v>39264</v>
+        <v>89504</v>
       </c>
       <c r="G44">
         <f>POWER(A44,2)/C44</f>
-        <v>147456</v>
+        <v>674084.57142857148</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
-        <v>147456</v>
+        <f>ROUND(G44,-3)</f>
+        <v>674000</v>
       </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">MATCH(1,(A44=A:A)*(MIN(IF(A:A=A44,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">INDEX(A:H,I44,6)</f>
-        <v>408295</v>
+        <v>1393521</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX(A:H,I44,5)</f>
-        <v>324922</v>
+        <v>1139754</v>
       </c>
       <c r="L44" cm="1">
         <f t="array" ref="L44">INDEX(A:H,I44,4)</f>
-        <v>17844</v>
+        <v>59656</v>
       </c>
       <c r="M44">
-        <f t="shared" si="1"/>
-        <v>10.398711287693562</v>
+        <f>J44/F44</f>
+        <v>15.569371201287094</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
-        <v>18.102512674800824</v>
+        <f>K44/E44</f>
+        <v>19.024119110013185</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
-        <v>6.0263424518743669</v>
+        <f>L44/D44</f>
+        <v>11.736376155813495</v>
       </c>
       <c r="P44">
-        <f t="shared" si="4"/>
-        <v>9.6165762500153074E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M44</f>
+        <v>6.4228669679179576E-2</v>
+      </c>
+      <c r="Q44" cm="1">
+        <f t="array" ref="Q44">MATCH(1,(H44=H:H)*(MIN(IF(H:H=H44,A:A))=A:A),0)</f>
+        <v>44</v>
+      </c>
+      <c r="R44" cm="1">
+        <f t="array" ref="R44">INDEX(A:H,Q44,6)</f>
+        <v>89504</v>
+      </c>
+      <c r="S44" cm="1">
+        <f t="array" ref="S44">INDEX(A:H,Q44,5)</f>
+        <v>59911</v>
+      </c>
+      <c r="T44">
+        <f>R44/F44</f>
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <f>S44/E44</f>
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <f>C44*U44</f>
+        <v>56</v>
+      </c>
+      <c r="W44">
+        <f>(M44-C44)/(1-C44)</f>
+        <v>0.73510234179478007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>3072</v>
+        <v>6144</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <f>B45*8</f>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D45">
-        <v>3216</v>
+        <v>4664</v>
       </c>
       <c r="E45">
-        <v>18936</v>
+        <v>59466</v>
       </c>
       <c r="F45">
-        <v>40813</v>
+        <v>89018</v>
       </c>
       <c r="G45">
         <f>POWER(A45,2)/C45</f>
-        <v>131072</v>
+        <v>589824</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
-        <v>131072</v>
+        <f>ROUND(G45,-3)</f>
+        <v>590000</v>
       </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">MATCH(1,(A45=A:A)*(MIN(IF(A:A=A45,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J45" cm="1">
         <f t="array" ref="J45">INDEX(A:H,I45,6)</f>
-        <v>408295</v>
+        <v>1393521</v>
       </c>
       <c r="K45" cm="1">
         <f t="array" ref="K45">INDEX(A:H,I45,5)</f>
-        <v>324922</v>
+        <v>1139754</v>
       </c>
       <c r="L45" cm="1">
         <f t="array" ref="L45">INDEX(A:H,I45,4)</f>
-        <v>17844</v>
+        <v>59656</v>
       </c>
       <c r="M45">
-        <f t="shared" si="1"/>
-        <v>10.004042829490604</v>
+        <f>J45/F45</f>
+        <v>15.654373272821227</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
-        <v>17.158956485002111</v>
+        <f>K45/E45</f>
+        <v>19.166481687014429</v>
       </c>
       <c r="O45">
-        <f t="shared" si="3"/>
-        <v>5.5485074626865671</v>
+        <f>L45/D45</f>
+        <v>12.79073756432247</v>
       </c>
       <c r="P45">
-        <f t="shared" si="4"/>
-        <v>9.9959588042959124E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M45</f>
+        <v>6.3879912825138621E-2</v>
+      </c>
+      <c r="Q45" cm="1">
+        <f t="array" ref="Q45">MATCH(1,(H45=H:H)*(MIN(IF(H:H=H45,A:A))=A:A),0)</f>
+        <v>49</v>
+      </c>
+      <c r="R45" cm="1">
+        <f t="array" ref="R45">INDEX(A:H,Q45,6)</f>
+        <v>30878</v>
+      </c>
+      <c r="S45" cm="1">
+        <f t="array" ref="S45">INDEX(A:H,Q45,5)</f>
+        <v>12729</v>
+      </c>
+      <c r="T45">
+        <f>R45/F45</f>
+        <v>0.34687366600013481</v>
+      </c>
+      <c r="U45">
+        <f>S45/E45</f>
+        <v>0.21405509030370296</v>
+      </c>
+      <c r="V45">
+        <f>C45*U45</f>
+        <v>13.699525779436989</v>
+      </c>
+      <c r="W45">
+        <f>(M45-C45)/(1-C45)</f>
+        <v>0.76739090043140912</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3072</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <f>B46*8</f>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>2966</v>
+        <v>6852</v>
       </c>
       <c r="E46">
-        <v>16377</v>
+        <v>37093</v>
       </c>
       <c r="F46">
-        <v>37859</v>
+        <v>64140</v>
       </c>
       <c r="G46">
         <f>POWER(A46,2)/C46</f>
-        <v>117964.8</v>
+        <v>589824</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
-        <v>117964.8</v>
+        <f>ROUND(G46,-3)</f>
+        <v>590000</v>
       </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">MATCH(1,(A46=A:A)*(MIN(IF(A:A=A46,C:C))=C:C),0)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J46" cm="1">
         <f t="array" ref="J46">INDEX(A:H,I46,6)</f>
@@ -5328,233 +6610,345 @@
         <v>17844</v>
       </c>
       <c r="M46">
-        <f t="shared" si="1"/>
-        <v>10.784621886473493</v>
+        <f>J46/F46</f>
+        <v>6.3656844402868726</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
-        <v>19.840141662087074</v>
+        <f>K46/E46</f>
+        <v>8.7596581565254894</v>
       </c>
       <c r="O46">
-        <f t="shared" si="3"/>
-        <v>6.0161834120026976</v>
+        <f>L46/D46</f>
+        <v>2.6042031523642732</v>
       </c>
       <c r="P46">
-        <f t="shared" si="4"/>
-        <v>9.2724623127885472E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M46</f>
+        <v>0.15709229846067183</v>
+      </c>
+      <c r="Q46" cm="1">
+        <f t="array" ref="Q46">MATCH(1,(H46=H:H)*(MIN(IF(H:H=H46,A:A))=A:A),0)</f>
+        <v>49</v>
+      </c>
+      <c r="R46" cm="1">
+        <f t="array" ref="R46">INDEX(A:H,Q46,6)</f>
+        <v>30878</v>
+      </c>
+      <c r="S46" cm="1">
+        <f t="array" ref="S46">INDEX(A:H,Q46,5)</f>
+        <v>12729</v>
+      </c>
+      <c r="T46">
+        <f>R46/F46</f>
+        <v>0.48141565325849706</v>
+      </c>
+      <c r="U46">
+        <f>S46/E46</f>
+        <v>0.34316447847302728</v>
+      </c>
+      <c r="V46">
+        <f>C46*U46</f>
+        <v>5.4906316555684365</v>
+      </c>
+      <c r="W46">
+        <f>(M46-C46)/(1-C46)</f>
+        <v>0.64228770398087509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>6144</v>
+        <v>3072</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>59656</v>
+        <v>7383</v>
       </c>
       <c r="E47">
-        <v>1139754</v>
+        <v>41439</v>
       </c>
       <c r="F47">
-        <v>1393521</v>
+        <v>64868</v>
       </c>
       <c r="G47">
         <f>POWER(A47,2)/C47</f>
-        <v>37748736</v>
+        <v>589824</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
-        <v>37748736</v>
+        <f>ROUND(G47,-3)</f>
+        <v>590000</v>
       </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">MATCH(1,(A47=A:A)*(MIN(IF(A:A=A47,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J47" cm="1">
         <f t="array" ref="J47">INDEX(A:H,I47,6)</f>
-        <v>1393521</v>
+        <v>408295</v>
       </c>
       <c r="K47" cm="1">
         <f t="array" ref="K47">INDEX(A:H,I47,5)</f>
-        <v>1139754</v>
+        <v>324922</v>
       </c>
       <c r="L47" cm="1">
         <f t="array" ref="L47">INDEX(A:H,I47,4)</f>
-        <v>59656</v>
+        <v>17844</v>
       </c>
       <c r="M47">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>J47/F47</f>
+        <v>6.2942436948880802</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>K47/E47</f>
+        <v>7.8409710659040996</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>L47/D47</f>
+        <v>2.4169036976838685</v>
       </c>
       <c r="P47">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M47</f>
+        <v>0.15887532298950513</v>
+      </c>
+      <c r="Q47" cm="1">
+        <f t="array" ref="Q47">MATCH(1,(H47=H:H)*(MIN(IF(H:H=H47,A:A))=A:A),0)</f>
+        <v>49</v>
+      </c>
+      <c r="R47" cm="1">
+        <f t="array" ref="R47">INDEX(A:H,Q47,6)</f>
+        <v>30878</v>
+      </c>
+      <c r="S47" cm="1">
+        <f t="array" ref="S47">INDEX(A:H,Q47,5)</f>
+        <v>12729</v>
+      </c>
+      <c r="T47">
+        <f>R47/F47</f>
+        <v>0.47601282604674106</v>
+      </c>
+      <c r="U47">
+        <f>S47/E47</f>
+        <v>0.30717440092666332</v>
+      </c>
+      <c r="V47">
+        <f>C47*U47</f>
+        <v>4.9147904148266131</v>
+      </c>
+      <c r="W47">
+        <f>(M47-C47)/(1-C47)</f>
+        <v>0.64705042034079463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>6144</v>
+        <v>1536</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>31941</v>
+        <v>6042</v>
       </c>
       <c r="E48">
-        <v>473631</v>
+        <v>31725</v>
       </c>
       <c r="F48">
-        <v>622378</v>
+        <v>50545</v>
       </c>
       <c r="G48">
         <f>POWER(A48,2)/C48</f>
-        <v>18874368</v>
+        <v>589824</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
-        <v>18874368</v>
+        <f>ROUND(G48,-3)</f>
+        <v>590000</v>
       </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">MATCH(1,(A48=A:A)*(MIN(IF(A:A=A48,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J48" cm="1">
         <f t="array" ref="J48">INDEX(A:H,I48,6)</f>
-        <v>1393521</v>
+        <v>102884</v>
       </c>
       <c r="K48" cm="1">
         <f t="array" ref="K48">INDEX(A:H,I48,5)</f>
-        <v>1139754</v>
+        <v>75449</v>
       </c>
       <c r="L48" cm="1">
         <f t="array" ref="L48">INDEX(A:H,I48,4)</f>
-        <v>59656</v>
+        <v>5588</v>
       </c>
       <c r="M48">
-        <f t="shared" si="1"/>
-        <v>2.2390267650848843</v>
+        <f>J48/F48</f>
+        <v>2.0354931249381738</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
-        <v>2.4064176542498275</v>
+        <f>K48/E48</f>
+        <v>2.3782190701339636</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
-        <v>1.8676935600012523</v>
+        <f>L48/D48</f>
+        <v>0.92485931810658717</v>
       </c>
       <c r="P48">
-        <f t="shared" si="4"/>
-        <v>0.44662261996769331</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M48</f>
+        <v>0.49128144317872557</v>
+      </c>
+      <c r="Q48" cm="1">
+        <f t="array" ref="Q48">MATCH(1,(H48=H:H)*(MIN(IF(H:H=H48,A:A))=A:A),0)</f>
+        <v>49</v>
+      </c>
+      <c r="R48" cm="1">
+        <f t="array" ref="R48">INDEX(A:H,Q48,6)</f>
+        <v>30878</v>
+      </c>
+      <c r="S48" cm="1">
+        <f t="array" ref="S48">INDEX(A:H,Q48,5)</f>
+        <v>12729</v>
+      </c>
+      <c r="T48">
+        <f>R48/F48</f>
+        <v>0.61090117716885939</v>
+      </c>
+      <c r="U48">
+        <f>S48/E48</f>
+        <v>0.40122931442080378</v>
+      </c>
+      <c r="V48">
+        <f>C48*U48</f>
+        <v>1.6049172576832151</v>
+      </c>
+      <c r="W48">
+        <f>(M48-C48)/(1-C48)</f>
+        <v>0.65483562502060877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>6144</v>
+        <v>768</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>20461</v>
+        <v>2431</v>
       </c>
       <c r="E49">
-        <v>263266</v>
+        <v>12729</v>
       </c>
       <c r="F49">
-        <v>346624</v>
+        <v>30878</v>
       </c>
       <c r="G49">
         <f>POWER(A49,2)/C49</f>
-        <v>9437184</v>
+        <v>589824</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
-        <v>9437184</v>
+        <f>ROUND(G49,-3)</f>
+        <v>590000</v>
       </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">MATCH(1,(A49=A:A)*(MIN(IF(A:A=A49,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J49" cm="1">
         <f t="array" ref="J49">INDEX(A:H,I49,6)</f>
-        <v>1393521</v>
+        <v>30878</v>
       </c>
       <c r="K49" cm="1">
         <f t="array" ref="K49">INDEX(A:H,I49,5)</f>
-        <v>1139754</v>
+        <v>12729</v>
       </c>
       <c r="L49" cm="1">
         <f t="array" ref="L49">INDEX(A:H,I49,4)</f>
-        <v>59656</v>
+        <v>2431</v>
       </c>
       <c r="M49">
-        <f t="shared" si="1"/>
-        <v>4.0202669174667651</v>
+        <f>J49/F49</f>
+        <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
-        <v>4.3292867290117218</v>
+        <f>K49/E49</f>
+        <v>1</v>
       </c>
       <c r="O49">
-        <f t="shared" si="3"/>
-        <v>2.91559552319046</v>
+        <f>L49/D49</f>
+        <v>1</v>
       </c>
       <c r="P49">
-        <f t="shared" si="4"/>
-        <v>0.24873970324092712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M49</f>
+        <v>1</v>
+      </c>
+      <c r="Q49" cm="1">
+        <f t="array" ref="Q49">MATCH(1,(H49=H:H)*(MIN(IF(H:H=H49,A:A))=A:A),0)</f>
+        <v>49</v>
+      </c>
+      <c r="R49" cm="1">
+        <f t="array" ref="R49">INDEX(A:H,Q49,6)</f>
+        <v>30878</v>
+      </c>
+      <c r="S49" cm="1">
+        <f t="array" ref="S49">INDEX(A:H,Q49,5)</f>
+        <v>12729</v>
+      </c>
+      <c r="T49">
+        <f>R49/F49</f>
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <f>S49/E49</f>
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <f>C49*U49</f>
+        <v>1</v>
+      </c>
+      <c r="W49" t="e">
+        <f>(M49-C49)/(1-C49)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6144</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <f>B50*8</f>
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D50">
-        <v>20002</v>
+        <v>4649</v>
       </c>
       <c r="E50">
-        <v>261230</v>
+        <v>43445</v>
       </c>
       <c r="F50">
-        <v>342507</v>
+        <v>71892</v>
       </c>
       <c r="G50">
         <f>POWER(A50,2)/C50</f>
-        <v>4718592</v>
+        <v>524288</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
-        <v>4718592</v>
+        <f>ROUND(G50,-3)</f>
+        <v>524000</v>
       </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">MATCH(1,(A50=A:A)*(MIN(IF(A:A=A50,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J50" cm="1">
         <f t="array" ref="J50">INDEX(A:H,I50,6)</f>
@@ -5569,52 +6963,81 @@
         <v>59656</v>
       </c>
       <c r="M50">
-        <f t="shared" si="1"/>
-        <v>4.0685912988639652</v>
+        <f>J50/F50</f>
+        <v>19.383533633784008</v>
       </c>
       <c r="N50">
-        <f t="shared" si="2"/>
-        <v>4.3630287486123338</v>
+        <f>K50/E50</f>
+        <v>26.234411324663366</v>
       </c>
       <c r="O50">
-        <f t="shared" si="3"/>
-        <v>2.9825017498250177</v>
+        <f>L50/D50</f>
+        <v>12.832006883200687</v>
       </c>
       <c r="P50">
-        <f t="shared" si="4"/>
-        <v>0.24578531647531682</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M50</f>
+        <v>5.1590180557020672E-2</v>
+      </c>
+      <c r="Q50" cm="1">
+        <f t="array" ref="Q50">MATCH(1,(H50=H:H)*(MIN(IF(H:H=H50,A:A))=A:A),0)</f>
+        <v>50</v>
+      </c>
+      <c r="R50" cm="1">
+        <f t="array" ref="R50">INDEX(A:H,Q50,6)</f>
+        <v>71892</v>
+      </c>
+      <c r="S50" cm="1">
+        <f t="array" ref="S50">INDEX(A:H,Q50,5)</f>
+        <v>43445</v>
+      </c>
+      <c r="T50">
+        <f>R50/F50</f>
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <f>S50/E50</f>
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <f>C50*U50</f>
+        <v>72</v>
+      </c>
+      <c r="W50">
+        <f>(M50-C50)/(1-C50)</f>
+        <v>0.74107699107346459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6144</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <f>B51*8</f>
+        <v>80</v>
       </c>
       <c r="D51">
-        <v>17667</v>
+        <v>4506</v>
       </c>
       <c r="E51">
-        <v>171458</v>
+        <v>44313</v>
       </c>
       <c r="F51">
-        <v>231877</v>
+        <v>72568</v>
       </c>
       <c r="G51">
         <f>POWER(A51,2)/C51</f>
-        <v>4718592</v>
+        <v>471859.20000000001</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
-        <v>4718592</v>
+        <f>ROUND(G51,-3)</f>
+        <v>472000</v>
       </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">MATCH(1,(A51=A:A)*(MIN(IF(A:A=A51,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J51" cm="1">
         <f t="array" ref="J51">INDEX(A:H,I51,6)</f>
@@ -5629,2094 +7052,3093 @@
         <v>59656</v>
       </c>
       <c r="M51">
-        <f t="shared" si="1"/>
-        <v>6.0097422340292486</v>
+        <f>J51/F51</f>
+        <v>19.202968250468526</v>
       </c>
       <c r="N51">
-        <f t="shared" si="2"/>
-        <v>6.6474238589042214</v>
+        <f>K51/E51</f>
+        <v>25.720533477760476</v>
       </c>
       <c r="O51">
-        <f t="shared" si="3"/>
-        <v>3.3766910058300788</v>
+        <f>L51/D51</f>
+        <v>13.239236573457612</v>
       </c>
       <c r="P51">
-        <f t="shared" si="4"/>
-        <v>0.16639648774578925</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M51</f>
+        <v>5.2075282683217546E-2</v>
+      </c>
+      <c r="Q51" cm="1">
+        <f t="array" ref="Q51">MATCH(1,(H51=H:H)*(MIN(IF(H:H=H51,A:A))=A:A),0)</f>
+        <v>51</v>
+      </c>
+      <c r="R51" cm="1">
+        <f t="array" ref="R51">INDEX(A:H,Q51,6)</f>
+        <v>72568</v>
+      </c>
+      <c r="S51" cm="1">
+        <f t="array" ref="S51">INDEX(A:H,Q51,5)</f>
+        <v>44313</v>
+      </c>
+      <c r="T51">
+        <f>R51/F51</f>
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <f>S51/E51</f>
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <f>C51*U51</f>
+        <v>80</v>
+      </c>
+      <c r="W51">
+        <f>(M51-C51)/(1-C51)</f>
+        <v>0.76958268037381605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>6144</v>
+        <v>3072</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <f>B52*8</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>11710</v>
+        <v>4877</v>
       </c>
       <c r="E52">
-        <v>136517</v>
+        <v>33036</v>
       </c>
       <c r="F52">
-        <v>186638</v>
+        <v>56940</v>
       </c>
       <c r="G52">
         <f>POWER(A52,2)/C52</f>
-        <v>2359296</v>
+        <v>393216</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
-        <v>2359296</v>
+        <f>ROUND(G52,-3)</f>
+        <v>393000</v>
       </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">MATCH(1,(A52=A:A)*(MIN(IF(A:A=A52,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J52" cm="1">
         <f t="array" ref="J52">INDEX(A:H,I52,6)</f>
-        <v>1393521</v>
+        <v>408295</v>
       </c>
       <c r="K52" cm="1">
         <f t="array" ref="K52">INDEX(A:H,I52,5)</f>
-        <v>1139754</v>
+        <v>324922</v>
       </c>
       <c r="L52" cm="1">
         <f t="array" ref="L52">INDEX(A:H,I52,4)</f>
-        <v>59656</v>
+        <v>17844</v>
       </c>
       <c r="M52">
-        <f t="shared" si="1"/>
-        <v>7.4664377029329501</v>
+        <f>J52/F52</f>
+        <v>7.170618194590797</v>
       </c>
       <c r="N52">
-        <f t="shared" si="2"/>
-        <v>8.3488063757627256</v>
+        <f>K52/E52</f>
+        <v>9.8353916939096742</v>
       </c>
       <c r="O52">
-        <f t="shared" si="3"/>
-        <v>5.0944491887275829</v>
+        <f>L52/D52</f>
+        <v>3.6588066434283371</v>
       </c>
       <c r="P52">
-        <f t="shared" si="4"/>
-        <v>0.13393267844546297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M52</f>
+        <v>0.13945798993374889</v>
+      </c>
+      <c r="Q52" cm="1">
+        <f t="array" ref="Q52">MATCH(1,(H52=H:H)*(MIN(IF(H:H=H52,A:A))=A:A),0)</f>
+        <v>52</v>
+      </c>
+      <c r="R52" cm="1">
+        <f t="array" ref="R52">INDEX(A:H,Q52,6)</f>
+        <v>56940</v>
+      </c>
+      <c r="S52" cm="1">
+        <f t="array" ref="S52">INDEX(A:H,Q52,5)</f>
+        <v>33036</v>
+      </c>
+      <c r="T52">
+        <f>R52/F52</f>
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <f>S52/E52</f>
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <f>C52*U52</f>
+        <v>24</v>
+      </c>
+      <c r="W52">
+        <f>(M52-C52)/(1-C52)</f>
+        <v>0.73171225240909576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>6144</v>
+        <v>3072</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <f>B53*8</f>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>13638</v>
+        <v>3715</v>
       </c>
       <c r="E53">
-        <v>149230</v>
+        <v>27126</v>
       </c>
       <c r="F53">
-        <v>201848</v>
+        <v>49280</v>
       </c>
       <c r="G53">
         <f>POWER(A53,2)/C53</f>
-        <v>2359296</v>
+        <v>294912</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
-        <v>2359296</v>
+        <f>ROUND(G53,-3)</f>
+        <v>295000</v>
       </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">MATCH(1,(A53=A:A)*(MIN(IF(A:A=A53,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J53" cm="1">
         <f t="array" ref="J53">INDEX(A:H,I53,6)</f>
-        <v>1393521</v>
+        <v>408295</v>
       </c>
       <c r="K53" cm="1">
         <f t="array" ref="K53">INDEX(A:H,I53,5)</f>
-        <v>1139754</v>
+        <v>324922</v>
       </c>
       <c r="L53" cm="1">
         <f t="array" ref="L53">INDEX(A:H,I53,4)</f>
-        <v>59656</v>
+        <v>17844</v>
       </c>
       <c r="M53">
-        <f t="shared" si="1"/>
-        <v>6.9038137608497481</v>
+        <f>J53/F53</f>
+        <v>8.2852069805194812</v>
       </c>
       <c r="N53">
-        <f t="shared" si="2"/>
-        <v>7.6375661730215105</v>
+        <f>K53/E53</f>
+        <v>11.978249649782496</v>
       </c>
       <c r="O53">
-        <f t="shared" si="3"/>
-        <v>4.374248423522511</v>
+        <f>L53/D53</f>
+        <v>4.8032301480484518</v>
       </c>
       <c r="P53">
-        <f t="shared" si="4"/>
-        <v>0.14484747628489272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M53</f>
+        <v>0.12069704502871698</v>
+      </c>
+      <c r="Q53" cm="1">
+        <f t="array" ref="Q53">MATCH(1,(H53=H:H)*(MIN(IF(H:H=H53,A:A))=A:A),0)</f>
+        <v>56</v>
+      </c>
+      <c r="R53" cm="1">
+        <f t="array" ref="R53">INDEX(A:H,Q53,6)</f>
+        <v>19975</v>
+      </c>
+      <c r="S53" cm="1">
+        <f t="array" ref="S53">INDEX(A:H,Q53,5)</f>
+        <v>6567</v>
+      </c>
+      <c r="T53">
+        <f>R53/F53</f>
+        <v>0.40533685064935066</v>
+      </c>
+      <c r="U53">
+        <f>S53/E53</f>
+        <v>0.24209245742092458</v>
+      </c>
+      <c r="V53">
+        <f>C53*U53</f>
+        <v>7.7469586374695867</v>
+      </c>
+      <c r="W53">
+        <f>(M53-C53)/(1-C53)</f>
+        <v>0.76499332320904889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>6144</v>
+        <v>1536</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <f>B54*8</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>8799</v>
+        <v>6001</v>
       </c>
       <c r="E54">
-        <v>91652</v>
+        <v>23495</v>
       </c>
       <c r="F54">
-        <v>133681</v>
+        <v>43518</v>
       </c>
       <c r="G54">
         <f>POWER(A54,2)/C54</f>
-        <v>1572864</v>
+        <v>294912</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
-        <v>1572864</v>
+        <f>ROUND(G54,-3)</f>
+        <v>295000</v>
       </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">MATCH(1,(A54=A:A)*(MIN(IF(A:A=A54,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J54" cm="1">
         <f t="array" ref="J54">INDEX(A:H,I54,6)</f>
-        <v>1393521</v>
+        <v>102884</v>
       </c>
       <c r="K54" cm="1">
         <f t="array" ref="K54">INDEX(A:H,I54,5)</f>
-        <v>1139754</v>
+        <v>75449</v>
       </c>
       <c r="L54" cm="1">
         <f t="array" ref="L54">INDEX(A:H,I54,4)</f>
-        <v>59656</v>
+        <v>5588</v>
       </c>
       <c r="M54">
-        <f t="shared" si="1"/>
-        <v>10.424226329844929</v>
+        <f>J54/F54</f>
+        <v>2.36417114757112</v>
       </c>
       <c r="N54">
-        <f t="shared" si="2"/>
-        <v>12.435669707153144</v>
+        <f>K54/E54</f>
+        <v>3.211278995530964</v>
       </c>
       <c r="O54">
-        <f t="shared" si="3"/>
-        <v>6.7798613478804413</v>
+        <f>L54/D54</f>
+        <v>0.93117813697717045</v>
       </c>
       <c r="P54">
-        <f t="shared" si="4"/>
-        <v>9.5930380668823798E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M54</f>
+        <v>0.4229812215699234</v>
+      </c>
+      <c r="Q54" cm="1">
+        <f t="array" ref="Q54">MATCH(1,(H54=H:H)*(MIN(IF(H:H=H54,A:A))=A:A),0)</f>
+        <v>56</v>
+      </c>
+      <c r="R54" cm="1">
+        <f t="array" ref="R54">INDEX(A:H,Q54,6)</f>
+        <v>19975</v>
+      </c>
+      <c r="S54" cm="1">
+        <f t="array" ref="S54">INDEX(A:H,Q54,5)</f>
+        <v>6567</v>
+      </c>
+      <c r="T54">
+        <f>R54/F54</f>
+        <v>0.45900546900133277</v>
+      </c>
+      <c r="U54">
+        <f>S54/E54</f>
+        <v>0.27950627793147476</v>
+      </c>
+      <c r="V54">
+        <f>C54*U54</f>
+        <v>2.236050223451798</v>
+      </c>
+      <c r="W54">
+        <f>(M54-C54)/(1-C54)</f>
+        <v>0.80511840748983998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>6144</v>
+        <v>1536</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <f>B55*8</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>7674</v>
+        <v>5017</v>
       </c>
       <c r="E55">
-        <v>83613</v>
+        <v>19241</v>
       </c>
       <c r="F55">
-        <v>120719</v>
+        <v>35847</v>
       </c>
       <c r="G55">
         <f>POWER(A55,2)/C55</f>
-        <v>1179648</v>
+        <v>294912</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
-        <v>1179648</v>
+        <f>ROUND(G55,-3)</f>
+        <v>295000</v>
       </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">MATCH(1,(A55=A:A)*(MIN(IF(A:A=A55,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J55" cm="1">
         <f t="array" ref="J55">INDEX(A:H,I55,6)</f>
-        <v>1393521</v>
+        <v>102884</v>
       </c>
       <c r="K55" cm="1">
         <f t="array" ref="K55">INDEX(A:H,I55,5)</f>
-        <v>1139754</v>
+        <v>75449</v>
       </c>
       <c r="L55" cm="1">
         <f t="array" ref="L55">INDEX(A:H,I55,4)</f>
-        <v>59656</v>
+        <v>5588</v>
       </c>
       <c r="M55">
-        <f t="shared" si="1"/>
-        <v>11.54351013510715</v>
+        <f>J55/F55</f>
+        <v>2.8700867576087261</v>
       </c>
       <c r="N55">
-        <f t="shared" si="2"/>
-        <v>13.631301352660472</v>
+        <f>K55/E55</f>
+        <v>3.9212618886752248</v>
       </c>
       <c r="O55">
-        <f t="shared" si="3"/>
-        <v>7.7737816002084958</v>
+        <f>L55/D55</f>
+        <v>1.1138130356786924</v>
       </c>
       <c r="P55">
-        <f t="shared" si="4"/>
-        <v>8.6628762681007318E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M55</f>
+        <v>0.34842152326892423</v>
+      </c>
+      <c r="Q55" cm="1">
+        <f t="array" ref="Q55">MATCH(1,(H55=H:H)*(MIN(IF(H:H=H55,A:A))=A:A),0)</f>
+        <v>56</v>
+      </c>
+      <c r="R55" cm="1">
+        <f t="array" ref="R55">INDEX(A:H,Q55,6)</f>
+        <v>19975</v>
+      </c>
+      <c r="S55" cm="1">
+        <f t="array" ref="S55">INDEX(A:H,Q55,5)</f>
+        <v>6567</v>
+      </c>
+      <c r="T55">
+        <f>R55/F55</f>
+        <v>0.55722933578821099</v>
+      </c>
+      <c r="U55">
+        <f>S55/E55</f>
+        <v>0.34130242710877812</v>
+      </c>
+      <c r="V55">
+        <f>C55*U55</f>
+        <v>2.7304194168702249</v>
+      </c>
+      <c r="W55">
+        <f>(M55-C55)/(1-C55)</f>
+        <v>0.73284474891303908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>6144</v>
+        <v>768</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <f>B56*8</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>5861</v>
+        <v>2163</v>
       </c>
       <c r="E56">
-        <v>72842</v>
+        <v>6567</v>
       </c>
       <c r="F56">
-        <v>106691</v>
+        <v>19975</v>
       </c>
       <c r="G56">
         <f>POWER(A56,2)/C56</f>
-        <v>943718.40000000002</v>
+        <v>294912</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
-        <v>943718.40000000002</v>
+        <f>ROUND(G56,-3)</f>
+        <v>295000</v>
       </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">MATCH(1,(A56=A:A)*(MIN(IF(A:A=A56,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J56" cm="1">
         <f t="array" ref="J56">INDEX(A:H,I56,6)</f>
-        <v>1393521</v>
+        <v>30878</v>
       </c>
       <c r="K56" cm="1">
         <f t="array" ref="K56">INDEX(A:H,I56,5)</f>
-        <v>1139754</v>
+        <v>12729</v>
       </c>
       <c r="L56" cm="1">
         <f t="array" ref="L56">INDEX(A:H,I56,4)</f>
-        <v>59656</v>
+        <v>2431</v>
       </c>
       <c r="M56">
-        <f t="shared" si="1"/>
-        <v>13.061279770552343</v>
+        <f>J56/F56</f>
+        <v>1.5458322903629538</v>
       </c>
       <c r="N56">
-        <f t="shared" si="2"/>
-        <v>15.64693446088795</v>
+        <f>K56/E56</f>
+        <v>1.9383280036546369</v>
       </c>
       <c r="O56">
-        <f t="shared" si="3"/>
-        <v>10.178467838252859</v>
+        <f>L56/D56</f>
+        <v>1.1239019879796579</v>
       </c>
       <c r="P56">
-        <f t="shared" si="4"/>
-        <v>7.6562175955726536E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M56</f>
+        <v>0.64690070600427485</v>
+      </c>
+      <c r="Q56" cm="1">
+        <f t="array" ref="Q56">MATCH(1,(H56=H:H)*(MIN(IF(H:H=H56,A:A))=A:A),0)</f>
+        <v>56</v>
+      </c>
+      <c r="R56" cm="1">
+        <f t="array" ref="R56">INDEX(A:H,Q56,6)</f>
+        <v>19975</v>
+      </c>
+      <c r="S56" cm="1">
+        <f t="array" ref="S56">INDEX(A:H,Q56,5)</f>
+        <v>6567</v>
+      </c>
+      <c r="T56">
+        <f>R56/F56</f>
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <f>S56/E56</f>
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <f>C56*U56</f>
+        <v>2</v>
+      </c>
+      <c r="W56">
+        <f>(M56-C56)/(1-C56)</f>
+        <v>0.45416770963704622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>6144</v>
+        <v>3072</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <f>B57*8</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>5234</v>
+        <v>3423</v>
       </c>
       <c r="E57">
-        <v>70279</v>
+        <v>25976</v>
       </c>
       <c r="F57">
-        <v>100243</v>
+        <v>47370</v>
       </c>
       <c r="G57">
         <f>POWER(A57,2)/C57</f>
-        <v>786432</v>
+        <v>235929.60000000001</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
-        <v>786432</v>
+        <f>ROUND(G57,-3)</f>
+        <v>236000</v>
       </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">MATCH(1,(A57=A:A)*(MIN(IF(A:A=A57,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J57" cm="1">
         <f t="array" ref="J57">INDEX(A:H,I57,6)</f>
-        <v>1393521</v>
+        <v>408295</v>
       </c>
       <c r="K57" cm="1">
         <f t="array" ref="K57">INDEX(A:H,I57,5)</f>
-        <v>1139754</v>
+        <v>324922</v>
       </c>
       <c r="L57" cm="1">
         <f t="array" ref="L57">INDEX(A:H,I57,4)</f>
-        <v>59656</v>
+        <v>17844</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
-        <v>13.90142952625121</v>
+        <f>J57/F57</f>
+        <v>8.6192738019843791</v>
       </c>
       <c r="N57">
-        <f t="shared" si="2"/>
-        <v>16.217561433714195</v>
+        <f>K57/E57</f>
+        <v>12.508546350477364</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
-        <v>11.397783721818877</v>
+        <f>L57/D57</f>
+        <v>5.2129710780017531</v>
       </c>
       <c r="P57">
-        <f t="shared" si="4"/>
-        <v>7.1935047982771699E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M57</f>
+        <v>0.11601905485004714</v>
+      </c>
+      <c r="Q57" cm="1">
+        <f t="array" ref="Q57">MATCH(1,(H57=H:H)*(MIN(IF(H:H=H57,A:A))=A:A),0)</f>
+        <v>57</v>
+      </c>
+      <c r="R57" cm="1">
+        <f t="array" ref="R57">INDEX(A:H,Q57,6)</f>
+        <v>47370</v>
+      </c>
+      <c r="S57" cm="1">
+        <f t="array" ref="S57">INDEX(A:H,Q57,5)</f>
+        <v>25976</v>
+      </c>
+      <c r="T57">
+        <f>R57/F57</f>
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <f>S57/E57</f>
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <f>C57*U57</f>
+        <v>40</v>
+      </c>
+      <c r="W57">
+        <f>(M57-C57)/(1-C57)</f>
+        <v>0.80463400507732363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>6144</v>
+        <v>3072</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <f>B58*8</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D58">
-        <v>5083</v>
+        <v>3101</v>
       </c>
       <c r="E58">
-        <v>59911</v>
+        <v>22856</v>
       </c>
       <c r="F58">
-        <v>89504</v>
+        <v>43711</v>
       </c>
       <c r="G58">
         <f>POWER(A58,2)/C58</f>
-        <v>674084.57142857148</v>
+        <v>196608</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
-        <v>674084.6</v>
+        <f>ROUND(G58,-3)</f>
+        <v>197000</v>
       </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">MATCH(1,(A58=A:A)*(MIN(IF(A:A=A58,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J58" cm="1">
         <f t="array" ref="J58">INDEX(A:H,I58,6)</f>
-        <v>1393521</v>
+        <v>408295</v>
       </c>
       <c r="K58" cm="1">
         <f t="array" ref="K58">INDEX(A:H,I58,5)</f>
-        <v>1139754</v>
+        <v>324922</v>
       </c>
       <c r="L58" cm="1">
         <f t="array" ref="L58">INDEX(A:H,I58,4)</f>
-        <v>59656</v>
+        <v>17844</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
-        <v>15.569371201287094</v>
+        <f>J58/F58</f>
+        <v>9.3407837844020953</v>
       </c>
       <c r="N58">
-        <f t="shared" si="2"/>
-        <v>19.024119110013185</v>
+        <f>K58/E58</f>
+        <v>14.216048302415121</v>
       </c>
       <c r="O58">
-        <f t="shared" si="3"/>
-        <v>11.736376155813495</v>
+        <f>L58/D58</f>
+        <v>5.7542728152208964</v>
       </c>
       <c r="P58">
-        <f t="shared" si="4"/>
-        <v>6.4228669679179576E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M58</f>
+        <v>0.10705739722504562</v>
+      </c>
+      <c r="Q58" cm="1">
+        <f t="array" ref="Q58">MATCH(1,(H58=H:H)*(MIN(IF(H:H=H58,A:A))=A:A),0)</f>
+        <v>58</v>
+      </c>
+      <c r="R58" cm="1">
+        <f t="array" ref="R58">INDEX(A:H,Q58,6)</f>
+        <v>43711</v>
+      </c>
+      <c r="S58" cm="1">
+        <f t="array" ref="S58">INDEX(A:H,Q58,5)</f>
+        <v>22856</v>
+      </c>
+      <c r="T58">
+        <f>R58/F58</f>
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <f>S58/E58</f>
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <f>C58*U58</f>
+        <v>48</v>
+      </c>
+      <c r="W58">
+        <f>(M58-C58)/(1-C58)</f>
+        <v>0.82253651522548743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>6144</v>
+        <v>3072</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <f>B59*8</f>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D59">
-        <v>4664</v>
+        <v>2970</v>
       </c>
       <c r="E59">
-        <v>59466</v>
+        <v>19392</v>
       </c>
       <c r="F59">
-        <v>89018</v>
+        <v>40269</v>
       </c>
       <c r="G59">
         <f>POWER(A59,2)/C59</f>
-        <v>589824</v>
+        <v>168521.14285714287</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
-        <v>589824</v>
+        <f>ROUND(G59,-3)</f>
+        <v>169000</v>
       </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">MATCH(1,(A59=A:A)*(MIN(IF(A:A=A59,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J59" cm="1">
         <f t="array" ref="J59">INDEX(A:H,I59,6)</f>
-        <v>1393521</v>
+        <v>408295</v>
       </c>
       <c r="K59" cm="1">
         <f t="array" ref="K59">INDEX(A:H,I59,5)</f>
-        <v>1139754</v>
+        <v>324922</v>
       </c>
       <c r="L59" cm="1">
         <f t="array" ref="L59">INDEX(A:H,I59,4)</f>
-        <v>59656</v>
+        <v>17844</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
-        <v>15.654373272821227</v>
+        <f>J59/F59</f>
+        <v>10.139188954282451</v>
       </c>
       <c r="N59">
-        <f t="shared" si="2"/>
-        <v>19.166481687014429</v>
+        <f>K59/E59</f>
+        <v>16.755466171617162</v>
       </c>
       <c r="O59">
-        <f t="shared" si="3"/>
-        <v>12.79073756432247</v>
+        <f>L59/D59</f>
+        <v>6.0080808080808081</v>
       </c>
       <c r="P59">
-        <f t="shared" si="4"/>
-        <v>6.3879912825138621E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M59</f>
+        <v>9.8627218065369393E-2</v>
+      </c>
+      <c r="Q59" cm="1">
+        <f t="array" ref="Q59">MATCH(1,(H59=H:H)*(MIN(IF(H:H=H59,A:A))=A:A),0)</f>
+        <v>59</v>
+      </c>
+      <c r="R59" cm="1">
+        <f t="array" ref="R59">INDEX(A:H,Q59,6)</f>
+        <v>40269</v>
+      </c>
+      <c r="S59" cm="1">
+        <f t="array" ref="S59">INDEX(A:H,Q59,5)</f>
+        <v>19392</v>
+      </c>
+      <c r="T59">
+        <f>R59/F59</f>
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <f>S59/E59</f>
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <f>C59*U59</f>
+        <v>56</v>
+      </c>
+      <c r="W59">
+        <f>(M59-C59)/(1-C59)</f>
+        <v>0.83383292810395537</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>6144</v>
+        <v>3072</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60">
         <f>B60*8</f>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D60">
-        <v>4649</v>
+        <v>2961</v>
       </c>
       <c r="E60">
-        <v>43445</v>
+        <v>17949</v>
       </c>
       <c r="F60">
-        <v>71892</v>
+        <v>39264</v>
       </c>
       <c r="G60">
         <f>POWER(A60,2)/C60</f>
-        <v>524288</v>
+        <v>147456</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
-        <v>524288</v>
+        <f>ROUND(G60,-3)</f>
+        <v>147000</v>
       </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">MATCH(1,(A60=A:A)*(MIN(IF(A:A=A60,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J60" cm="1">
         <f t="array" ref="J60">INDEX(A:H,I60,6)</f>
-        <v>1393521</v>
+        <v>408295</v>
       </c>
       <c r="K60" cm="1">
         <f t="array" ref="K60">INDEX(A:H,I60,5)</f>
-        <v>1139754</v>
+        <v>324922</v>
       </c>
       <c r="L60" cm="1">
         <f t="array" ref="L60">INDEX(A:H,I60,4)</f>
-        <v>59656</v>
+        <v>17844</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
-        <v>19.383533633784008</v>
+        <f>J60/F60</f>
+        <v>10.398711287693562</v>
       </c>
       <c r="N60">
-        <f t="shared" si="2"/>
-        <v>26.234411324663366</v>
+        <f>K60/E60</f>
+        <v>18.102512674800824</v>
       </c>
       <c r="O60">
-        <f t="shared" si="3"/>
-        <v>12.832006883200687</v>
+        <f>L60/D60</f>
+        <v>6.0263424518743669</v>
       </c>
       <c r="P60">
-        <f t="shared" si="4"/>
-        <v>5.1590180557020672E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M60</f>
+        <v>9.6165762500153074E-2</v>
+      </c>
+      <c r="Q60" cm="1">
+        <f t="array" ref="Q60">MATCH(1,(H60=H:H)*(MIN(IF(H:H=H60,A:A))=A:A),0)</f>
+        <v>64</v>
+      </c>
+      <c r="R60" cm="1">
+        <f t="array" ref="R60">INDEX(A:H,Q60,6)</f>
+        <v>14719</v>
+      </c>
+      <c r="S60" cm="1">
+        <f t="array" ref="S60">INDEX(A:H,Q60,5)</f>
+        <v>3293</v>
+      </c>
+      <c r="T60">
+        <f>R60/F60</f>
+        <v>0.37487265688671556</v>
+      </c>
+      <c r="U60">
+        <f>S60/E60</f>
+        <v>0.18346425984734527</v>
+      </c>
+      <c r="V60">
+        <f>C60*U60</f>
+        <v>11.741712630230097</v>
+      </c>
+      <c r="W60">
+        <f>(M60-C60)/(1-C60)</f>
+        <v>0.8508141065445467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>6144</v>
+        <v>1536</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <f>B61*8</f>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>4506</v>
+        <v>4634</v>
       </c>
       <c r="E61">
-        <v>44313</v>
+        <v>14450</v>
       </c>
       <c r="F61">
-        <v>72568</v>
+        <v>34293</v>
       </c>
       <c r="G61">
         <f>POWER(A61,2)/C61</f>
-        <v>471859.20000000001</v>
+        <v>147456</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
-        <v>471859.20000000001</v>
+        <f>ROUND(G61,-3)</f>
+        <v>147000</v>
       </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">MATCH(1,(A61=A:A)*(MIN(IF(A:A=A61,C:C))=C:C),0)</f>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J61" cm="1">
         <f t="array" ref="J61">INDEX(A:H,I61,6)</f>
-        <v>1393521</v>
+        <v>102884</v>
       </c>
       <c r="K61" cm="1">
         <f t="array" ref="K61">INDEX(A:H,I61,5)</f>
-        <v>1139754</v>
+        <v>75449</v>
       </c>
       <c r="L61" cm="1">
         <f t="array" ref="L61">INDEX(A:H,I61,4)</f>
-        <v>59656</v>
+        <v>5588</v>
       </c>
       <c r="M61">
-        <f t="shared" si="1"/>
-        <v>19.202968250468526</v>
+        <f>J61/F61</f>
+        <v>3.000145802350334</v>
       </c>
       <c r="N61">
-        <f t="shared" si="2"/>
-        <v>25.720533477760476</v>
+        <f>K61/E61</f>
+        <v>5.2213840830449829</v>
       </c>
       <c r="O61">
-        <f t="shared" si="3"/>
-        <v>13.239236573457612</v>
+        <f>L61/D61</f>
+        <v>1.2058696590418645</v>
       </c>
       <c r="P61">
-        <f t="shared" si="4"/>
-        <v>5.2075282683217546E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M61</f>
+        <v>0.33331713385949224</v>
+      </c>
+      <c r="Q61" cm="1">
+        <f t="array" ref="Q61">MATCH(1,(H61=H:H)*(MIN(IF(H:H=H61,A:A))=A:A),0)</f>
+        <v>64</v>
+      </c>
+      <c r="R61" cm="1">
+        <f t="array" ref="R61">INDEX(A:H,Q61,6)</f>
+        <v>14719</v>
+      </c>
+      <c r="S61" cm="1">
+        <f t="array" ref="S61">INDEX(A:H,Q61,5)</f>
+        <v>3293</v>
+      </c>
+      <c r="T61">
+        <f>R61/F61</f>
+        <v>0.42921295891289768</v>
+      </c>
+      <c r="U61">
+        <f>S61/E61</f>
+        <v>0.22788927335640138</v>
+      </c>
+      <c r="V61">
+        <f>C61*U61</f>
+        <v>3.6462283737024221</v>
+      </c>
+      <c r="W61">
+        <f>(M61-C61)/(1-C61)</f>
+        <v>0.86665694650997771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>12288</v>
+        <v>1536</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>241646</v>
+        <v>8214</v>
       </c>
       <c r="E62">
-        <v>4284814</v>
+        <v>17586</v>
       </c>
       <c r="F62">
-        <v>5274159</v>
+        <v>37186</v>
       </c>
       <c r="G62">
         <f>POWER(A62,2)/C62</f>
-        <v>150994944</v>
+        <v>147456</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
-        <v>150994944</v>
+        <f>ROUND(G62,-3)</f>
+        <v>147000</v>
       </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">MATCH(1,(A62=A:A)*(MIN(IF(A:A=A62,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J62" cm="1">
         <f t="array" ref="J62">INDEX(A:H,I62,6)</f>
-        <v>5274159</v>
+        <v>102884</v>
       </c>
       <c r="K62" cm="1">
         <f t="array" ref="K62">INDEX(A:H,I62,5)</f>
-        <v>4284814</v>
+        <v>75449</v>
       </c>
       <c r="L62" cm="1">
         <f t="array" ref="L62">INDEX(A:H,I62,4)</f>
-        <v>241646</v>
+        <v>5588</v>
       </c>
       <c r="M62">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>J62/F62</f>
+        <v>2.7667401710321089</v>
       </c>
       <c r="N62">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>K62/E62</f>
+        <v>4.2902877288752412</v>
       </c>
       <c r="O62">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>L62/D62</f>
+        <v>0.68030192354516683</v>
       </c>
       <c r="P62">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M62</f>
+        <v>0.36143618055285565</v>
+      </c>
+      <c r="Q62" cm="1">
+        <f t="array" ref="Q62">MATCH(1,(H62=H:H)*(MIN(IF(H:H=H62,A:A))=A:A),0)</f>
+        <v>64</v>
+      </c>
+      <c r="R62" cm="1">
+        <f t="array" ref="R62">INDEX(A:H,Q62,6)</f>
+        <v>14719</v>
+      </c>
+      <c r="S62" cm="1">
+        <f t="array" ref="S62">INDEX(A:H,Q62,5)</f>
+        <v>3293</v>
+      </c>
+      <c r="T62">
+        <f>R62/F62</f>
+        <v>0.39582100790620128</v>
+      </c>
+      <c r="U62">
+        <f>S62/E62</f>
+        <v>0.18725122256340271</v>
+      </c>
+      <c r="V62">
+        <f>C62*U62</f>
+        <v>2.9960195610144433</v>
+      </c>
+      <c r="W62">
+        <f>(M62-C62)/(1-C62)</f>
+        <v>0.88221732193119284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>12288</v>
+        <v>768</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>124701</v>
+        <v>5977</v>
       </c>
       <c r="E63">
-        <v>2177200</v>
+        <v>4637</v>
       </c>
       <c r="F63">
-        <v>2726824</v>
+        <v>21972</v>
       </c>
       <c r="G63">
         <f>POWER(A63,2)/C63</f>
-        <v>75497472</v>
+        <v>147456</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
-        <v>75497472</v>
+        <f>ROUND(G63,-3)</f>
+        <v>147000</v>
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">MATCH(1,(A63=A:A)*(MIN(IF(A:A=A63,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX(A:H,I63,6)</f>
-        <v>5274159</v>
+        <v>30878</v>
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX(A:H,I63,5)</f>
-        <v>4284814</v>
+        <v>12729</v>
       </c>
       <c r="L63" cm="1">
         <f t="array" ref="L63">INDEX(A:H,I63,4)</f>
-        <v>241646</v>
+        <v>2431</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
-        <v>1.9341765365128076</v>
+        <f>J63/F63</f>
+        <v>1.40533406153286</v>
       </c>
       <c r="N63">
-        <f t="shared" si="2"/>
-        <v>1.9680387653867353</v>
+        <f>K63/E63</f>
+        <v>2.7450938106534397</v>
       </c>
       <c r="O63">
-        <f t="shared" si="3"/>
-        <v>1.9378032253149533</v>
+        <f>L63/D63</f>
+        <v>0.40672578216496569</v>
       </c>
       <c r="P63">
-        <f t="shared" si="4"/>
-        <v>0.5170158882202831</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M63</f>
+        <v>0.71157458384610406</v>
+      </c>
+      <c r="Q63" cm="1">
+        <f t="array" ref="Q63">MATCH(1,(H63=H:H)*(MIN(IF(H:H=H63,A:A))=A:A),0)</f>
+        <v>64</v>
+      </c>
+      <c r="R63" cm="1">
+        <f t="array" ref="R63">INDEX(A:H,Q63,6)</f>
+        <v>14719</v>
+      </c>
+      <c r="S63" cm="1">
+        <f t="array" ref="S63">INDEX(A:H,Q63,5)</f>
+        <v>3293</v>
+      </c>
+      <c r="T63">
+        <f>R63/F63</f>
+        <v>0.66989805206626618</v>
+      </c>
+      <c r="U63">
+        <f>S63/E63</f>
+        <v>0.71015742937243909</v>
+      </c>
+      <c r="V63">
+        <f>C63*U63</f>
+        <v>2.8406297174897563</v>
+      </c>
+      <c r="W63">
+        <f>(M63-C63)/(1-C63)</f>
+        <v>0.86488864615571337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>12288</v>
+        <v>384</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>69624</v>
+        <v>1446</v>
       </c>
       <c r="E64">
-        <v>958897</v>
+        <v>3293</v>
       </c>
       <c r="F64">
-        <v>1245155</v>
+        <v>14719</v>
       </c>
       <c r="G64">
         <f>POWER(A64,2)/C64</f>
-        <v>37748736</v>
+        <v>147456</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
-        <v>37748736</v>
+        <f>ROUND(G64,-3)</f>
+        <v>147000</v>
       </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">MATCH(1,(A64=A:A)*(MIN(IF(A:A=A64,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J64" cm="1">
         <f t="array" ref="J64">INDEX(A:H,I64,6)</f>
-        <v>5274159</v>
+        <v>14719</v>
       </c>
       <c r="K64" cm="1">
         <f t="array" ref="K64">INDEX(A:H,I64,5)</f>
-        <v>4284814</v>
+        <v>3293</v>
       </c>
       <c r="L64" cm="1">
         <f t="array" ref="L64">INDEX(A:H,I64,4)</f>
-        <v>241646</v>
+        <v>1446</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
-        <v>4.235744947416185</v>
+        <f>J64/F64</f>
+        <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="2"/>
-        <v>4.4684820163166634</v>
+        <f>K64/E64</f>
+        <v>1</v>
       </c>
       <c r="O64">
-        <f t="shared" si="3"/>
-        <v>3.4707284844306563</v>
+        <f>L64/D64</f>
+        <v>1</v>
       </c>
       <c r="P64">
-        <f t="shared" si="4"/>
-        <v>0.23608598072223458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M64</f>
+        <v>1</v>
+      </c>
+      <c r="Q64" cm="1">
+        <f t="array" ref="Q64">MATCH(1,(H64=H:H)*(MIN(IF(H:H=H64,A:A))=A:A),0)</f>
+        <v>64</v>
+      </c>
+      <c r="R64" cm="1">
+        <f t="array" ref="R64">INDEX(A:H,Q64,6)</f>
+        <v>14719</v>
+      </c>
+      <c r="S64" cm="1">
+        <f t="array" ref="S64">INDEX(A:H,Q64,5)</f>
+        <v>3293</v>
+      </c>
+      <c r="T64">
+        <f>R64/F64</f>
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <f>S64/E64</f>
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <f>C64*U64</f>
+        <v>1</v>
+      </c>
+      <c r="W64" t="e">
+        <f>(M64-C64)/(1-C64)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>12288</v>
+        <v>3072</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <f>B65*8</f>
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>66182</v>
+        <v>3216</v>
       </c>
       <c r="E65">
-        <v>1017317</v>
+        <v>18936</v>
       </c>
       <c r="F65">
-        <v>1312113</v>
+        <v>40813</v>
       </c>
       <c r="G65">
         <f>POWER(A65,2)/C65</f>
-        <v>18874368</v>
+        <v>131072</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
-        <v>18874368</v>
+        <f>ROUND(G65,-3)</f>
+        <v>131000</v>
       </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">MATCH(1,(A65=A:A)*(MIN(IF(A:A=A65,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="J65" cm="1">
         <f t="array" ref="J65">INDEX(A:H,I65,6)</f>
-        <v>5274159</v>
+        <v>408295</v>
       </c>
       <c r="K65" cm="1">
         <f t="array" ref="K65">INDEX(A:H,I65,5)</f>
-        <v>4284814</v>
+        <v>324922</v>
       </c>
       <c r="L65" cm="1">
         <f t="array" ref="L65">INDEX(A:H,I65,4)</f>
-        <v>241646</v>
+        <v>17844</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
-        <v>4.0195920625738788</v>
+        <f>J65/F65</f>
+        <v>10.004042829490604</v>
       </c>
       <c r="N65">
-        <f t="shared" si="2"/>
-        <v>4.2118769272507981</v>
+        <f>K65/E65</f>
+        <v>17.158956485002111</v>
       </c>
       <c r="O65">
-        <f t="shared" si="3"/>
-        <v>3.6512344746305643</v>
+        <f>L65/D65</f>
+        <v>5.5485074626865671</v>
       </c>
       <c r="P65">
-        <f t="shared" si="4"/>
-        <v>0.24878146449509772</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M65</f>
+        <v>9.9959588042959124E-2</v>
+      </c>
+      <c r="Q65" cm="1">
+        <f t="array" ref="Q65">MATCH(1,(H65=H:H)*(MIN(IF(H:H=H65,A:A))=A:A),0)</f>
+        <v>65</v>
+      </c>
+      <c r="R65" cm="1">
+        <f t="array" ref="R65">INDEX(A:H,Q65,6)</f>
+        <v>40813</v>
+      </c>
+      <c r="S65" cm="1">
+        <f t="array" ref="S65">INDEX(A:H,Q65,5)</f>
+        <v>18936</v>
+      </c>
+      <c r="T65">
+        <f>R65/F65</f>
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <f>S65/E65</f>
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <f>C65*U65</f>
+        <v>72</v>
+      </c>
+      <c r="W65">
+        <f>(M65-C65)/(1-C65)</f>
+        <v>0.87318249535928727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>12288</v>
+        <v>3072</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <f>B66*8</f>
+        <v>80</v>
       </c>
       <c r="D66">
-        <v>42509</v>
+        <v>2966</v>
       </c>
       <c r="E66">
-        <v>626991</v>
+        <v>16377</v>
       </c>
       <c r="F66">
-        <v>805548</v>
+        <v>37859</v>
       </c>
       <c r="G66">
         <f>POWER(A66,2)/C66</f>
-        <v>18874368</v>
+        <v>117964.8</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
-        <v>18874368</v>
+        <f>ROUND(G66,-3)</f>
+        <v>118000</v>
       </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">MATCH(1,(A66=A:A)*(MIN(IF(A:A=A66,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="J66" cm="1">
         <f t="array" ref="J66">INDEX(A:H,I66,6)</f>
-        <v>5274159</v>
+        <v>408295</v>
       </c>
       <c r="K66" cm="1">
         <f t="array" ref="K66">INDEX(A:H,I66,5)</f>
-        <v>4284814</v>
+        <v>324922</v>
       </c>
       <c r="L66" cm="1">
         <f t="array" ref="L66">INDEX(A:H,I66,4)</f>
-        <v>241646</v>
+        <v>17844</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
-        <v>6.5472932711644747</v>
+        <f>J66/F66</f>
+        <v>10.784621886473493</v>
       </c>
       <c r="N66">
-        <f t="shared" si="2"/>
-        <v>6.8339322255024397</v>
+        <f>K66/E66</f>
+        <v>19.840141662087074</v>
       </c>
       <c r="O66">
-        <f t="shared" si="3"/>
-        <v>5.6845844409419186</v>
+        <f>L66/D66</f>
+        <v>6.0161834120026976</v>
       </c>
       <c r="P66">
-        <f t="shared" si="4"/>
-        <v>0.15273487204310676</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M66</f>
+        <v>9.2724623127885472E-2</v>
+      </c>
+      <c r="Q66" cm="1">
+        <f t="array" ref="Q66">MATCH(1,(H66=H:H)*(MIN(IF(H:H=H66,A:A))=A:A),0)</f>
+        <v>66</v>
+      </c>
+      <c r="R66" cm="1">
+        <f t="array" ref="R66">INDEX(A:H,Q66,6)</f>
+        <v>37859</v>
+      </c>
+      <c r="S66" cm="1">
+        <f t="array" ref="S66">INDEX(A:H,Q66,5)</f>
+        <v>16377</v>
+      </c>
+      <c r="T66">
+        <f>R66/F66</f>
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <f>S66/E66</f>
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <f>C66*U66</f>
+        <v>80</v>
+      </c>
+      <c r="W66">
+        <f>(M66-C66)/(1-C66)</f>
+        <v>0.87614402675350012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>12288</v>
+        <v>1536</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <f>B67*8</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D67">
-        <v>34394</v>
+        <v>3492</v>
       </c>
       <c r="E67">
-        <v>511665</v>
+        <v>10452</v>
       </c>
       <c r="F67">
-        <v>671345</v>
+        <v>29947</v>
       </c>
       <c r="G67">
         <f>POWER(A67,2)/C67</f>
-        <v>9437184</v>
+        <v>98304</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H85" si="5">ROUND(G67,1)</f>
-        <v>9437184</v>
+        <f>ROUND(G67,-3)</f>
+        <v>98000</v>
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">MATCH(1,(A67=A:A)*(MIN(IF(A:A=A67,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX(A:H,I67,6)</f>
-        <v>5274159</v>
+        <v>102884</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX(A:H,I67,5)</f>
-        <v>4284814</v>
+        <v>75449</v>
       </c>
       <c r="L67" cm="1">
         <f t="array" ref="L67">INDEX(A:H,I67,4)</f>
-        <v>241646</v>
+        <v>5588</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M85" si="6">J67/F67</f>
-        <v>7.8561082602834604</v>
+        <f>J67/F67</f>
+        <v>3.4355361138010485</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N85" si="7">K67/E67</f>
-        <v>8.3742565936696867</v>
+        <f>K67/E67</f>
+        <v>7.2186184462303862</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O85" si="8">L67/D67</f>
-        <v>7.0258184567075652</v>
+        <f>L67/D67</f>
+        <v>1.600229095074456</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P85" si="9">1/M67</f>
-        <v>0.12728948823878841</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M67</f>
+        <v>0.29107538587146692</v>
+      </c>
+      <c r="Q67" cm="1">
+        <f t="array" ref="Q67">MATCH(1,(H67=H:H)*(MIN(IF(H:H=H67,A:A))=A:A),0)</f>
+        <v>67</v>
+      </c>
+      <c r="R67" cm="1">
+        <f t="array" ref="R67">INDEX(A:H,Q67,6)</f>
+        <v>29947</v>
+      </c>
+      <c r="S67" cm="1">
+        <f t="array" ref="S67">INDEX(A:H,Q67,5)</f>
+        <v>10452</v>
+      </c>
+      <c r="T67">
+        <f>R67/F67</f>
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <f>S67/E67</f>
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <f>C67*U67</f>
+        <v>24</v>
+      </c>
+      <c r="W67">
+        <f>(M67-C67)/(1-C67)</f>
+        <v>0.89410712548691085</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>12288</v>
+        <v>1536</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <f>B68*8</f>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>41738</v>
+        <v>2496</v>
       </c>
       <c r="E68">
-        <v>540630</v>
+        <v>8580</v>
       </c>
       <c r="F68">
-        <v>698187</v>
+        <v>26841</v>
       </c>
       <c r="G68">
         <f>POWER(A68,2)/C68</f>
-        <v>9437184</v>
+        <v>73728</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
-        <v>9437184</v>
+        <f>ROUND(G68,-3)</f>
+        <v>74000</v>
       </c>
       <c r="I68" cm="1">
         <f t="array" ref="I68">MATCH(1,(A68=A:A)*(MIN(IF(A:A=A68,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J68" cm="1">
         <f t="array" ref="J68">INDEX(A:H,I68,6)</f>
-        <v>5274159</v>
+        <v>102884</v>
       </c>
       <c r="K68" cm="1">
         <f t="array" ref="K68">INDEX(A:H,I68,5)</f>
-        <v>4284814</v>
+        <v>75449</v>
       </c>
       <c r="L68" cm="1">
         <f t="array" ref="L68">INDEX(A:H,I68,4)</f>
-        <v>241646</v>
+        <v>5588</v>
       </c>
       <c r="M68">
-        <f t="shared" si="6"/>
-        <v>7.5540779189529452</v>
+        <f>J68/F68</f>
+        <v>3.8330911664990128</v>
       </c>
       <c r="N68">
-        <f t="shared" si="7"/>
-        <v>7.9255942141575568</v>
+        <f>K68/E68</f>
+        <v>8.7935897435897434</v>
       </c>
       <c r="O68">
-        <f t="shared" si="8"/>
-        <v>5.7895922181225741</v>
+        <f>L68/D68</f>
+        <v>2.2387820512820511</v>
       </c>
       <c r="P68">
-        <f t="shared" si="9"/>
-        <v>0.13237883044481594</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M68</f>
+        <v>0.26088604642121221</v>
+      </c>
+      <c r="Q68" cm="1">
+        <f t="array" ref="Q68">MATCH(1,(H68=H:H)*(MIN(IF(H:H=H68,A:A))=A:A),0)</f>
+        <v>71</v>
+      </c>
+      <c r="R68" cm="1">
+        <f t="array" ref="R68">INDEX(A:H,Q68,6)</f>
+        <v>12788</v>
+      </c>
+      <c r="S68" cm="1">
+        <f t="array" ref="S68">INDEX(A:H,Q68,5)</f>
+        <v>1852</v>
+      </c>
+      <c r="T68">
+        <f>R68/F68</f>
+        <v>0.47643530419880037</v>
+      </c>
+      <c r="U68">
+        <f>S68/E68</f>
+        <v>0.21585081585081586</v>
+      </c>
+      <c r="V68">
+        <f>C68*U68</f>
+        <v>6.9072261072261076</v>
+      </c>
+      <c r="W68">
+        <f>(M68-C68)/(1-C68)</f>
+        <v>0.90860996237099956</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>12288</v>
+        <v>768</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <f>B69*8</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>24954</v>
+        <v>4325</v>
       </c>
       <c r="E69">
-        <v>427906</v>
+        <v>5117</v>
       </c>
       <c r="F69">
-        <v>545644</v>
+        <v>20517</v>
       </c>
       <c r="G69">
         <f>POWER(A69,2)/C69</f>
-        <v>6291456</v>
+        <v>73728</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
-        <v>6291456</v>
+        <f>ROUND(G69,-3)</f>
+        <v>74000</v>
       </c>
       <c r="I69" cm="1">
         <f t="array" ref="I69">MATCH(1,(A69=A:A)*(MIN(IF(A:A=A69,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J69" cm="1">
         <f t="array" ref="J69">INDEX(A:H,I69,6)</f>
-        <v>5274159</v>
+        <v>30878</v>
       </c>
       <c r="K69" cm="1">
         <f t="array" ref="K69">INDEX(A:H,I69,5)</f>
-        <v>4284814</v>
+        <v>12729</v>
       </c>
       <c r="L69" cm="1">
         <f t="array" ref="L69">INDEX(A:H,I69,4)</f>
-        <v>241646</v>
+        <v>2431</v>
       </c>
       <c r="M69">
-        <f t="shared" si="6"/>
-        <v>9.6659341988549308</v>
+        <f>J69/F69</f>
+        <v>1.5049958570941171</v>
       </c>
       <c r="N69">
-        <f t="shared" si="7"/>
-        <v>10.01344687852005</v>
+        <f>K69/E69</f>
+        <v>2.487590384991206</v>
       </c>
       <c r="O69">
-        <f t="shared" si="8"/>
-        <v>9.6836579305922896</v>
+        <f>L69/D69</f>
+        <v>0.56208092485549133</v>
       </c>
       <c r="P69">
-        <f t="shared" si="9"/>
-        <v>0.10345611499387865</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M69</f>
+        <v>0.66445365632489151</v>
+      </c>
+      <c r="Q69" cm="1">
+        <f t="array" ref="Q69">MATCH(1,(H69=H:H)*(MIN(IF(H:H=H69,A:A))=A:A),0)</f>
+        <v>71</v>
+      </c>
+      <c r="R69" cm="1">
+        <f t="array" ref="R69">INDEX(A:H,Q69,6)</f>
+        <v>12788</v>
+      </c>
+      <c r="S69" cm="1">
+        <f t="array" ref="S69">INDEX(A:H,Q69,5)</f>
+        <v>1852</v>
+      </c>
+      <c r="T69">
+        <f>R69/F69</f>
+        <v>0.6232880050689672</v>
+      </c>
+      <c r="U69">
+        <f>S69/E69</f>
+        <v>0.36193081883916356</v>
+      </c>
+      <c r="V69">
+        <f>C69*U69</f>
+        <v>2.8954465507133085</v>
+      </c>
+      <c r="W69">
+        <f>(M69-C69)/(1-C69)</f>
+        <v>0.92785773470084032</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>12288</v>
+        <v>768</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <f>B70*8</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>17698</v>
+        <v>4265</v>
       </c>
       <c r="E70">
-        <v>261422</v>
+        <v>3146</v>
       </c>
       <c r="F70">
-        <v>355772</v>
+        <v>17252</v>
       </c>
       <c r="G70">
         <f>POWER(A70,2)/C70</f>
-        <v>4718592</v>
+        <v>73728</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
-        <v>4718592</v>
+        <f>ROUND(G70,-3)</f>
+        <v>74000</v>
       </c>
       <c r="I70" cm="1">
         <f t="array" ref="I70">MATCH(1,(A70=A:A)*(MIN(IF(A:A=A70,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J70" cm="1">
         <f t="array" ref="J70">INDEX(A:H,I70,6)</f>
-        <v>5274159</v>
+        <v>30878</v>
       </c>
       <c r="K70" cm="1">
         <f t="array" ref="K70">INDEX(A:H,I70,5)</f>
-        <v>4284814</v>
+        <v>12729</v>
       </c>
       <c r="L70" cm="1">
         <f t="array" ref="L70">INDEX(A:H,I70,4)</f>
-        <v>241646</v>
+        <v>2431</v>
       </c>
       <c r="M70">
-        <f t="shared" si="6"/>
-        <v>14.824547744060803</v>
+        <f>J70/F70</f>
+        <v>1.7898214699744956</v>
       </c>
       <c r="N70">
-        <f t="shared" si="7"/>
-        <v>16.390410906503661</v>
+        <f>K70/E70</f>
+        <v>4.0460902733630002</v>
       </c>
       <c r="O70">
-        <f t="shared" si="8"/>
-        <v>13.653859193129167</v>
+        <f>L70/D70</f>
+        <v>0.56998827667057439</v>
       </c>
       <c r="P70">
-        <f t="shared" si="9"/>
-        <v>6.745568345588368E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M70</f>
+        <v>0.55871494267763455</v>
+      </c>
+      <c r="Q70" cm="1">
+        <f t="array" ref="Q70">MATCH(1,(H70=H:H)*(MIN(IF(H:H=H70,A:A))=A:A),0)</f>
+        <v>71</v>
+      </c>
+      <c r="R70" cm="1">
+        <f t="array" ref="R70">INDEX(A:H,Q70,6)</f>
+        <v>12788</v>
+      </c>
+      <c r="S70" cm="1">
+        <f t="array" ref="S70">INDEX(A:H,Q70,5)</f>
+        <v>1852</v>
+      </c>
+      <c r="T70">
+        <f>R70/F70</f>
+        <v>0.74124739160677022</v>
+      </c>
+      <c r="U70">
+        <f>S70/E70</f>
+        <v>0.58868404322949774</v>
+      </c>
+      <c r="V70">
+        <f>C70*U70</f>
+        <v>4.709472345835982</v>
+      </c>
+      <c r="W70">
+        <f>(M70-C70)/(1-C70)</f>
+        <v>0.88716836143221489</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>12288</v>
+        <v>384</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <f>B71*8</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>15684</v>
+        <v>1542</v>
       </c>
       <c r="E71">
-        <v>194871</v>
+        <v>1852</v>
       </c>
       <c r="F71">
-        <v>280153</v>
+        <v>12788</v>
       </c>
       <c r="G71">
         <f>POWER(A71,2)/C71</f>
-        <v>3774873.6000000001</v>
+        <v>73728</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
-        <v>3774873.6000000001</v>
+        <f>ROUND(G71,-3)</f>
+        <v>74000</v>
       </c>
       <c r="I71" cm="1">
         <f t="array" ref="I71">MATCH(1,(A71=A:A)*(MIN(IF(A:A=A71,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J71" cm="1">
         <f t="array" ref="J71">INDEX(A:H,I71,6)</f>
-        <v>5274159</v>
+        <v>14719</v>
       </c>
       <c r="K71" cm="1">
         <f t="array" ref="K71">INDEX(A:H,I71,5)</f>
-        <v>4284814</v>
+        <v>3293</v>
       </c>
       <c r="L71" cm="1">
         <f t="array" ref="L71">INDEX(A:H,I71,4)</f>
-        <v>241646</v>
+        <v>1446</v>
       </c>
       <c r="M71">
-        <f t="shared" si="6"/>
-        <v>18.825995081259169</v>
+        <f>J71/F71</f>
+        <v>1.1510009383797311</v>
       </c>
       <c r="N71">
-        <f t="shared" si="7"/>
-        <v>21.987951003484355</v>
+        <f>K71/E71</f>
+        <v>1.7780777537796977</v>
       </c>
       <c r="O71">
-        <f t="shared" si="8"/>
-        <v>15.407166539148177</v>
+        <f>L71/D71</f>
+        <v>0.9377431906614786</v>
       </c>
       <c r="P71">
-        <f t="shared" si="9"/>
-        <v>5.3118042137144522E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M71</f>
+        <v>0.86880902235206192</v>
+      </c>
+      <c r="Q71" cm="1">
+        <f t="array" ref="Q71">MATCH(1,(H71=H:H)*(MIN(IF(H:H=H71,A:A))=A:A),0)</f>
+        <v>71</v>
+      </c>
+      <c r="R71" cm="1">
+        <f t="array" ref="R71">INDEX(A:H,Q71,6)</f>
+        <v>12788</v>
+      </c>
+      <c r="S71" cm="1">
+        <f t="array" ref="S71">INDEX(A:H,Q71,5)</f>
+        <v>1852</v>
+      </c>
+      <c r="T71">
+        <f>R71/F71</f>
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <f>S71/E71</f>
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <f>C71*U71</f>
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <f>(M71-C71)/(1-C71)</f>
+        <v>0.84899906162026895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>12288</v>
+        <v>1536</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <f>B72*8</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D72">
-        <v>13086</v>
+        <v>3208</v>
       </c>
       <c r="E72">
-        <v>176472</v>
+        <v>7396</v>
       </c>
       <c r="F72">
-        <v>248521</v>
+        <v>25956</v>
       </c>
       <c r="G72">
         <f>POWER(A72,2)/C72</f>
-        <v>3145728</v>
+        <v>58982.400000000001</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
-        <v>3145728</v>
+        <f>ROUND(G72,-3)</f>
+        <v>59000</v>
       </c>
       <c r="I72" cm="1">
         <f t="array" ref="I72">MATCH(1,(A72=A:A)*(MIN(IF(A:A=A72,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J72" cm="1">
         <f t="array" ref="J72">INDEX(A:H,I72,6)</f>
-        <v>5274159</v>
+        <v>102884</v>
       </c>
       <c r="K72" cm="1">
         <f t="array" ref="K72">INDEX(A:H,I72,5)</f>
-        <v>4284814</v>
+        <v>75449</v>
       </c>
       <c r="L72" cm="1">
         <f t="array" ref="L72">INDEX(A:H,I72,4)</f>
-        <v>241646</v>
+        <v>5588</v>
       </c>
       <c r="M72">
-        <f t="shared" si="6"/>
-        <v>21.222186455068183</v>
+        <f>J72/F72</f>
+        <v>3.963784866697488</v>
       </c>
       <c r="N72">
-        <f t="shared" si="7"/>
-        <v>24.280418423319279</v>
+        <f>K72/E72</f>
+        <v>10.201325040562466</v>
       </c>
       <c r="O72">
-        <f t="shared" si="8"/>
-        <v>18.465994192266546</v>
+        <f>L72/D72</f>
+        <v>1.7418952618453865</v>
       </c>
       <c r="P72">
-        <f t="shared" si="9"/>
-        <v>4.7120498263325018E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M72</f>
+        <v>0.25228412581159365</v>
+      </c>
+      <c r="Q72" cm="1">
+        <f t="array" ref="Q72">MATCH(1,(H72=H:H)*(MIN(IF(H:H=H72,A:A))=A:A),0)</f>
+        <v>72</v>
+      </c>
+      <c r="R72" cm="1">
+        <f t="array" ref="R72">INDEX(A:H,Q72,6)</f>
+        <v>25956</v>
+      </c>
+      <c r="S72" cm="1">
+        <f t="array" ref="S72">INDEX(A:H,Q72,5)</f>
+        <v>7396</v>
+      </c>
+      <c r="T72">
+        <f>R72/F72</f>
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <f>S72/E72</f>
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <f>C72*U72</f>
+        <v>40</v>
+      </c>
+      <c r="W72">
+        <f>(M72-C72)/(1-C72)</f>
+        <v>0.924005516238526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>12288</v>
+        <v>1536</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73">
         <f>B73*8</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D73">
-        <v>11518</v>
+        <v>2346</v>
       </c>
       <c r="E73">
-        <v>178634</v>
+        <v>7587</v>
       </c>
       <c r="F73">
-        <v>244029</v>
+        <v>28662</v>
       </c>
       <c r="G73">
         <f>POWER(A73,2)/C73</f>
-        <v>2696338.2857142859</v>
+        <v>49152</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
-        <v>2696338.3</v>
+        <f>ROUND(G73,-3)</f>
+        <v>49000</v>
       </c>
       <c r="I73" cm="1">
         <f t="array" ref="I73">MATCH(1,(A73=A:A)*(MIN(IF(A:A=A73,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J73" cm="1">
         <f t="array" ref="J73">INDEX(A:H,I73,6)</f>
-        <v>5274159</v>
+        <v>102884</v>
       </c>
       <c r="K73" cm="1">
         <f t="array" ref="K73">INDEX(A:H,I73,5)</f>
-        <v>4284814</v>
+        <v>75449</v>
       </c>
       <c r="L73" cm="1">
         <f t="array" ref="L73">INDEX(A:H,I73,4)</f>
-        <v>241646</v>
+        <v>5588</v>
       </c>
       <c r="M73">
-        <f t="shared" si="6"/>
-        <v>21.612836998881281</v>
+        <f>J73/F73</f>
+        <v>3.589561091340451</v>
       </c>
       <c r="N73">
-        <f t="shared" si="7"/>
-        <v>23.986553511649518</v>
+        <f>K73/E73</f>
+        <v>9.9445103466455773</v>
       </c>
       <c r="O73">
-        <f t="shared" si="8"/>
-        <v>20.979857614169127</v>
+        <f>L73/D73</f>
+        <v>2.3819266837169653</v>
       </c>
       <c r="P73">
-        <f t="shared" si="9"/>
-        <v>4.6268798494698393E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M73</f>
+        <v>0.27858559153998674</v>
+      </c>
+      <c r="Q73" cm="1">
+        <f t="array" ref="Q73">MATCH(1,(H73=H:H)*(MIN(IF(H:H=H73,A:A))=A:A),0)</f>
+        <v>73</v>
+      </c>
+      <c r="R73" cm="1">
+        <f t="array" ref="R73">INDEX(A:H,Q73,6)</f>
+        <v>28662</v>
+      </c>
+      <c r="S73" cm="1">
+        <f t="array" ref="S73">INDEX(A:H,Q73,5)</f>
+        <v>7587</v>
+      </c>
+      <c r="T73">
+        <f>R73/F73</f>
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <f>S73/E73</f>
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <f>C73*U73</f>
+        <v>48</v>
+      </c>
+      <c r="W73">
+        <f>(M73-C73)/(1-C73)</f>
+        <v>0.94490295550339465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>12288</v>
+        <v>1536</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <f>B74*8</f>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D74">
-        <v>11466</v>
+        <v>2160</v>
       </c>
       <c r="E74">
-        <v>200863</v>
+        <v>5874</v>
       </c>
       <c r="F74">
-        <v>263412</v>
+        <v>24196</v>
       </c>
       <c r="G74">
         <f>POWER(A74,2)/C74</f>
-        <v>2359296</v>
+        <v>42130.285714285717</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
-        <v>2359296</v>
+        <f>ROUND(G74,-3)</f>
+        <v>42000</v>
       </c>
       <c r="I74" cm="1">
         <f t="array" ref="I74">MATCH(1,(A74=A:A)*(MIN(IF(A:A=A74,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J74" cm="1">
         <f t="array" ref="J74">INDEX(A:H,I74,6)</f>
-        <v>5274159</v>
+        <v>102884</v>
       </c>
       <c r="K74" cm="1">
         <f t="array" ref="K74">INDEX(A:H,I74,5)</f>
-        <v>4284814</v>
+        <v>75449</v>
       </c>
       <c r="L74" cm="1">
         <f t="array" ref="L74">INDEX(A:H,I74,4)</f>
-        <v>241646</v>
+        <v>5588</v>
       </c>
       <c r="M74">
-        <f t="shared" si="6"/>
-        <v>20.022470502482804</v>
+        <f>J74/F74</f>
+        <v>4.2521077864109769</v>
       </c>
       <c r="N74">
-        <f t="shared" si="7"/>
-        <v>21.33202232367335</v>
+        <f>K74/E74</f>
+        <v>12.844569288389513</v>
       </c>
       <c r="O74">
-        <f t="shared" si="8"/>
-        <v>21.075004360718648</v>
+        <f>L74/D74</f>
+        <v>2.587037037037037</v>
       </c>
       <c r="P74">
-        <f t="shared" si="9"/>
-        <v>4.9943886788396022E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M74</f>
+        <v>0.23517748143540299</v>
+      </c>
+      <c r="Q74" cm="1">
+        <f t="array" ref="Q74">MATCH(1,(H74=H:H)*(MIN(IF(H:H=H74,A:A))=A:A),0)</f>
+        <v>74</v>
+      </c>
+      <c r="R74" cm="1">
+        <f t="array" ref="R74">INDEX(A:H,Q74,6)</f>
+        <v>24196</v>
+      </c>
+      <c r="S74" cm="1">
+        <f t="array" ref="S74">INDEX(A:H,Q74,5)</f>
+        <v>5874</v>
+      </c>
+      <c r="T74">
+        <f>R74/F74</f>
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <f>S74/E74</f>
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <f>C74*U74</f>
+        <v>56</v>
+      </c>
+      <c r="W74">
+        <f>(M74-C74)/(1-C74)</f>
+        <v>0.94087076751980048</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>12288</v>
+        <v>1536</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <f>B75*8</f>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D75">
-        <v>10131</v>
+        <v>2016</v>
       </c>
       <c r="E75">
-        <v>151792</v>
+        <v>5748</v>
       </c>
       <c r="F75">
-        <v>209469</v>
+        <v>25606</v>
       </c>
       <c r="G75">
         <f>POWER(A75,2)/C75</f>
-        <v>2097152</v>
+        <v>36864</v>
       </c>
       <c r="H75">
-        <f t="shared" si="5"/>
-        <v>2097152</v>
+        <f>ROUND(G75,-3)</f>
+        <v>37000</v>
       </c>
       <c r="I75" cm="1">
         <f t="array" ref="I75">MATCH(1,(A75=A:A)*(MIN(IF(A:A=A75,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J75" cm="1">
         <f t="array" ref="J75">INDEX(A:H,I75,6)</f>
-        <v>5274159</v>
+        <v>102884</v>
       </c>
       <c r="K75" cm="1">
         <f t="array" ref="K75">INDEX(A:H,I75,5)</f>
-        <v>4284814</v>
+        <v>75449</v>
       </c>
       <c r="L75" cm="1">
         <f t="array" ref="L75">INDEX(A:H,I75,4)</f>
-        <v>241646</v>
+        <v>5588</v>
       </c>
       <c r="M75">
-        <f t="shared" si="6"/>
-        <v>25.178709021382637</v>
+        <f>J75/F75</f>
+        <v>4.0179645395610404</v>
       </c>
       <c r="N75">
-        <f t="shared" si="7"/>
-        <v>28.228193844207862</v>
+        <f>K75/E75</f>
+        <v>13.126130828114126</v>
       </c>
       <c r="O75">
-        <f t="shared" si="8"/>
-        <v>23.852137005231469</v>
+        <f>L75/D75</f>
+        <v>2.7718253968253967</v>
       </c>
       <c r="P75">
-        <f t="shared" si="9"/>
-        <v>3.9716095021026104E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M75</f>
+        <v>0.24888223630496481</v>
+      </c>
+      <c r="Q75" cm="1">
+        <f t="array" ref="Q75">MATCH(1,(H75=H:H)*(MIN(IF(H:H=H75,A:A))=A:A),0)</f>
+        <v>78</v>
+      </c>
+      <c r="R75" cm="1">
+        <f t="array" ref="R75">INDEX(A:H,Q75,6)</f>
+        <v>13908</v>
+      </c>
+      <c r="S75" cm="1">
+        <f t="array" ref="S75">INDEX(A:H,Q75,5)</f>
+        <v>1177</v>
+      </c>
+      <c r="T75">
+        <f>R75/F75</f>
+        <v>0.54315394829336872</v>
+      </c>
+      <c r="U75">
+        <f>S75/E75</f>
+        <v>0.20476687543493388</v>
+      </c>
+      <c r="V75">
+        <f>C75*U75</f>
+        <v>13.105080027835768</v>
+      </c>
+      <c r="W75">
+        <f>(M75-C75)/(1-C75)</f>
+        <v>0.95209580095934854</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>12288</v>
+        <v>768</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <f>B76*8</f>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D76">
-        <v>11848</v>
+        <v>4142</v>
       </c>
       <c r="E76">
-        <v>141756</v>
+        <v>2988</v>
       </c>
       <c r="F76">
-        <v>205280</v>
+        <v>20582</v>
       </c>
       <c r="G76">
         <f>POWER(A76,2)/C76</f>
-        <v>1887436.8</v>
+        <v>36864</v>
       </c>
       <c r="H76">
-        <f t="shared" si="5"/>
-        <v>1887436.8</v>
+        <f>ROUND(G76,-3)</f>
+        <v>37000</v>
       </c>
       <c r="I76" cm="1">
         <f t="array" ref="I76">MATCH(1,(A76=A:A)*(MIN(IF(A:A=A76,C:C))=C:C),0)</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J76" cm="1">
         <f t="array" ref="J76">INDEX(A:H,I76,6)</f>
-        <v>5274159</v>
+        <v>30878</v>
       </c>
       <c r="K76" cm="1">
         <f t="array" ref="K76">INDEX(A:H,I76,5)</f>
-        <v>4284814</v>
+        <v>12729</v>
       </c>
       <c r="L76" cm="1">
         <f t="array" ref="L76">INDEX(A:H,I76,4)</f>
-        <v>241646</v>
+        <v>2431</v>
       </c>
       <c r="M76">
-        <f t="shared" si="6"/>
-        <v>25.692512665627437</v>
+        <f>J76/F76</f>
+        <v>1.5002429307161598</v>
       </c>
       <c r="N76">
-        <f t="shared" si="7"/>
-        <v>30.226685290216992</v>
+        <f>K76/E76</f>
+        <v>4.2600401606425704</v>
       </c>
       <c r="O76">
-        <f t="shared" si="8"/>
-        <v>20.39550979068197</v>
+        <f>L76/D76</f>
+        <v>0.58691453404152583</v>
       </c>
       <c r="P76">
-        <f t="shared" si="9"/>
-        <v>3.8921845170007199E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M76</f>
+        <v>0.6665587149426776</v>
+      </c>
+      <c r="Q76" cm="1">
+        <f t="array" ref="Q76">MATCH(1,(H76=H:H)*(MIN(IF(H:H=H76,A:A))=A:A),0)</f>
+        <v>78</v>
+      </c>
+      <c r="R76" cm="1">
+        <f t="array" ref="R76">INDEX(A:H,Q76,6)</f>
+        <v>13908</v>
+      </c>
+      <c r="S76" cm="1">
+        <f t="array" ref="S76">INDEX(A:H,Q76,5)</f>
+        <v>1177</v>
+      </c>
+      <c r="T76">
+        <f>R76/F76</f>
+        <v>0.675736080069964</v>
+      </c>
+      <c r="U76">
+        <f>S76/E76</f>
+        <v>0.39390896921017404</v>
+      </c>
+      <c r="V76">
+        <f>C76*U76</f>
+        <v>6.3025435073627847</v>
+      </c>
+      <c r="W76">
+        <f>(M76-C76)/(1-C76)</f>
+        <v>0.96665047128558934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>24576</v>
+        <v>768</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <f>B77*8</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>83336</v>
+        <v>4607</v>
       </c>
       <c r="E77">
-        <v>1231031</v>
+        <v>6027</v>
       </c>
       <c r="F77">
-        <v>1658533</v>
+        <v>20536</v>
       </c>
       <c r="G77">
         <f>POWER(A77,2)/C77</f>
-        <v>25165824</v>
+        <v>36864</v>
       </c>
       <c r="H77">
-        <f t="shared" si="5"/>
-        <v>25165824</v>
+        <f>ROUND(G77,-3)</f>
+        <v>37000</v>
       </c>
       <c r="I77" cm="1">
         <f t="array" ref="I77">MATCH(1,(A77=A:A)*(MIN(IF(A:A=A77,C:C))=C:C),0)</f>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J77" cm="1">
         <f t="array" ref="J77">INDEX(A:H,I77,6)</f>
-        <v>1658533</v>
+        <v>30878</v>
       </c>
       <c r="K77" cm="1">
         <f t="array" ref="K77">INDEX(A:H,I77,5)</f>
-        <v>1231031</v>
+        <v>12729</v>
       </c>
       <c r="L77" cm="1">
         <f t="array" ref="L77">INDEX(A:H,I77,4)</f>
-        <v>83336</v>
+        <v>2431</v>
       </c>
       <c r="M77">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>J77/F77</f>
+        <v>1.5036034281262174</v>
       </c>
       <c r="N77">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>K77/E77</f>
+        <v>2.1119960179193629</v>
       </c>
       <c r="O77">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>L77/D77</f>
+        <v>0.52767527675276749</v>
       </c>
       <c r="P77">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M77</f>
+        <v>0.66506898115162894</v>
+      </c>
+      <c r="Q77" cm="1">
+        <f t="array" ref="Q77">MATCH(1,(H77=H:H)*(MIN(IF(H:H=H77,A:A))=A:A),0)</f>
+        <v>78</v>
+      </c>
+      <c r="R77" cm="1">
+        <f t="array" ref="R77">INDEX(A:H,Q77,6)</f>
+        <v>13908</v>
+      </c>
+      <c r="S77" cm="1">
+        <f t="array" ref="S77">INDEX(A:H,Q77,5)</f>
+        <v>1177</v>
+      </c>
+      <c r="T77">
+        <f>R77/F77</f>
+        <v>0.67724970783015193</v>
+      </c>
+      <c r="U77">
+        <f>S77/E77</f>
+        <v>0.1952878712460594</v>
+      </c>
+      <c r="V77">
+        <f>C77*U77</f>
+        <v>3.1246059399369503</v>
+      </c>
+      <c r="W77">
+        <f>(M77-C77)/(1-C77)</f>
+        <v>0.96642643812491891</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>24576</v>
+        <v>384</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>4</v>
       </c>
-      <c r="C78">
-        <f>B78*8</f>
-        <v>32</v>
-      </c>
       <c r="D78">
-        <v>62796</v>
+        <v>3534</v>
       </c>
       <c r="E78">
-        <v>1048098</v>
+        <v>1177</v>
       </c>
       <c r="F78">
-        <v>1359830</v>
+        <v>13908</v>
       </c>
       <c r="G78">
         <f>POWER(A78,2)/C78</f>
-        <v>18874368</v>
+        <v>36864</v>
       </c>
       <c r="H78">
-        <f t="shared" si="5"/>
-        <v>18874368</v>
+        <f>ROUND(G78,-3)</f>
+        <v>37000</v>
       </c>
       <c r="I78" cm="1">
         <f t="array" ref="I78">MATCH(1,(A78=A:A)*(MIN(IF(A:A=A78,C:C))=C:C),0)</f>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J78" cm="1">
         <f t="array" ref="J78">INDEX(A:H,I78,6)</f>
-        <v>1658533</v>
+        <v>14719</v>
       </c>
       <c r="K78" cm="1">
         <f t="array" ref="K78">INDEX(A:H,I78,5)</f>
-        <v>1231031</v>
+        <v>3293</v>
       </c>
       <c r="L78" cm="1">
         <f t="array" ref="L78">INDEX(A:H,I78,4)</f>
-        <v>83336</v>
+        <v>1446</v>
       </c>
       <c r="M78">
-        <f t="shared" si="6"/>
-        <v>1.2196620165756014</v>
+        <f>J78/F78</f>
+        <v>1.0583117630140926</v>
       </c>
       <c r="N78">
-        <f t="shared" si="7"/>
-        <v>1.1745380680050912</v>
+        <f>K78/E78</f>
+        <v>2.7977909940526762</v>
       </c>
       <c r="O78">
-        <f t="shared" si="8"/>
-        <v>1.3270908975093956</v>
+        <f>L78/D78</f>
+        <v>0.4091680814940577</v>
       </c>
       <c r="P78">
-        <f t="shared" si="9"/>
-        <v>0.81989927242930949</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M78</f>
+        <v>0.94490114817582715</v>
+      </c>
+      <c r="Q78" cm="1">
+        <f t="array" ref="Q78">MATCH(1,(H78=H:H)*(MIN(IF(H:H=H78,A:A))=A:A),0)</f>
+        <v>78</v>
+      </c>
+      <c r="R78" cm="1">
+        <f t="array" ref="R78">INDEX(A:H,Q78,6)</f>
+        <v>13908</v>
+      </c>
+      <c r="S78" cm="1">
+        <f t="array" ref="S78">INDEX(A:H,Q78,5)</f>
+        <v>1177</v>
+      </c>
+      <c r="T78">
+        <f>R78/F78</f>
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <f>S78/E78</f>
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <f>C78*U78</f>
+        <v>4</v>
+      </c>
+      <c r="W78">
+        <f>(M78-C78)/(1-C78)</f>
+        <v>0.9805627456619691</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>24576</v>
+        <v>1536</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C79">
         <f>B79*8</f>
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D79">
-        <v>50205</v>
+        <v>1915</v>
       </c>
       <c r="E79">
-        <v>873766</v>
+        <v>4943</v>
       </c>
       <c r="F79">
-        <v>1133435</v>
+        <v>24378</v>
       </c>
       <c r="G79">
         <f>POWER(A79,2)/C79</f>
-        <v>15099494.4</v>
+        <v>32768</v>
       </c>
       <c r="H79">
-        <f t="shared" si="5"/>
-        <v>15099494.4</v>
+        <f>ROUND(G79,-3)</f>
+        <v>33000</v>
       </c>
       <c r="I79" cm="1">
         <f t="array" ref="I79">MATCH(1,(A79=A:A)*(MIN(IF(A:A=A79,C:C))=C:C),0)</f>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="J79" cm="1">
         <f t="array" ref="J79">INDEX(A:H,I79,6)</f>
-        <v>1658533</v>
+        <v>102884</v>
       </c>
       <c r="K79" cm="1">
         <f t="array" ref="K79">INDEX(A:H,I79,5)</f>
-        <v>1231031</v>
+        <v>75449</v>
       </c>
       <c r="L79" cm="1">
         <f t="array" ref="L79">INDEX(A:H,I79,4)</f>
-        <v>83336</v>
+        <v>5588</v>
       </c>
       <c r="M79">
-        <f t="shared" si="6"/>
-        <v>1.4632802057462493</v>
+        <f>J79/F79</f>
+        <v>4.2203626220362622</v>
       </c>
       <c r="N79">
-        <f t="shared" si="7"/>
-        <v>1.4088794940521834</v>
+        <f>K79/E79</f>
+        <v>15.263807404410278</v>
       </c>
       <c r="O79">
-        <f t="shared" si="8"/>
-        <v>1.659914351160243</v>
+        <f>L79/D79</f>
+        <v>2.9180156657963447</v>
       </c>
       <c r="P79">
-        <f t="shared" si="9"/>
-        <v>0.68339610969453124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M79</f>
+        <v>0.23694646397884997</v>
+      </c>
+      <c r="Q79" cm="1">
+        <f t="array" ref="Q79">MATCH(1,(H79=H:H)*(MIN(IF(H:H=H79,A:A))=A:A),0)</f>
+        <v>79</v>
+      </c>
+      <c r="R79" cm="1">
+        <f t="array" ref="R79">INDEX(A:H,Q79,6)</f>
+        <v>24378</v>
+      </c>
+      <c r="S79" cm="1">
+        <f t="array" ref="S79">INDEX(A:H,Q79,5)</f>
+        <v>4943</v>
+      </c>
+      <c r="T79">
+        <f>R79/F79</f>
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <f>S79/E79</f>
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <f>C79*U79</f>
+        <v>72</v>
+      </c>
+      <c r="W79">
+        <f>(M79-C79)/(1-C79)</f>
+        <v>0.9546427799713203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>24576</v>
+        <v>1536</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <f>B80*8</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D80">
-        <v>42967</v>
+        <v>1939</v>
       </c>
       <c r="E80">
-        <v>739814</v>
+        <v>5056</v>
       </c>
       <c r="F80">
-        <v>946413</v>
+        <v>24264</v>
       </c>
       <c r="G80">
         <f>POWER(A80,2)/C80</f>
-        <v>12582912</v>
+        <v>29491.200000000001</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
-        <v>12582912</v>
+        <f>ROUND(G80,-3)</f>
+        <v>29000</v>
       </c>
       <c r="I80" cm="1">
         <f t="array" ref="I80">MATCH(1,(A80=A:A)*(MIN(IF(A:A=A80,C:C))=C:C),0)</f>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="J80" cm="1">
         <f t="array" ref="J80">INDEX(A:H,I80,6)</f>
-        <v>1658533</v>
+        <v>102884</v>
       </c>
       <c r="K80" cm="1">
         <f t="array" ref="K80">INDEX(A:H,I80,5)</f>
-        <v>1231031</v>
+        <v>75449</v>
       </c>
       <c r="L80" cm="1">
         <f t="array" ref="L80">INDEX(A:H,I80,4)</f>
-        <v>83336</v>
+        <v>5588</v>
       </c>
       <c r="M80">
-        <f t="shared" si="6"/>
-        <v>1.7524410590302542</v>
+        <f>J80/F80</f>
+        <v>4.2401912298054727</v>
       </c>
       <c r="N80">
-        <f t="shared" si="7"/>
-        <v>1.6639736474303</v>
+        <f>K80/E80</f>
+        <v>14.922666139240507</v>
       </c>
       <c r="O80">
-        <f t="shared" si="8"/>
-        <v>1.939534991970582</v>
+        <f>L80/D80</f>
+        <v>2.881897885507994</v>
       </c>
       <c r="P80">
-        <f t="shared" si="9"/>
-        <v>0.57063260122047621</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M80</f>
+        <v>0.23583841996811947</v>
+      </c>
+      <c r="Q80" cm="1">
+        <f t="array" ref="Q80">MATCH(1,(H80=H:H)*(MIN(IF(H:H=H80,A:A))=A:A),0)</f>
+        <v>80</v>
+      </c>
+      <c r="R80" cm="1">
+        <f t="array" ref="R80">INDEX(A:H,Q80,6)</f>
+        <v>24264</v>
+      </c>
+      <c r="S80" cm="1">
+        <f t="array" ref="S80">INDEX(A:H,Q80,5)</f>
+        <v>5056</v>
+      </c>
+      <c r="T80">
+        <f>R80/F80</f>
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <f>S80/E80</f>
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <f>C80*U80</f>
+        <v>80</v>
+      </c>
+      <c r="W80">
+        <f>(M80-C80)/(1-C80)</f>
+        <v>0.95898492114170286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>24576</v>
+        <v>768</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <f>B81*8</f>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D81">
-        <v>38153</v>
+        <v>2913</v>
       </c>
       <c r="E81">
-        <v>586159</v>
+        <v>2388</v>
       </c>
       <c r="F81">
-        <v>778793</v>
+        <v>18836</v>
       </c>
       <c r="G81">
         <f>POWER(A81,2)/C81</f>
-        <v>10785353.142857144</v>
+        <v>24576</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
-        <v>10785353.1</v>
+        <f>ROUND(G81,-3)</f>
+        <v>25000</v>
       </c>
       <c r="I81" cm="1">
         <f t="array" ref="I81">MATCH(1,(A81=A:A)*(MIN(IF(A:A=A81,C:C))=C:C),0)</f>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J81" cm="1">
         <f t="array" ref="J81">INDEX(A:H,I81,6)</f>
-        <v>1658533</v>
+        <v>30878</v>
       </c>
       <c r="K81" cm="1">
         <f t="array" ref="K81">INDEX(A:H,I81,5)</f>
-        <v>1231031</v>
+        <v>12729</v>
       </c>
       <c r="L81" cm="1">
         <f t="array" ref="L81">INDEX(A:H,I81,4)</f>
-        <v>83336</v>
+        <v>2431</v>
       </c>
       <c r="M81">
-        <f t="shared" si="6"/>
-        <v>2.1296198091148737</v>
+        <f>J81/F81</f>
+        <v>1.6393077086430239</v>
       </c>
       <c r="N81">
-        <f t="shared" si="7"/>
-        <v>2.1001656547114349</v>
+        <f>K81/E81</f>
+        <v>5.3304020100502516</v>
       </c>
       <c r="O81">
-        <f t="shared" si="8"/>
-        <v>2.1842581186276306</v>
+        <f>L81/D81</f>
+        <v>0.83453484380363885</v>
       </c>
       <c r="P81">
-        <f t="shared" si="9"/>
-        <v>0.46956738274125392</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M81</f>
+        <v>0.61001360191722265</v>
+      </c>
+      <c r="Q81" cm="1">
+        <f t="array" ref="Q81">MATCH(1,(H81=H:H)*(MIN(IF(H:H=H81,A:A))=A:A),0)</f>
+        <v>81</v>
+      </c>
+      <c r="R81" cm="1">
+        <f t="array" ref="R81">INDEX(A:H,Q81,6)</f>
+        <v>18836</v>
+      </c>
+      <c r="S81" cm="1">
+        <f t="array" ref="S81">INDEX(A:H,Q81,5)</f>
+        <v>2388</v>
+      </c>
+      <c r="T81">
+        <f>R81/F81</f>
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <f>S81/E81</f>
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <f>C81*U81</f>
+        <v>24</v>
+      </c>
+      <c r="W81">
+        <f>(M81-C81)/(1-C81)</f>
+        <v>0.97220401266769463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>24576</v>
+        <v>768</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <f>B82*8</f>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D82">
-        <v>34219</v>
+        <v>1628</v>
       </c>
       <c r="E82">
-        <v>580086</v>
+        <v>2059</v>
       </c>
       <c r="F82">
-        <v>752438</v>
+        <v>17874</v>
       </c>
       <c r="G82">
         <f>POWER(A82,2)/C82</f>
-        <v>9437184</v>
+        <v>18432</v>
       </c>
       <c r="H82">
-        <f t="shared" si="5"/>
-        <v>9437184</v>
+        <f>ROUND(G82,-3)</f>
+        <v>18000</v>
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">MATCH(1,(A82=A:A)*(MIN(IF(A:A=A82,C:C))=C:C),0)</f>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX(A:H,I82,6)</f>
-        <v>1658533</v>
+        <v>30878</v>
       </c>
       <c r="K82" cm="1">
         <f t="array" ref="K82">INDEX(A:H,I82,5)</f>
-        <v>1231031</v>
+        <v>12729</v>
       </c>
       <c r="L82" cm="1">
         <f t="array" ref="L82">INDEX(A:H,I82,4)</f>
-        <v>83336</v>
+        <v>2431</v>
       </c>
       <c r="M82">
-        <f t="shared" si="6"/>
-        <v>2.2042121742921013</v>
+        <f>J82/F82</f>
+        <v>1.7275372048785946</v>
       </c>
       <c r="N82">
-        <f t="shared" si="7"/>
-        <v>2.122152577376458</v>
+        <f>K82/E82</f>
+        <v>6.1821272462360373</v>
       </c>
       <c r="O82">
-        <f t="shared" si="8"/>
-        <v>2.4353721616645725</v>
+        <f>L82/D82</f>
+        <v>1.4932432432432432</v>
       </c>
       <c r="P82">
-        <f t="shared" si="9"/>
-        <v>0.4536768336837434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M82</f>
+        <v>0.57885873437398794</v>
+      </c>
+      <c r="Q82" cm="1">
+        <f t="array" ref="Q82">MATCH(1,(H82=H:H)*(MIN(IF(H:H=H82,A:A))=A:A),0)</f>
+        <v>83</v>
+      </c>
+      <c r="R82" cm="1">
+        <f t="array" ref="R82">INDEX(A:H,Q82,6)</f>
+        <v>16481</v>
+      </c>
+      <c r="S82" cm="1">
+        <f t="array" ref="S82">INDEX(A:H,Q82,5)</f>
+        <v>1351</v>
+      </c>
+      <c r="T82">
+        <f>R82/F82</f>
+        <v>0.92206557010182388</v>
+      </c>
+      <c r="U82">
+        <f>S82/E82</f>
+        <v>0.65614375910636236</v>
+      </c>
+      <c r="V82">
+        <f>C82*U82</f>
+        <v>20.996600291403595</v>
+      </c>
+      <c r="W82">
+        <f>(M82-C82)/(1-C82)</f>
+        <v>0.97653105790714212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>24576</v>
+        <v>384</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <f>B83*8</f>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>30278</v>
+        <v>5989</v>
       </c>
       <c r="E83">
-        <v>497119</v>
+        <v>1351</v>
       </c>
       <c r="F83">
-        <v>649736</v>
+        <v>16481</v>
       </c>
       <c r="G83">
         <f>POWER(A83,2)/C83</f>
-        <v>8388608</v>
+        <v>18432</v>
       </c>
       <c r="H83">
-        <f t="shared" si="5"/>
-        <v>8388608</v>
+        <f>ROUND(G83,-3)</f>
+        <v>18000</v>
       </c>
       <c r="I83" cm="1">
         <f t="array" ref="I83">MATCH(1,(A83=A:A)*(MIN(IF(A:A=A83,C:C))=C:C),0)</f>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX(A:H,I83,6)</f>
-        <v>1658533</v>
+        <v>14719</v>
       </c>
       <c r="K83" cm="1">
         <f t="array" ref="K83">INDEX(A:H,I83,5)</f>
-        <v>1231031</v>
+        <v>3293</v>
       </c>
       <c r="L83" cm="1">
         <f t="array" ref="L83">INDEX(A:H,I83,4)</f>
-        <v>83336</v>
+        <v>1446</v>
       </c>
       <c r="M83">
-        <f t="shared" si="6"/>
-        <v>2.5526259896327121</v>
+        <f>J83/F83</f>
+        <v>0.89308901158910259</v>
       </c>
       <c r="N83">
-        <f t="shared" si="7"/>
-        <v>2.4763306170152419</v>
+        <f>K83/E83</f>
+        <v>2.4374537379718726</v>
       </c>
       <c r="O83">
-        <f t="shared" si="8"/>
-        <v>2.7523614505581611</v>
+        <f>L83/D83</f>
+        <v>0.24144264484888964</v>
       </c>
       <c r="P83">
-        <f t="shared" si="9"/>
-        <v>0.39175343511404359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M83</f>
+        <v>1.1197092193763163</v>
+      </c>
+      <c r="Q83" cm="1">
+        <f t="array" ref="Q83">MATCH(1,(H83=H:H)*(MIN(IF(H:H=H83,A:A))=A:A),0)</f>
+        <v>83</v>
+      </c>
+      <c r="R83" cm="1">
+        <f t="array" ref="R83">INDEX(A:H,Q83,6)</f>
+        <v>16481</v>
+      </c>
+      <c r="S83" cm="1">
+        <f t="array" ref="S83">INDEX(A:H,Q83,5)</f>
+        <v>1351</v>
+      </c>
+      <c r="T83">
+        <f>R83/F83</f>
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <f>S83/E83</f>
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <f>C83*U83</f>
+        <v>8</v>
+      </c>
+      <c r="W83">
+        <f>(M83-C83)/(1-C83)</f>
+        <v>1.015272998344414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>24576</v>
+        <v>768</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <f>B84*8</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D84">
-        <v>28562</v>
+        <v>1560</v>
       </c>
       <c r="E84">
-        <v>437892</v>
+        <v>1937</v>
       </c>
       <c r="F84">
-        <v>584031</v>
+        <v>17658</v>
       </c>
       <c r="G84">
         <f>POWER(A84,2)/C84</f>
-        <v>7549747.2000000002</v>
+        <v>14745.6</v>
       </c>
       <c r="H84">
-        <f t="shared" si="5"/>
-        <v>7549747.2000000002</v>
+        <f>ROUND(G84,-3)</f>
+        <v>15000</v>
       </c>
       <c r="I84" cm="1">
         <f t="array" ref="I84">MATCH(1,(A84=A:A)*(MIN(IF(A:A=A84,C:C))=C:C),0)</f>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J84" cm="1">
         <f t="array" ref="J84">INDEX(A:H,I84,6)</f>
-        <v>1658533</v>
+        <v>30878</v>
       </c>
       <c r="K84" cm="1">
         <f t="array" ref="K84">INDEX(A:H,I84,5)</f>
-        <v>1231031</v>
+        <v>12729</v>
       </c>
       <c r="L84" cm="1">
         <f t="array" ref="L84">INDEX(A:H,I84,4)</f>
-        <v>83336</v>
+        <v>2431</v>
       </c>
       <c r="M84">
-        <f t="shared" si="6"/>
-        <v>2.8398030241545396</v>
+        <f>J84/F84</f>
+        <v>1.7486691584550911</v>
       </c>
       <c r="N84">
-        <f t="shared" si="7"/>
-        <v>2.8112662482986672</v>
+        <f>K84/E84</f>
+        <v>6.5715023231801757</v>
       </c>
       <c r="O84">
-        <f t="shared" si="8"/>
-        <v>2.9177228485400182</v>
+        <f>L84/D84</f>
+        <v>1.5583333333333333</v>
       </c>
       <c r="P84">
-        <f t="shared" si="9"/>
-        <v>0.35213709947284744</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+        <f>1/M84</f>
+        <v>0.57186346265949872</v>
+      </c>
+      <c r="Q84" cm="1">
+        <f t="array" ref="Q84">MATCH(1,(H84=H:H)*(MIN(IF(H:H=H84,A:A))=A:A),0)</f>
+        <v>84</v>
+      </c>
+      <c r="R84" cm="1">
+        <f t="array" ref="R84">INDEX(A:H,Q84,6)</f>
+        <v>17658</v>
+      </c>
+      <c r="S84" cm="1">
+        <f t="array" ref="S84">INDEX(A:H,Q84,5)</f>
+        <v>1937</v>
+      </c>
+      <c r="T84">
+        <f>R84/F84</f>
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <f>S84/E84</f>
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <f>C84*U84</f>
+        <v>40</v>
+      </c>
+      <c r="W84">
+        <f>(M84-C84)/(1-C84)</f>
+        <v>0.9808033549114078</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>49152</v>
+        <v>384</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <f>B85*8</f>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>100880</v>
+        <v>5952</v>
       </c>
       <c r="E85">
-        <v>1686564</v>
+        <v>1621</v>
       </c>
       <c r="F85">
-        <v>2214449</v>
+        <v>16824</v>
       </c>
       <c r="G85">
         <f>POWER(A85,2)/C85</f>
-        <v>30198988.800000001</v>
+        <v>9216</v>
       </c>
       <c r="H85">
-        <f t="shared" si="5"/>
-        <v>30198988.800000001</v>
+        <f>ROUND(G85,-3)</f>
+        <v>9000</v>
       </c>
       <c r="I85" cm="1">
         <f t="array" ref="I85">MATCH(1,(A85=A:A)*(MIN(IF(A:A=A85,C:C))=C:C),0)</f>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="J85" cm="1">
         <f t="array" ref="J85">INDEX(A:H,I85,6)</f>
-        <v>2214449</v>
+        <v>14719</v>
       </c>
       <c r="K85" cm="1">
         <f t="array" ref="K85">INDEX(A:H,I85,5)</f>
-        <v>1686564</v>
+        <v>3293</v>
       </c>
       <c r="L85" cm="1">
         <f t="array" ref="L85">INDEX(A:H,I85,4)</f>
-        <v>100880</v>
+        <v>1446</v>
       </c>
       <c r="M85">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>J85/F85</f>
+        <v>0.87488112220637182</v>
       </c>
       <c r="N85">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>K85/E85</f>
+        <v>2.0314620604565081</v>
       </c>
       <c r="O85">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>L85/D85</f>
+        <v>0.24294354838709678</v>
       </c>
       <c r="P85">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>1/M85</f>
+        <v>1.1430124329098446</v>
+      </c>
+      <c r="Q85" cm="1">
+        <f t="array" ref="Q85">MATCH(1,(H85=H:H)*(MIN(IF(H:H=H85,A:A))=A:A),0)</f>
+        <v>85</v>
+      </c>
+      <c r="R85" cm="1">
+        <f t="array" ref="R85">INDEX(A:H,Q85,6)</f>
+        <v>16824</v>
+      </c>
+      <c r="S85" cm="1">
+        <f t="array" ref="S85">INDEX(A:H,Q85,5)</f>
+        <v>1621</v>
+      </c>
+      <c r="T85">
+        <f>R85/F85</f>
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <f>S85/E85</f>
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <f>C85*U85</f>
+        <v>16</v>
+      </c>
+      <c r="W85">
+        <f>(M85-C85)/(1-C85)</f>
+        <v>1.0083412585195752</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H86">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W88">
+    <sortCondition descending="1" ref="H1"/>
   </sortState>
+  <conditionalFormatting sqref="W1:W1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
